--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234C5E88-586A-4647-87FC-44059EF4A9EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F38ABB-990B-4008-98D0-77040DC1459D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="BatchDecisionOutputValidations" sheetId="8" r:id="rId8"/>
     <sheet name="CheckLists" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="291">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -888,9 +888,6 @@
   </si>
   <si>
     <t>OfferRegr4819</t>
-  </si>
-  <si>
-    <t>TS1_Regr_014</t>
   </si>
   <si>
     <t>ED_Offer_RenamedLabel_2</t>
@@ -1095,24 +1092,6 @@
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1135,6 +1114,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1578,22 +1575,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1614,130 +1611,130 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="8" customWidth="1"/>
-    <col min="6" max="1025" width="9.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="2" customWidth="1"/>
+    <col min="6" max="1025" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" ht="14.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="14.25">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" ht="14.25">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="14.25">
+      <c r="A2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" s="9" customFormat="1" ht="14.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" s="12" customFormat="1" ht="14.25">
-      <c r="A4" s="11" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="14.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" s="6" customFormat="1" ht="14.25">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1753,7 +1750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -1770,62 +1767,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1833,899 +1830,899 @@
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="7"/>
+      <c r="F5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="9">
         <v>5000</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="7"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="7"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="9">
         <v>2000</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="7"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="9">
         <v>3000</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="7"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="9">
         <v>3000</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="7"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="7"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="15" t="s">
+      <c r="D15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="9">
         <v>3000</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="7"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="15" t="s">
+      <c r="D16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="7"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="15" t="s">
+      <c r="D17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="7"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="1">
         <v>5000</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="1">
         <v>3000</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="D30" s="26" t="s">
+      <c r="C30" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="D30" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E30" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="7" t="s">
+      <c r="D32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="1">
         <v>3000</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="7" t="s">
+      <c r="D34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="1">
         <v>3000</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="7" t="s">
+      <c r="D36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="1">
         <v>3000</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="7" t="s">
+      <c r="D39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="1">
         <v>20000</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="7" t="s">
+      <c r="D43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="1">
         <v>10000</v>
       </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="7" t="s">
+      <c r="D44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="7" t="s">
+      <c r="D46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="1">
         <v>30000</v>
       </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="7" t="s">
+      <c r="D47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2758,1112 +2755,1112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="F5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="F6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="9">
         <v>5000</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="D9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="9">
         <v>2000</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="9">
         <v>3000</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="9">
         <v>3000</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="15" t="s">
+      <c r="D15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="9">
         <v>3000</v>
       </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="15" t="s">
+      <c r="D16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="15" t="s">
+      <c r="D17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="15"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="15"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="15"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="15"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="D22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="1">
         <v>3000</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="15"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="15"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="D28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="1">
         <v>3000</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="15"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="13">
         <v>43525</v>
       </c>
-      <c r="G33" s="19"/>
-      <c r="H33" s="15"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="13">
         <v>45743</v>
       </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="15"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="15"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="15"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="15"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="7" t="s">
+      <c r="D41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="9">
         <v>5000</v>
       </c>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="7" t="s">
+      <c r="D43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="9">
         <v>10000</v>
       </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="7" t="s">
+      <c r="D46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="1">
         <v>20000</v>
       </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E50" s="7" t="s">
+      <c r="D50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="1">
         <v>10000</v>
       </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51" s="7" t="s">
+      <c r="D51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E53" s="7" t="s">
+      <c r="D53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="1">
         <v>30000</v>
       </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" s="7" t="s">
+      <c r="D54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3897,986 +3894,986 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="14">
         <v>5000</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="7"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="15" t="s">
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="1">
         <v>5000</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="1">
         <v>3000</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="D28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="1">
         <v>3000</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="D30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="1">
         <v>8000</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="7" t="s">
+      <c r="D32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="1">
         <v>8000</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="7" t="s">
+      <c r="D35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="1">
         <v>3000</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="7" t="s">
+      <c r="D37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="1">
         <v>3000</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="7" t="s">
+      <c r="D40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="1">
         <v>20000</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="7" t="s">
+      <c r="D44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="1">
         <v>10000</v>
       </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="7" t="s">
+      <c r="D45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="7" t="s">
+      <c r="D47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="1">
         <v>30000</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" s="7" t="s">
+      <c r="D48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4909,1288 +4906,1288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="7"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="D22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="1">
         <v>5000</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="D28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="1">
         <v>3000</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="7" t="s">
+      <c r="D35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="7" t="s">
+      <c r="D37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="1">
         <v>3000</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="15"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42" s="13">
         <v>43526</v>
       </c>
-      <c r="G42" s="19"/>
-      <c r="H42" s="15"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="13">
         <v>45743</v>
       </c>
-      <c r="G43" s="19"/>
-      <c r="H43" s="15"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="15"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="15"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="15"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="9"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E50" s="7" t="s">
+      <c r="D50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F50" s="9">
         <v>5000</v>
       </c>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E52" s="7" t="s">
+      <c r="D52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F52" s="15" t="s">
+      <c r="F52" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="G52" s="15" t="s">
+      <c r="G52" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="H52" s="15"/>
+      <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E53" s="21" t="s">
+      <c r="E53" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="15"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="9"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E55" s="7" t="s">
+      <c r="D55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="1">
         <v>20000</v>
       </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="15"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="9"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="15"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="9"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" s="7" t="s">
+      <c r="D57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="1">
         <v>60000</v>
       </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="15"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="15"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E59" s="7" t="s">
+      <c r="D59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="1">
         <v>30000</v>
       </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="15"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="9"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="15"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="9"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D61" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E61" s="7" t="s">
+      <c r="D61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="1">
         <v>123458</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G61" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="H61" s="15"/>
+      <c r="H61" s="9"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D62" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E62" s="7" t="s">
+      <c r="D62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="15"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6225,898 +6222,898 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="7"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="D19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="1">
         <v>3</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="1">
         <v>2</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="D22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="1">
         <v>1</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="7" t="s">
+      <c r="D28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="1">
         <v>2</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="D29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="7" t="s">
+      <c r="D30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D32" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="7" t="s">
+      <c r="D32" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D33" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="7" t="s">
+      <c r="D33" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="7" t="s">
+      <c r="D36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="1">
         <v>3000</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="7" t="s">
+      <c r="D37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="7" t="s">
+      <c r="D38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="1">
         <v>3000</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="7" t="s">
+      <c r="D39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="7" t="s">
+      <c r="D42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="7" t="s">
+      <c r="D43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7133,8 +7130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7151,73 +7148,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="18" t="s">
         <v>278</v>
       </c>
     </row>
@@ -7225,16 +7222,16 @@
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="18" t="s">
         <v>278</v>
       </c>
     </row>
@@ -7242,16 +7239,16 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="18" t="s">
         <v>278</v>
       </c>
     </row>
@@ -7259,16 +7256,16 @@
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="18" t="s">
         <v>278</v>
       </c>
     </row>
@@ -7276,34 +7273,34 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="18" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="D10" s="24" t="s">
+      <c r="E10" s="18" t="s">
         <v>286</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -7337,7 +7334,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7345,7 +7342,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F38ABB-990B-4008-98D0-77040DC1459D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3BCD27-1CE0-45F8-AD5E-79BBC0639395}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="292">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -906,6 +906,9 @@
   </si>
   <si>
     <t>Deselect web</t>
+  </si>
+  <si>
+    <t>uncheck cc</t>
   </si>
 </sst>
 </file>
@@ -1750,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2737,10 +2740,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3286,13 +3289,13 @@
         <v>98</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>137</v>
+        <v>291</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -3303,21 +3306,19 @@
         <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G28" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8">
@@ -3325,16 +3326,16 @@
         <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -3345,16 +3346,16 @@
         <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>49</v>
+        <v>136</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -3365,20 +3366,18 @@
         <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>142</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
     </row>
@@ -3387,21 +3386,21 @@
         <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G32" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G32" s="1"/>
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8">
@@ -3409,21 +3408,19 @@
         <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="13">
-        <v>43525</v>
-      </c>
-      <c r="G33" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
       <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8">
@@ -3431,21 +3428,19 @@
         <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" s="13">
-        <v>45743</v>
-      </c>
-      <c r="G34" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
       <c r="H34" s="9"/>
     </row>
     <row r="35" spans="1:8">
@@ -3453,18 +3448,20 @@
         <v>16</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
     </row>
@@ -3473,18 +3470,20 @@
         <v>16</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
     </row>
@@ -3493,21 +3492,21 @@
         <v>16</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G37" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="F37" s="13">
+        <v>43525</v>
+      </c>
+      <c r="G37" s="13"/>
       <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8">
@@ -3515,19 +3514,21 @@
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="F38" s="13">
+        <v>45743</v>
+      </c>
+      <c r="G38" s="13"/>
       <c r="H38" s="9"/>
     </row>
     <row r="39" spans="1:8">
@@ -3535,21 +3536,19 @@
         <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G39" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
       <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8">
@@ -3557,13 +3556,13 @@
         <v>16</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>49</v>
@@ -3577,21 +3576,21 @@
         <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F41" s="9">
-        <v>5000</v>
-      </c>
-      <c r="G41" s="9"/>
+        <v>154</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8">
@@ -3599,19 +3598,19 @@
         <v>16</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
       <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8">
@@ -3619,21 +3618,21 @@
         <v>16</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" s="9">
-        <v>10000</v>
-      </c>
-      <c r="G43" s="9"/>
+        <v>154</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G43" s="1"/>
       <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8">
@@ -3641,13 +3640,13 @@
         <v>16</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>49</v>
@@ -3661,18 +3660,20 @@
         <v>16</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F45" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="F45" s="9">
+        <v>5000</v>
+      </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
     </row>
@@ -3681,92 +3682,92 @@
         <v>16</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F46" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F47" s="9">
+        <v>10000</v>
+      </c>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>38</v>
@@ -3775,7 +3776,7 @@
         <v>45</v>
       </c>
       <c r="F50" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -3785,16 +3786,16 @@
         <v>16</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -3805,16 +3806,16 @@
         <v>16</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -3825,20 +3826,18 @@
         <v>16</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F53" s="1">
-        <v>30000</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
@@ -3847,20 +3846,104 @@
         <v>16</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F54" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F54" s="1">
+        <v>10000</v>
+      </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3877,7 +3960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -7130,7 +7213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3BCD27-1CE0-45F8-AD5E-79BBC0639395}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05620A5B-CF36-412F-8A4F-5613666AED28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="292">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -2742,8 +2742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4971,10 +4971,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5624,13 +5624,13 @@
         <v>98</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -5644,17 +5644,15 @@
         <v>100</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>198</v>
+        <v>91</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>289</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
@@ -5666,13 +5664,13 @@
         <v>101</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>200</v>
+        <v>91</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>198</v>
+        <v>95</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -5686,17 +5684,15 @@
         <v>102</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
@@ -5705,13 +5701,13 @@
         <v>19</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>49</v>
@@ -5725,105 +5721,105 @@
         <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>44</v>
+        <v>197</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>38</v>
+        <v>198</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="1">
-        <v>3000</v>
+        <v>75</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="G37" s="1"/>
-      <c r="H37" s="9"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>137</v>
+        <v>200</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
+        <v>201</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>138</v>
+        <v>202</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
+        <v>203</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
+        <v>49</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="G41" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="F41" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8">
@@ -5831,21 +5827,19 @@
         <v>19</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F42" s="13">
-        <v>43526</v>
-      </c>
-      <c r="G42" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
       <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8">
@@ -5853,21 +5847,19 @@
         <v>19</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43" s="13">
-        <v>45743</v>
-      </c>
-      <c r="G43" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
       <c r="H43" s="9"/>
     </row>
     <row r="44" spans="1:8">
@@ -5875,18 +5867,20 @@
         <v>19</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>204</v>
+      </c>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
     </row>
@@ -5895,18 +5889,20 @@
         <v>19</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F45" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>204</v>
+      </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
     </row>
@@ -5915,21 +5911,21 @@
         <v>19</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G46" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="F46" s="13">
+        <v>43526</v>
+      </c>
+      <c r="G46" s="13"/>
       <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8">
@@ -5937,19 +5933,21 @@
         <v>19</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="F47" s="13">
+        <v>45743</v>
+      </c>
+      <c r="G47" s="13"/>
       <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8">
@@ -5957,21 +5955,19 @@
         <v>19</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G48" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
       <c r="H48" s="9"/>
     </row>
     <row r="49" spans="1:8">
@@ -5979,13 +5975,13 @@
         <v>19</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>49</v>
@@ -5999,21 +5995,21 @@
         <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F50" s="9">
-        <v>5000</v>
-      </c>
-      <c r="G50" s="9"/>
+        <v>154</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G50" s="1"/>
       <c r="H50" s="9"/>
     </row>
     <row r="51" spans="1:8">
@@ -6021,19 +6017,19 @@
         <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>83</v>
+        <v>205</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
       <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:8">
@@ -6041,43 +6037,41 @@
         <v>19</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>199</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G52" s="1"/>
       <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B53" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E53" s="15" t="s">
+      <c r="B53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
       <c r="H53" s="9"/>
     </row>
     <row r="54" spans="1:8">
@@ -6088,15 +6082,17 @@
         <v>165</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F54" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="F54" s="9">
+        <v>5000</v>
+      </c>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
     </row>
@@ -6105,21 +6101,19 @@
         <v>19</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F55" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G55" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
       <c r="H55" s="9"/>
     </row>
     <row r="56" spans="1:8">
@@ -6127,41 +6121,43 @@
         <v>19</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>110</v>
+        <v>209</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+        <v>210</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>199</v>
+      </c>
       <c r="H56" s="9"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F57" s="1">
-        <v>60000</v>
-      </c>
-      <c r="G57" s="1"/>
+      <c r="B57" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
       <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8">
@@ -6169,19 +6165,19 @@
         <v>19</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
       <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8">
@@ -6189,7 +6185,7 @@
         <v>19</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>44</v>
@@ -6201,7 +6197,7 @@
         <v>45</v>
       </c>
       <c r="F59" s="1">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="9"/>
@@ -6211,20 +6207,18 @@
         <v>19</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>211</v>
+        <v>110</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>212</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="9"/>
     </row>
@@ -6233,23 +6227,21 @@
         <v>19</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>213</v>
+        <v>120</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c r="F61" s="1">
-        <v>123458</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>199</v>
-      </c>
+        <v>60000</v>
+      </c>
+      <c r="G61" s="1"/>
       <c r="H61" s="9"/>
     </row>
     <row r="62" spans="1:8">
@@ -6257,20 +6249,108 @@
         <v>19</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="9"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="9"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G64" s="1"/>
+      <c r="H64" s="9"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F65" s="1">
+        <v>123458</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H65" s="9"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05620A5B-CF36-412F-8A4F-5613666AED28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BE9526-47DD-4644-9857-633FAB57CE37}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="292">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -554,9 +554,6 @@
     <t>hiddenClick</t>
   </si>
   <si>
-    <t>test_5</t>
-  </si>
-  <si>
     <t>select radio button</t>
   </si>
   <si>
@@ -909,6 +906,9 @@
   </si>
   <si>
     <t>uncheck cc</t>
+  </si>
+  <si>
+    <t>free_mobile</t>
   </si>
 </sst>
 </file>
@@ -2363,10 +2363,10 @@
         <v>98</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>93</v>
@@ -2743,7 +2743,7 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3289,7 +3289,7 @@
         <v>98</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>95</v>
@@ -3352,7 +3352,7 @@
         <v>136</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>93</v>
@@ -3958,10 +3958,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4505,16 +4505,16 @@
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -4525,20 +4525,18 @@
         <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>38</v>
+        <v>91</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>288</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="1">
-        <v>3000</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
@@ -4547,16 +4545,16 @@
         <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -4567,20 +4565,18 @@
         <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="1">
-        <v>8000</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
@@ -4589,20 +4585,18 @@
         <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>173</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
@@ -4611,7 +4605,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>44</v>
@@ -4623,7 +4617,7 @@
         <v>45</v>
       </c>
       <c r="F32" s="1">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -4633,13 +4627,13 @@
         <v>22</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>49</v>
@@ -4653,18 +4647,20 @@
         <v>22</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>176</v>
+        <v>44</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F34" s="1">
+        <v>8000</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
@@ -4673,19 +4669,19 @@
         <v>22</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="1">
-        <v>3000</v>
+        <v>172</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -4695,18 +4691,20 @@
         <v>22</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F36" s="1">
+        <v>8000</v>
+      </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
@@ -4715,20 +4713,18 @@
         <v>22</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="1">
-        <v>3000</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
@@ -4737,13 +4733,13 @@
         <v>22</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>49</v>
@@ -4757,18 +4753,20 @@
         <v>22</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F39" s="1">
+        <v>3000</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
@@ -4777,20 +4775,18 @@
         <v>22</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="1">
-        <v>20000</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
@@ -4799,18 +4795,20 @@
         <v>22</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F41" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F41" s="1">
+        <v>3000</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
@@ -4819,16 +4817,16 @@
         <v>22</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -4839,16 +4837,16 @@
         <v>22</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -4859,10 +4857,10 @@
         <v>22</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>38</v>
@@ -4871,7 +4869,7 @@
         <v>45</v>
       </c>
       <c r="F44" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -4881,16 +4879,16 @@
         <v>22</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -4901,16 +4899,16 @@
         <v>22</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -4921,20 +4919,18 @@
         <v>22</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F47" s="1">
-        <v>30000</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
@@ -4943,20 +4939,104 @@
         <v>22</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F48" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F48" s="1">
+        <v>10000</v>
+      </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4973,7 +5053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -4990,7 +5070,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -5107,7 +5187,7 @@
         <v>45</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="1"/>
@@ -5210,7 +5290,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
@@ -5248,10 +5328,10 @@
         <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>49</v>
@@ -5268,7 +5348,7 @@
         <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>38</v>
@@ -5290,10 +5370,10 @@
         <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>49</v>
@@ -5310,10 +5390,10 @@
         <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>49</v>
@@ -5330,13 +5410,13 @@
         <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5401,7 +5481,7 @@
         <v>63</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -5487,7 +5567,7 @@
         <v>75</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -5509,7 +5589,7 @@
         <v>75</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -5647,7 +5727,7 @@
         <v>91</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>93</v>
@@ -5704,10 +5784,10 @@
         <v>98</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>49</v>
@@ -5724,16 +5804,16 @@
         <v>100</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -5746,13 +5826,13 @@
         <v>101</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -5766,16 +5846,16 @@
         <v>102</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -5879,7 +5959,7 @@
         <v>75</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
@@ -5901,7 +5981,7 @@
         <v>75</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
@@ -6023,7 +6103,7 @@
         <v>156</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>49</v>
@@ -6043,13 +6123,13 @@
         <v>158</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>154</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="9"/>
@@ -6104,7 +6184,7 @@
         <v>164</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>83</v>
@@ -6124,19 +6204,19 @@
         <v>161</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="F56" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H56" s="9"/>
     </row>
@@ -6294,7 +6374,7 @@
         <v>127</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>3</v>
@@ -6303,7 +6383,7 @@
         <v>4</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="9"/>
@@ -6316,19 +6396,19 @@
         <v>127</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="F65" s="1">
         <v>123458</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H65" s="9"/>
     </row>
@@ -6386,7 +6466,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -6503,7 +6583,7 @@
         <v>45</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="1"/>
@@ -6516,16 +6596,16 @@
         <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -6538,10 +6618,10 @@
         <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>49</v>
@@ -6558,10 +6638,10 @@
         <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>49</v>
@@ -6578,7 +6658,7 @@
         <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>38</v>
@@ -6587,7 +6667,7 @@
         <v>63</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -6600,10 +6680,10 @@
         <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>49</v>
@@ -6620,10 +6700,10 @@
         <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>49</v>
@@ -6682,16 +6762,16 @@
         <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>229</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>230</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>154</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -6704,10 +6784,10 @@
         <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>49</v>
@@ -6733,7 +6813,7 @@
         <v>45</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -6746,13 +6826,13 @@
         <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F19" s="1">
         <v>3</v>
@@ -6768,13 +6848,13 @@
         <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -6788,13 +6868,13 @@
         <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
@@ -6810,13 +6890,13 @@
         <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -6830,13 +6910,13 @@
         <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -6852,10 +6932,10 @@
         <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>49</v>
@@ -6872,13 +6952,13 @@
         <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -6892,13 +6972,13 @@
         <v>43</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -6912,10 +6992,10 @@
         <v>43</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>49</v>
@@ -6932,13 +7012,13 @@
         <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F28" s="1">
         <v>2</v>
@@ -6954,13 +7034,13 @@
         <v>43</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -6974,7 +7054,7 @@
         <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>38</v>
@@ -6983,7 +7063,7 @@
         <v>63</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -6996,10 +7076,10 @@
         <v>43</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>49</v>
@@ -7016,13 +7096,13 @@
         <v>43</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -7036,7 +7116,7 @@
         <v>43</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>38</v>
@@ -7045,7 +7125,7 @@
         <v>63</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -7058,10 +7138,10 @@
         <v>43</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>49</v>
@@ -7078,10 +7158,10 @@
         <v>43</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>49</v>
@@ -7098,7 +7178,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>38</v>
@@ -7120,13 +7200,13 @@
         <v>43</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -7140,7 +7220,7 @@
         <v>43</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>38</v>
@@ -7162,7 +7242,7 @@
         <v>46</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>38</v>
@@ -7171,7 +7251,7 @@
         <v>63</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -7184,13 +7264,13 @@
         <v>43</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -7204,10 +7284,10 @@
         <v>46</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>49</v>
@@ -7224,13 +7304,13 @@
         <v>46</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -7244,7 +7324,7 @@
         <v>46</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>38</v>
@@ -7253,7 +7333,7 @@
         <v>63</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -7266,13 +7346,13 @@
         <v>50</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -7337,7 +7417,7 @@
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
@@ -7347,19 +7427,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>274</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -7369,16 +7449,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>277</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -7386,16 +7466,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>280</v>
-      </c>
       <c r="E6" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -7403,16 +7483,16 @@
         <v>16</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>276</v>
-      </c>
       <c r="D7" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -7420,16 +7500,16 @@
         <v>16</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>277</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7437,16 +7517,16 @@
         <v>16</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>284</v>
-      </c>
       <c r="E9" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -7454,16 +7534,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D10" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>285</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -7497,7 +7577,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7505,7 +7585,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BE9526-47DD-4644-9857-633FAB57CE37}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F6DDEE-1E5B-4B16-827D-B354D864E10C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="292">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -548,9 +548,6 @@
     <t>Delete the offer</t>
   </si>
   <si>
-    <t>rbdeloffer</t>
-  </si>
-  <si>
     <t>hiddenClick</t>
   </si>
   <si>
@@ -884,12 +881,6 @@
     <t>offer_name</t>
   </si>
   <si>
-    <t>OfferRegr4819</t>
-  </si>
-  <si>
-    <t>ED_Offer_RenamedLabel_2</t>
-  </si>
-  <si>
     <t>Not Available</t>
   </si>
   <si>
@@ -909,6 +900,15 @@
   </si>
   <si>
     <t>free_mobile</t>
+  </si>
+  <si>
+    <t>radBtnTestFolder</t>
+  </si>
+  <si>
+    <t>Select TestFolder</t>
+  </si>
+  <si>
+    <t>free_mobile1</t>
   </si>
 </sst>
 </file>
@@ -1751,10 +1751,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2363,10 +2363,10 @@
         <v>98</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>93</v>
@@ -2568,16 +2568,16 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>112</v>
+        <v>44</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2588,16 +2588,16 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>116</v>
@@ -2631,17 +2631,15 @@
         <v>117</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" s="1">
-        <v>10000</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
@@ -2650,18 +2648,20 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F44" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F44" s="1">
+        <v>10000</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
@@ -2670,16 +2670,16 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -2690,20 +2690,18 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F46" s="1">
-        <v>30000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
@@ -2712,20 +2710,42 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F47" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F47" s="1">
+        <v>30000</v>
+      </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2740,10 +2760,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3289,7 +3309,7 @@
         <v>98</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>95</v>
@@ -3352,7 +3372,7 @@
         <v>136</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>93</v>
@@ -3786,16 +3806,16 @@
         <v>16</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>112</v>
+        <v>290</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -3806,16 +3826,16 @@
         <v>16</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -3826,13 +3846,13 @@
         <v>16</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>116</v>
@@ -3849,17 +3869,15 @@
         <v>117</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F54" s="1">
-        <v>10000</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
@@ -3868,18 +3886,20 @@
         <v>16</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F55" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F55" s="1">
+        <v>10000</v>
+      </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
@@ -3888,16 +3908,16 @@
         <v>16</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -3908,20 +3928,18 @@
         <v>16</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F57" s="1">
-        <v>30000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
@@ -3930,20 +3948,42 @@
         <v>16</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F58" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F58" s="1">
+        <v>30000</v>
+      </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3958,10 +3998,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4531,7 +4571,7 @@
         <v>91</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>93</v>
@@ -4675,13 +4715,13 @@
         <v>170</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -4716,10 +4756,10 @@
         <v>102</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>49</v>
@@ -4736,10 +4776,10 @@
         <v>105</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>49</v>
@@ -4879,16 +4919,16 @@
         <v>22</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>112</v>
+        <v>44</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -4899,16 +4939,16 @@
         <v>22</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -4919,13 +4959,13 @@
         <v>22</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>116</v>
@@ -4939,20 +4979,18 @@
         <v>22</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48" s="1">
-        <v>10000</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
@@ -4961,18 +4999,20 @@
         <v>22</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F49" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F49" s="1">
+        <v>10000</v>
+      </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
@@ -4981,16 +5021,16 @@
         <v>22</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -5001,20 +5041,18 @@
         <v>22</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F51" s="1">
-        <v>30000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
@@ -5023,20 +5061,42 @@
         <v>22</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F52" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F52" s="1">
+        <v>30000</v>
+      </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5051,10 +5111,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5070,7 +5130,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -5187,7 +5247,7 @@
         <v>45</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="1"/>
@@ -5290,7 +5350,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
@@ -5328,10 +5388,10 @@
         <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>49</v>
@@ -5348,7 +5408,7 @@
         <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>38</v>
@@ -5370,10 +5430,10 @@
         <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>49</v>
@@ -5390,10 +5450,10 @@
         <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>49</v>
@@ -5410,13 +5470,13 @@
         <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5481,7 +5541,7 @@
         <v>63</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -5567,7 +5627,7 @@
         <v>75</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -5589,7 +5649,7 @@
         <v>75</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -5727,7 +5787,7 @@
         <v>91</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>93</v>
@@ -5784,10 +5844,10 @@
         <v>98</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>49</v>
@@ -5804,16 +5864,16 @@
         <v>100</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -5826,13 +5886,13 @@
         <v>101</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -5846,16 +5906,16 @@
         <v>102</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -5959,7 +6019,7 @@
         <v>75</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
@@ -5981,7 +6041,7 @@
         <v>75</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
@@ -6103,7 +6163,7 @@
         <v>156</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>49</v>
@@ -6123,13 +6183,13 @@
         <v>158</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>154</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="9"/>
@@ -6184,7 +6244,7 @@
         <v>164</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>83</v>
@@ -6204,19 +6264,19 @@
         <v>161</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="F56" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H56" s="9"/>
     </row>
@@ -6287,16 +6347,16 @@
         <v>19</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>112</v>
+        <v>44</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -6307,20 +6367,18 @@
         <v>19</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F61" s="1">
-        <v>60000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="9"/>
     </row>
@@ -6329,18 +6387,20 @@
         <v>19</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F62" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F62" s="1">
+        <v>60000</v>
+      </c>
       <c r="G62" s="1"/>
       <c r="H62" s="9"/>
     </row>
@@ -6349,20 +6409,18 @@
         <v>19</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F63" s="1">
-        <v>30000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="9"/>
     </row>
@@ -6374,16 +6432,16 @@
         <v>127</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>210</v>
+        <v>44</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>211</v>
+        <v>45</v>
+      </c>
+      <c r="F64" s="1">
+        <v>30000</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="9"/>
@@ -6396,20 +6454,18 @@
         <v>127</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F65" s="1">
-        <v>123458</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G65" s="1"/>
       <c r="H65" s="9"/>
     </row>
     <row r="66" spans="1:8">
@@ -6417,20 +6473,44 @@
         <v>19</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F66" s="1">
+        <v>123458</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H66" s="9"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" s="1" t="s">
+      <c r="D67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="9"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6466,7 +6546,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -6583,7 +6663,7 @@
         <v>45</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="1"/>
@@ -6596,16 +6676,16 @@
         <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -6618,10 +6698,10 @@
         <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>49</v>
@@ -6638,10 +6718,10 @@
         <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>49</v>
@@ -6658,7 +6738,7 @@
         <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>38</v>
@@ -6667,7 +6747,7 @@
         <v>63</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -6680,10 +6760,10 @@
         <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>49</v>
@@ -6700,10 +6780,10 @@
         <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>49</v>
@@ -6762,16 +6842,16 @@
         <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>228</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>229</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>154</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -6784,10 +6864,10 @@
         <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>49</v>
@@ -6813,7 +6893,7 @@
         <v>45</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -6826,13 +6906,13 @@
         <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F19" s="1">
         <v>3</v>
@@ -6848,13 +6928,13 @@
         <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -6868,13 +6948,13 @@
         <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
@@ -6890,13 +6970,13 @@
         <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -6910,13 +6990,13 @@
         <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -6932,10 +7012,10 @@
         <v>43</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>49</v>
@@ -6952,13 +7032,13 @@
         <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -6972,13 +7052,13 @@
         <v>43</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -6992,10 +7072,10 @@
         <v>43</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>49</v>
@@ -7012,13 +7092,13 @@
         <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F28" s="1">
         <v>2</v>
@@ -7034,13 +7114,13 @@
         <v>43</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -7054,7 +7134,7 @@
         <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>38</v>
@@ -7063,7 +7143,7 @@
         <v>63</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -7076,10 +7156,10 @@
         <v>43</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>49</v>
@@ -7096,13 +7176,13 @@
         <v>43</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -7116,7 +7196,7 @@
         <v>43</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>38</v>
@@ -7125,7 +7205,7 @@
         <v>63</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -7138,10 +7218,10 @@
         <v>43</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>49</v>
@@ -7158,10 +7238,10 @@
         <v>43</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>49</v>
@@ -7178,7 +7258,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>38</v>
@@ -7200,13 +7280,13 @@
         <v>43</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -7220,7 +7300,7 @@
         <v>43</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>38</v>
@@ -7242,7 +7322,7 @@
         <v>46</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>38</v>
@@ -7251,7 +7331,7 @@
         <v>63</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -7264,13 +7344,13 @@
         <v>43</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -7284,10 +7364,10 @@
         <v>46</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>49</v>
@@ -7304,13 +7384,13 @@
         <v>46</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -7324,7 +7404,7 @@
         <v>46</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>38</v>
@@ -7333,7 +7413,7 @@
         <v>63</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -7346,13 +7426,13 @@
         <v>50</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -7371,10 +7451,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7417,7 +7497,7 @@
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
       <c r="F3" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
@@ -7427,19 +7507,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>273</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -7449,16 +7529,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>276</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -7466,16 +7546,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>279</v>
-      </c>
       <c r="E6" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -7483,16 +7563,16 @@
         <v>16</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>275</v>
-      </c>
       <c r="D7" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -7500,16 +7580,16 @@
         <v>16</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>276</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7517,16 +7597,16 @@
         <v>16</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>282</v>
-      </c>
       <c r="D9" s="18" t="s">
-        <v>283</v>
+        <v>142</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -7534,16 +7614,33 @@
         <v>22</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C10" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>282</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -7577,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7585,7 +7682,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F6DDEE-1E5B-4B16-827D-B354D864E10C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C34059-38F0-43D4-B031-F407D3C6D4E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1754,7 +1754,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:E40"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2577,7 +2577,7 @@
         <v>289</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>49</v>
+        <v>262</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2762,8 +2762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3815,7 +3815,7 @@
         <v>289</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>49</v>
+        <v>262</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -4001,7 +4001,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4928,7 +4928,7 @@
         <v>289</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>49</v>
+        <v>262</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -5113,8 +5113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6356,7 +6356,7 @@
         <v>289</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>49</v>
+        <v>262</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -6527,8 +6527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7453,7 +7453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C34059-38F0-43D4-B031-F407D3C6D4E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03F603E-EBE2-42CB-979E-FAB9C3F0A1AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="292">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -1753,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2760,10 +2760,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3119,20 +3119,22 @@
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="C18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="9">
+        <v>7000</v>
+      </c>
+      <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8">
@@ -3140,20 +3142,18 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>131</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="9"/>
     </row>
@@ -3162,19 +3162,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="9"/>
@@ -3184,18 +3184,20 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="9"/>
     </row>
@@ -3204,20 +3206,18 @@
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="1">
-        <v>3000</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="9"/>
     </row>
@@ -3226,18 +3226,20 @@
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3000</v>
+      </c>
       <c r="G23" s="1"/>
       <c r="H23" s="9"/>
     </row>
@@ -3246,19 +3248,19 @@
         <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8">
@@ -3266,16 +3268,16 @@
         <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -3289,13 +3291,13 @@
         <v>96</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -3306,13 +3308,13 @@
         <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>287</v>
+        <v>136</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>93</v>
@@ -3326,13 +3328,13 @@
         <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>136</v>
+        <v>287</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>93</v>
@@ -3346,13 +3348,13 @@
         <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>93</v>
@@ -3366,15 +3368,15 @@
         <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="E30" s="20" t="s">
+      <c r="D30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F30" s="9"/>
@@ -3386,16 +3388,16 @@
         <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>49</v>
+        <v>136</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -3406,21 +3408,19 @@
         <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G32" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
       <c r="H32" s="9"/>
     </row>
     <row r="33" spans="1:8">
@@ -3428,19 +3428,21 @@
         <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="F33" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G33" s="1"/>
       <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8">
@@ -3448,13 +3450,13 @@
         <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>49</v>
@@ -3468,20 +3470,18 @@
         <v>16</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>142</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
     </row>
@@ -3490,13 +3490,13 @@
         <v>16</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>75</v>
@@ -3512,21 +3512,21 @@
         <v>16</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F37" s="13">
-        <v>43525</v>
-      </c>
-      <c r="G37" s="13"/>
+      <c r="F37" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" s="9"/>
       <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8">
@@ -3534,19 +3534,19 @@
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F38" s="13">
-        <v>45743</v>
+        <v>43525</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="9"/>
@@ -3556,19 +3556,21 @@
         <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+        <v>75</v>
+      </c>
+      <c r="F39" s="13">
+        <v>45743</v>
+      </c>
+      <c r="G39" s="13"/>
       <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8">
@@ -3579,10 +3581,10 @@
         <v>117</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>49</v>
@@ -3596,21 +3598,19 @@
         <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G41" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
       <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8">
@@ -3621,15 +3621,17 @@
         <v>121</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" s="1"/>
+        <v>154</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="G42" s="1"/>
       <c r="H42" s="9"/>
     </row>
@@ -3638,20 +3640,18 @@
         <v>16</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>160</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="9"/>
     </row>
@@ -3660,19 +3660,21 @@
         <v>16</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+        <v>154</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G44" s="1"/>
       <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8">
@@ -3686,14 +3688,12 @@
         <v>162</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F45" s="9">
-        <v>5000</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
     </row>
@@ -3702,18 +3702,20 @@
         <v>16</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F46" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="F46" s="9">
+        <v>5000</v>
+      </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
     </row>
@@ -3722,20 +3724,18 @@
         <v>16</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F47" s="9">
-        <v>10000</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
     </row>
@@ -3744,18 +3744,20 @@
         <v>16</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" s="9"/>
+        <v>45</v>
+      </c>
+      <c r="F48" s="9">
+        <v>10000</v>
+      </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
     </row>
@@ -3767,10 +3769,10 @@
         <v>165</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>49</v>
@@ -3784,22 +3786,20 @@
         <v>16</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F50" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
@@ -3809,15 +3809,17 @@
         <v>108</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="F51" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="1">
+        <v>20000</v>
+      </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
@@ -3826,16 +3828,16 @@
         <v>16</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>112</v>
+        <v>290</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>262</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -3846,16 +3848,16 @@
         <v>16</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -3866,13 +3868,13 @@
         <v>16</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>116</v>
@@ -3889,17 +3891,15 @@
         <v>117</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F55" s="1">
-        <v>10000</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
@@ -3908,18 +3908,20 @@
         <v>16</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F56" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F56" s="1">
+        <v>10000</v>
+      </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
@@ -3928,16 +3930,16 @@
         <v>16</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -3948,20 +3950,18 @@
         <v>16</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F58" s="1">
-        <v>30000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
@@ -3970,20 +3970,42 @@
         <v>16</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F59" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F59" s="1">
+        <v>30000</v>
+      </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4000,7 +4022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
@@ -5113,8 +5135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5585,7 +5607,7 @@
         <v>45</v>
       </c>
       <c r="F23" s="1">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03F603E-EBE2-42CB-979E-FAB9C3F0A1AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E719EFB7-82EC-4159-8DFF-E9C735E82A3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="292">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -1093,7 +1093,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1135,6 +1135,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5133,10 +5136,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6306,40 +6309,42 @@
       <c r="A57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
+      <c r="B57" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="29">
+        <v>5000</v>
+      </c>
+      <c r="G57" s="27"/>
       <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E58" s="1" t="s">
+      <c r="C58" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
       <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8">
@@ -6347,21 +6352,19 @@
         <v>19</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F59" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G59" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
       <c r="H59" s="9"/>
     </row>
     <row r="60" spans="1:8">
@@ -6374,13 +6377,15 @@
       <c r="C60" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D60" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="F60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" s="1">
+        <v>20000</v>
+      </c>
       <c r="G60" s="1"/>
       <c r="H60" s="9"/>
     </row>
@@ -6389,16 +6394,16 @@
         <v>19</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>112</v>
+        <v>44</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>262</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -6409,20 +6414,18 @@
         <v>19</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F62" s="1">
-        <v>60000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="9"/>
     </row>
@@ -6431,18 +6434,20 @@
         <v>19</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F63" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F63" s="1">
+        <v>60000</v>
+      </c>
       <c r="G63" s="1"/>
       <c r="H63" s="9"/>
     </row>
@@ -6451,20 +6456,18 @@
         <v>19</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F64" s="1">
-        <v>30000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="9"/>
     </row>
@@ -6476,16 +6479,16 @@
         <v>127</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>209</v>
+        <v>44</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>210</v>
+        <v>45</v>
+      </c>
+      <c r="F65" s="1">
+        <v>30000</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="9"/>
@@ -6498,20 +6501,18 @@
         <v>127</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F66" s="1">
-        <v>123458</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>197</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G66" s="1"/>
       <c r="H66" s="9"/>
     </row>
     <row r="67" spans="1:8">
@@ -6519,20 +6520,44 @@
         <v>19</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F67" s="1">
+        <v>123458</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H67" s="9"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E67" s="1" t="s">
+      <c r="D68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="9"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E719EFB7-82EC-4159-8DFF-E9C735E82A3B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF96C99-6828-4E73-8325-25C8E74BF65C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="292">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -1117,6 +1117,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1135,9 +1138,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1626,22 +1626,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="14.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="14.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="14.25">
       <c r="A3" s="4"/>
@@ -1754,10 +1754,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1773,38 +1773,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
@@ -2591,18 +2591,20 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>111</v>
+        <v>44</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F41" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F41" s="1">
+        <v>7000</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
@@ -2611,16 +2613,16 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -2631,13 +2633,13 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>116</v>
@@ -2654,17 +2656,15 @@
         <v>117</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F44" s="1">
-        <v>10000</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
@@ -2673,18 +2673,20 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F45" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F45" s="1">
+        <v>10000</v>
+      </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
@@ -2693,16 +2695,16 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -2713,20 +2715,18 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F47" s="1">
-        <v>30000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
@@ -2735,20 +2735,42 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F48" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F48" s="1">
+        <v>30000</v>
+      </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2763,10 +2785,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2781,38 +2803,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
@@ -3851,18 +3873,20 @@
         <v>16</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>111</v>
+        <v>290</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F53" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F53" s="1">
+        <v>7000</v>
+      </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
@@ -3871,16 +3895,16 @@
         <v>16</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -3891,13 +3915,13 @@
         <v>16</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>116</v>
@@ -3914,17 +3938,15 @@
         <v>117</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F56" s="1">
-        <v>10000</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
@@ -3933,18 +3955,20 @@
         <v>16</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F57" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F57" s="1">
+        <v>10000</v>
+      </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
@@ -3953,16 +3977,16 @@
         <v>16</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -3973,20 +3997,18 @@
         <v>16</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F59" s="1">
-        <v>30000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
@@ -3995,20 +4017,42 @@
         <v>16</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F60" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F60" s="1">
+        <v>30000</v>
+      </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4023,10 +4067,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4042,38 +4086,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
@@ -4964,18 +5008,20 @@
         <v>22</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>111</v>
+        <v>44</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F46" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F46" s="1">
+        <v>7000</v>
+      </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
@@ -4984,16 +5030,16 @@
         <v>22</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -5004,13 +5050,13 @@
         <v>22</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>116</v>
@@ -5024,20 +5070,18 @@
         <v>22</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F49" s="1">
-        <v>10000</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
@@ -5046,18 +5090,20 @@
         <v>22</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F50" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F50" s="1">
+        <v>10000</v>
+      </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
@@ -5066,16 +5112,16 @@
         <v>22</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -5086,20 +5132,18 @@
         <v>22</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F52" s="1">
-        <v>30000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
@@ -5108,20 +5152,42 @@
         <v>22</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F53" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F53" s="1">
+        <v>30000</v>
+      </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5136,10 +5202,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:D57"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5154,36 +5220,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
@@ -6318,13 +6384,13 @@
       <c r="D57" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E57" s="28" t="s">
+      <c r="E57" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F57" s="29">
+      <c r="F57" s="23">
         <v>5000</v>
       </c>
-      <c r="G57" s="27"/>
+      <c r="G57" s="21"/>
       <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8">
@@ -6414,18 +6480,20 @@
         <v>19</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>111</v>
+        <v>44</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F62" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F62" s="1">
+        <v>7000</v>
+      </c>
       <c r="G62" s="1"/>
       <c r="H62" s="9"/>
     </row>
@@ -6434,20 +6502,18 @@
         <v>19</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F63" s="1">
-        <v>60000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="9"/>
     </row>
@@ -6456,18 +6522,20 @@
         <v>19</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F64" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F64" s="1">
+        <v>60000</v>
+      </c>
       <c r="G64" s="1"/>
       <c r="H64" s="9"/>
     </row>
@@ -6476,20 +6544,18 @@
         <v>19</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F65" s="1">
-        <v>30000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="9"/>
     </row>
@@ -6501,16 +6567,16 @@
         <v>127</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>209</v>
+        <v>44</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>210</v>
+        <v>45</v>
+      </c>
+      <c r="F66" s="1">
+        <v>30000</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="9"/>
@@ -6523,20 +6589,18 @@
         <v>127</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F67" s="1">
-        <v>123458</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>197</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G67" s="1"/>
       <c r="H67" s="9"/>
     </row>
     <row r="68" spans="1:8">
@@ -6544,20 +6608,44 @@
         <v>19</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F68" s="1">
+        <v>123458</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H68" s="9"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E68" s="1" t="s">
+      <c r="D69" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="9"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6592,36 +6680,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
@@ -7518,36 +7606,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="25"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF96C99-6828-4E73-8325-25C8E74BF65C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4ECC72-ECD6-4CD5-901E-46E0729165AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="293">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -909,6 +909,9 @@
   </si>
   <si>
     <t>free_mobile1</t>
+  </si>
+  <si>
+    <t>Downloadclick</t>
   </si>
 </sst>
 </file>
@@ -1756,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:C41"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2662,7 +2665,7 @@
         <v>119</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>116</v>
+        <v>292</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -2787,8 +2790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53:F53"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3944,7 +3947,7 @@
         <v>119</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>116</v>
+        <v>292</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -5204,7 +5207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4ECC72-ECD6-4CD5-901E-46E0729165AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B927F24-CFDE-48F9-B2D6-201966EAF61E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="290">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Executing the real time spine API</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Below is the template to add new test cases to the suite.</t>
   </si>
   <si>
@@ -806,9 +803,6 @@
     <t>put wait</t>
   </si>
   <si>
-    <t>Switch to default</t>
-  </si>
-  <si>
     <t>Switch to child</t>
   </si>
   <si>
@@ -909,9 +903,6 @@
   </si>
   <si>
     <t>free_mobile1</t>
-  </si>
-  <si>
-    <t>Downloadclick</t>
   </si>
 </sst>
 </file>
@@ -1615,7 +1606,7 @@
   <dimension ref="A1:AMK9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1741,7 +1732,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1759,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1777,7 +1768,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -1789,7 +1780,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -1814,22 +1805,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>12</v>
@@ -1840,19 +1831,19 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="D5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="F5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="1"/>
@@ -1862,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="1"/>
@@ -1884,16 +1875,16 @@
         <v>0</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="F7" s="9">
         <v>5000</v>
@@ -1906,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -1926,16 +1917,16 @@
         <v>0</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="F9" s="9">
         <v>2000</v>
@@ -1948,16 +1939,16 @@
         <v>0</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="E10" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -1968,16 +1959,16 @@
         <v>0</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="F11" s="9">
         <v>3000</v>
@@ -1990,16 +1981,16 @@
         <v>0</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -2010,16 +2001,16 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="F13" s="9">
         <v>3000</v>
@@ -2032,16 +2023,16 @@
         <v>0</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="E14" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -2052,16 +2043,16 @@
         <v>0</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="F15" s="9">
         <v>3000</v>
@@ -2074,19 +2065,19 @@
         <v>0</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="1"/>
@@ -2096,19 +2087,19 @@
         <v>0</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="1"/>
@@ -2118,16 +2109,16 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="1">
         <v>5000</v>
@@ -2140,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -2160,19 +2151,19 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -2182,19 +2173,19 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -2204,16 +2195,16 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -2224,16 +2215,16 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F23" s="1">
         <v>3000</v>
@@ -2246,16 +2237,16 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -2266,16 +2257,16 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -2286,16 +2277,16 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -2306,16 +2297,16 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2326,16 +2317,16 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -2346,16 +2337,16 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -2366,16 +2357,16 @@
         <v>0</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2386,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -2406,16 +2397,16 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F32" s="1">
         <v>3000</v>
@@ -2428,16 +2419,16 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -2448,16 +2439,16 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F34" s="1">
         <v>3000</v>
@@ -2470,16 +2461,16 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2490,16 +2481,16 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F36" s="1">
         <v>3000</v>
@@ -2512,16 +2503,16 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -2532,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -2552,16 +2543,16 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F39" s="1">
         <v>20000</v>
@@ -2574,16 +2565,16 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2594,16 +2585,16 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F41" s="1">
         <v>7000</v>
@@ -2616,16 +2607,16 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -2636,16 +2627,16 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2656,16 +2647,16 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="E44" s="12" t="s">
-        <v>292</v>
+        <v>115</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -2676,16 +2667,16 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" s="1">
         <v>10000</v>
@@ -2698,16 +2689,16 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -2718,16 +2709,16 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -2738,16 +2729,16 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F48" s="1">
         <v>30000</v>
@@ -2760,16 +2751,16 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -2790,7 +2781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
@@ -2807,7 +2798,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -2819,7 +2810,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -2844,22 +2835,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>12</v>
@@ -2870,19 +2861,19 @@
         <v>16</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="D5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>39</v>
-      </c>
       <c r="F5" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -2892,19 +2883,19 @@
         <v>16</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -2914,16 +2905,16 @@
         <v>16</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="F7" s="9">
         <v>5000</v>
@@ -2936,16 +2927,16 @@
         <v>16</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -2956,16 +2947,16 @@
         <v>16</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="F9" s="9">
         <v>2000</v>
@@ -2978,16 +2969,16 @@
         <v>16</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="E10" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -2998,16 +2989,16 @@
         <v>16</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="F11" s="9">
         <v>3000</v>
@@ -3020,16 +3011,16 @@
         <v>16</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>57</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -3040,16 +3031,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="F13" s="9">
         <v>3000</v>
@@ -3062,16 +3053,16 @@
         <v>16</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="E14" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -3082,16 +3073,16 @@
         <v>16</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="F15" s="9">
         <v>3000</v>
@@ -3104,19 +3095,19 @@
         <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -3126,19 +3117,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -3148,16 +3139,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="D18" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="9">
         <v>7000</v>
@@ -3170,16 +3161,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -3190,19 +3181,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="9"/>
@@ -3212,19 +3203,19 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="9"/>
@@ -3234,16 +3225,16 @@
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -3254,16 +3245,16 @@
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F23" s="1">
         <v>3000</v>
@@ -3276,16 +3267,16 @@
         <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -3296,16 +3287,16 @@
         <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -3316,16 +3307,16 @@
         <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -3336,16 +3327,16 @@
         <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -3356,16 +3347,16 @@
         <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -3376,16 +3367,16 @@
         <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -3396,16 +3387,16 @@
         <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -3416,16 +3407,16 @@
         <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -3436,16 +3427,16 @@
         <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -3456,16 +3447,16 @@
         <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F33" s="1">
         <v>3000</v>
@@ -3478,16 +3469,16 @@
         <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -3498,16 +3489,16 @@
         <v>16</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
@@ -3518,19 +3509,19 @@
         <v>16</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -3540,19 +3531,19 @@
         <v>16</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
@@ -3562,16 +3553,16 @@
         <v>16</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F38" s="13">
         <v>43525</v>
@@ -3584,16 +3575,16 @@
         <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F39" s="13">
         <v>45743</v>
@@ -3606,16 +3597,16 @@
         <v>16</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
@@ -3626,16 +3617,16 @@
         <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -3646,19 +3637,19 @@
         <v>16</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="9"/>
@@ -3668,16 +3659,16 @@
         <v>16</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="E43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -3688,19 +3679,19 @@
         <v>16</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="9"/>
@@ -3710,16 +3701,16 @@
         <v>16</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
@@ -3730,16 +3721,16 @@
         <v>16</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="D46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" s="9">
         <v>5000</v>
@@ -3752,16 +3743,16 @@
         <v>16</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
@@ -3772,16 +3763,16 @@
         <v>16</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F48" s="9">
         <v>10000</v>
@@ -3794,16 +3785,16 @@
         <v>16</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -3814,16 +3805,16 @@
         <v>16</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="D50" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
@@ -3834,16 +3825,16 @@
         <v>16</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F51" s="1">
         <v>20000</v>
@@ -3856,16 +3847,16 @@
         <v>16</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -3876,16 +3867,16 @@
         <v>16</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" s="1">
         <v>7000</v>
@@ -3898,16 +3889,16 @@
         <v>16</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -3918,16 +3909,16 @@
         <v>16</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>116</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -3938,16 +3929,16 @@
         <v>16</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="E56" s="12" t="s">
-        <v>292</v>
+        <v>115</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -3958,16 +3949,16 @@
         <v>16</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" s="1">
         <v>10000</v>
@@ -3980,16 +3971,16 @@
         <v>16</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -4000,16 +3991,16 @@
         <v>16</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E59" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -4020,16 +4011,16 @@
         <v>16</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F60" s="1">
         <v>30000</v>
@@ -4042,16 +4033,16 @@
         <v>16</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -4072,7 +4063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D46" sqref="D46:E46"/>
     </sheetView>
   </sheetViews>
@@ -4090,7 +4081,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -4102,7 +4093,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -4127,22 +4118,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>12</v>
@@ -4153,16 +4144,16 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -4173,19 +4164,19 @@
         <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -4195,16 +4186,16 @@
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F7" s="14">
         <v>5000</v>
@@ -4217,16 +4208,16 @@
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -4237,19 +4228,19 @@
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -4259,16 +4250,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -4279,19 +4270,19 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -4301,16 +4292,16 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -4321,19 +4312,19 @@
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -4343,16 +4334,16 @@
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -4363,19 +4354,19 @@
         <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -4385,19 +4376,19 @@
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -4407,19 +4398,19 @@
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -4429,16 +4420,16 @@
         <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="1">
         <v>5000</v>
@@ -4451,16 +4442,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -4471,19 +4462,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -4493,19 +4484,19 @@
         <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -4515,16 +4506,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -4535,16 +4526,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F23" s="1">
         <v>3000</v>
@@ -4557,16 +4548,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -4577,16 +4568,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -4597,16 +4588,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -4617,16 +4608,16 @@
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -4637,16 +4628,16 @@
         <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -4657,16 +4648,16 @@
         <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -4677,16 +4668,16 @@
         <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -4697,16 +4688,16 @@
         <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -4717,16 +4708,16 @@
         <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F32" s="1">
         <v>3000</v>
@@ -4739,16 +4730,16 @@
         <v>22</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -4759,16 +4750,16 @@
         <v>22</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F34" s="1">
         <v>8000</v>
@@ -4781,19 +4772,19 @@
         <v>22</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -4803,16 +4794,16 @@
         <v>22</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F36" s="1">
         <v>8000</v>
@@ -4825,16 +4816,16 @@
         <v>22</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -4845,16 +4836,16 @@
         <v>22</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -4865,16 +4856,16 @@
         <v>22</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F39" s="1">
         <v>3000</v>
@@ -4887,16 +4878,16 @@
         <v>22</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -4910,13 +4901,13 @@
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F41" s="1">
         <v>3000</v>
@@ -4929,16 +4920,16 @@
         <v>22</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -4949,16 +4940,16 @@
         <v>22</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -4969,16 +4960,16 @@
         <v>22</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F44" s="1">
         <v>20000</v>
@@ -4991,16 +4982,16 @@
         <v>22</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -5011,16 +5002,16 @@
         <v>22</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F46" s="1">
         <v>7000</v>
@@ -5033,16 +5024,16 @@
         <v>22</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -5053,16 +5044,16 @@
         <v>22</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -5073,16 +5064,16 @@
         <v>22</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -5093,16 +5084,16 @@
         <v>22</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" s="1">
         <v>10000</v>
@@ -5115,16 +5106,16 @@
         <v>22</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -5135,16 +5126,16 @@
         <v>22</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E52" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -5155,16 +5146,16 @@
         <v>22</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F53" s="1">
         <v>30000</v>
@@ -5177,16 +5168,16 @@
         <v>22</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -5205,10 +5196,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5224,7 +5215,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -5259,22 +5250,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>12</v>
@@ -5285,19 +5276,19 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -5307,19 +5298,19 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -5329,19 +5320,19 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F7" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="1"/>
@@ -5351,16 +5342,16 @@
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -5371,19 +5362,19 @@
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -5393,16 +5384,16 @@
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -5413,19 +5404,19 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -5435,16 +5426,16 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
@@ -5457,19 +5448,19 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -5479,16 +5470,16 @@
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -5499,19 +5490,19 @@
         <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -5521,16 +5512,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -5541,16 +5532,16 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -5561,16 +5552,16 @@
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5581,16 +5572,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -5601,19 +5592,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -5623,19 +5614,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -5645,19 +5636,19 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -5667,16 +5658,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" s="1">
         <v>10000</v>
@@ -5689,16 +5680,16 @@
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -5709,19 +5700,19 @@
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -5731,19 +5722,19 @@
         <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -5753,16 +5744,16 @@
         <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -5773,16 +5764,16 @@
         <v>19</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F28" s="1">
         <v>3000</v>
@@ -5795,16 +5786,16 @@
         <v>19</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -5815,16 +5806,16 @@
         <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -5835,16 +5826,16 @@
         <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -5855,16 +5846,16 @@
         <v>19</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -5875,16 +5866,16 @@
         <v>19</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -5895,16 +5886,16 @@
         <v>19</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -5915,16 +5906,16 @@
         <v>19</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -5935,16 +5926,16 @@
         <v>19</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -5955,19 +5946,19 @@
         <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -5977,16 +5968,16 @@
         <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -5997,19 +5988,19 @@
         <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -6019,16 +6010,16 @@
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -6039,16 +6030,16 @@
         <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F41" s="1">
         <v>3000</v>
@@ -6061,16 +6052,16 @@
         <v>19</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -6081,16 +6072,16 @@
         <v>19</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="E43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
@@ -6101,19 +6092,19 @@
         <v>19</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
@@ -6123,19 +6114,19 @@
         <v>19</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
@@ -6145,16 +6136,16 @@
         <v>19</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="E46" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F46" s="13">
         <v>43526</v>
@@ -6167,16 +6158,16 @@
         <v>19</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F47" s="13">
         <v>45743</v>
@@ -6189,16 +6180,16 @@
         <v>19</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
@@ -6209,16 +6200,16 @@
         <v>19</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
@@ -6229,19 +6220,19 @@
         <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="9"/>
@@ -6251,16 +6242,16 @@
         <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -6271,19 +6262,19 @@
         <v>19</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="9"/>
@@ -6293,16 +6284,16 @@
         <v>19</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="D53" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
@@ -6313,16 +6304,16 @@
         <v>19</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" s="9">
         <v>5000</v>
@@ -6335,16 +6326,16 @@
         <v>19</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -6355,22 +6346,22 @@
         <v>19</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="F56" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H56" s="9"/>
     </row>
@@ -6379,16 +6370,16 @@
         <v>19</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" s="23">
         <v>5000</v>
@@ -6401,16 +6392,16 @@
         <v>19</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C58" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="15" t="s">
-        <v>104</v>
-      </c>
       <c r="E58" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
@@ -6421,16 +6412,16 @@
         <v>19</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="D59" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
@@ -6441,16 +6432,16 @@
         <v>19</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F60" s="1">
         <v>20000</v>
@@ -6463,16 +6454,16 @@
         <v>19</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -6483,16 +6474,16 @@
         <v>19</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="F62" s="1">
         <v>7000</v>
@@ -6505,16 +6496,16 @@
         <v>19</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -6525,20 +6516,18 @@
         <v>19</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F64" s="1">
-        <v>60000</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="9"/>
     </row>
@@ -6547,18 +6536,20 @@
         <v>19</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F65" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F65" s="1">
+        <v>30000</v>
+      </c>
       <c r="G65" s="1"/>
       <c r="H65" s="9"/>
     </row>
@@ -6567,19 +6558,19 @@
         <v>19</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F66" s="1">
-        <v>30000</v>
+        <v>4</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="9"/>
@@ -6589,21 +6580,23 @@
         <v>19</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G67" s="1"/>
+        <v>211</v>
+      </c>
+      <c r="F67" s="1">
+        <v>123458</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="H67" s="9"/>
     </row>
     <row r="68" spans="1:8">
@@ -6614,41 +6607,17 @@
         <v>127</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>211</v>
+        <v>128</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F68" s="1">
-        <v>123458</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>197</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
       <c r="H68" s="9"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6663,10 +6632,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6684,7 +6653,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -6719,22 +6688,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>12</v>
@@ -6745,19 +6714,19 @@
         <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -6767,19 +6736,19 @@
         <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -6789,19 +6758,19 @@
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F7" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="1"/>
@@ -6811,19 +6780,19 @@
         <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -6833,18 +6802,20 @@
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
@@ -6853,18 +6824,20 @@
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
@@ -6873,19 +6846,19 @@
         <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -6895,16 +6868,16 @@
         <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -6915,16 +6888,16 @@
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -6935,16 +6908,16 @@
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -6955,19 +6928,19 @@
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -6977,19 +6950,19 @@
         <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="E16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -6999,16 +6972,16 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -7019,19 +6992,19 @@
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F18" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -7041,16 +7014,16 @@
         <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F19" s="1">
         <v>3</v>
@@ -7063,16 +7036,16 @@
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -7083,16 +7056,16 @@
         <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
@@ -7105,16 +7078,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -7125,16 +7098,16 @@
         <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -7147,16 +7120,16 @@
         <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -7167,16 +7140,16 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -7187,16 +7160,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -7207,16 +7180,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -7227,16 +7200,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F28" s="1">
         <v>2</v>
@@ -7249,16 +7222,16 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -7269,19 +7242,19 @@
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -7291,16 +7264,16 @@
         <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -7311,16 +7284,16 @@
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -7331,19 +7304,19 @@
         <v>25</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -7353,16 +7326,16 @@
         <v>25</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -7373,16 +7346,16 @@
         <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -7393,16 +7366,16 @@
         <v>25</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" s="1">
         <v>3000</v>
@@ -7415,18 +7388,20 @@
         <v>25</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
@@ -7435,20 +7410,18 @@
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>38</v>
+        <v>259</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="1">
-        <v>3000</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -7457,20 +7430,18 @@
         <v>25</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>38</v>
+        <v>262</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>259</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
@@ -7479,16 +7450,16 @@
         <v>25</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>261</v>
+        <v>37</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>262</v>
+        <v>189</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -7499,18 +7470,20 @@
         <v>25</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
@@ -7519,62 +7492,20 @@
         <v>25</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+        <v>260</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7635,7 +7566,7 @@
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
@@ -7645,19 +7576,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>272</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -7667,16 +7598,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>274</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -7684,16 +7615,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>274</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -7701,16 +7632,16 @@
         <v>16</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>274</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -7718,16 +7649,16 @@
         <v>16</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>274</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7735,16 +7666,16 @@
         <v>16</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -7752,16 +7683,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -7769,16 +7700,16 @@
         <v>22</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -7812,7 +7743,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7820,7 +7751,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B927F24-CFDE-48F9-B2D6-201966EAF61E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204B1757-A26F-43DF-9CE7-3C4AB55A345B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="291">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -806,9 +806,6 @@
     <t>Switch to child</t>
   </si>
   <si>
-    <t>bottom</t>
-  </si>
-  <si>
     <t>select the ProcessRTSpineDataMaster</t>
   </si>
   <si>
@@ -824,9 +821,6 @@
     <t>btnStart</t>
   </si>
   <si>
-    <t>top</t>
-  </si>
-  <si>
     <t>select the UpdateRTSpineDataChild</t>
   </si>
   <si>
@@ -903,6 +897,15 @@
   </si>
   <si>
     <t>free_mobile1</t>
+  </si>
+  <si>
+    <t>switchToFrameByIndex</t>
+  </si>
+  <si>
+    <t>switch to first frame</t>
+  </si>
+  <si>
+    <t>frame switch</t>
   </si>
 </sst>
 </file>
@@ -912,7 +915,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -952,6 +955,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibiri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1087,7 +1096,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1114,6 +1123,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1620,22 +1631,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="14.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="14.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="14.25">
       <c r="A3" s="4"/>
@@ -1767,38 +1778,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
@@ -2360,10 +2371,10 @@
         <v>97</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>92</v>
@@ -2571,10 +2582,10 @@
         <v>43</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2797,38 +2808,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
@@ -3350,7 +3361,7 @@
         <v>97</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>94</v>
@@ -3413,7 +3424,7 @@
         <v>135</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>92</v>
@@ -3850,13 +3861,13 @@
         <v>107</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -3870,7 +3881,7 @@
         <v>107</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D53" s="20" t="s">
         <v>37</v>
@@ -4080,38 +4091,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
@@ -4634,7 +4645,7 @@
         <v>90</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>92</v>
@@ -4784,7 +4795,7 @@
         <v>170</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -4988,10 +4999,10 @@
         <v>43</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -5214,36 +5225,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
@@ -5872,7 +5883,7 @@
         <v>90</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>92</v>
@@ -6460,10 +6471,10 @@
         <v>43</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E61" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -6632,10 +6643,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6652,36 +6663,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
@@ -7388,20 +7399,18 @@
         <v>25</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>257</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
@@ -7410,18 +7419,20 @@
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>259</v>
+        <v>37</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F38" s="1"/>
+        <v>288</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -7433,15 +7444,17 @@
         <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>262</v>
+        <v>37</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F39" s="1"/>
+        <v>288</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
@@ -7450,16 +7463,16 @@
         <v>25</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -7470,20 +7483,18 @@
         <v>25</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>263</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
@@ -7492,20 +7503,166 @@
         <v>25</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="C46" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F48" s="25">
+        <v>0</v>
+      </c>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
+      <c r="D49" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7513,6 +7670,7 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -7522,8 +7680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7540,55 +7698,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>270</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -7598,16 +7756,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>272</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -7615,16 +7773,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>272</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -7632,16 +7790,16 @@
         <v>16</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>272</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -7649,16 +7807,16 @@
         <v>16</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>272</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7666,16 +7824,16 @@
         <v>16</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>141</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -7683,16 +7841,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -7700,16 +7858,16 @@
         <v>22</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -7743,7 +7901,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7751,7 +7909,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204B1757-A26F-43DF-9CE7-3C4AB55A345B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F793908-24F3-49D3-B2CC-953F1F59BCE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6645,8 +6645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7680,7 +7680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F793908-24F3-49D3-B2CC-953F1F59BCE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89519E98-F145-4564-A449-38F82617DE35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="314">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -818,9 +818,6 @@
     <t>click Start</t>
   </si>
   <si>
-    <t>btnStart</t>
-  </si>
-  <si>
     <t>select the UpdateRTSpineDataChild</t>
   </si>
   <si>
@@ -906,6 +903,78 @@
   </si>
   <si>
     <t>frame switch</t>
+  </si>
+  <si>
+    <t>btnRestart</t>
+  </si>
+  <si>
+    <t>lnkDecisioningSubmenu</t>
+  </si>
+  <si>
+    <t>lnkDecisionsSubmenu</t>
+  </si>
+  <si>
+    <t>lnkDataFlowsSubmenu</t>
+  </si>
+  <si>
+    <t>lnkRealTimeProcessingSubmenu</t>
+  </si>
+  <si>
+    <t>submenu selection</t>
+  </si>
+  <si>
+    <t>closing the browser</t>
+  </si>
+  <si>
+    <t>close RTSpineData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait time </t>
+  </si>
+  <si>
+    <t>restating the df rtspinedata</t>
+  </si>
+  <si>
+    <t>ensureDataflowIsInProgress</t>
+  </si>
+  <si>
+    <t>RTStreamDataFlow</t>
+  </si>
+  <si>
+    <t>closeTab</t>
+  </si>
+  <si>
+    <t>closing the tab</t>
+  </si>
+  <si>
+    <t>btnPauseAndResume</t>
+  </si>
+  <si>
+    <t>btnRealtimeLoader</t>
+  </si>
+  <si>
+    <t>switchOnToggleButton</t>
+  </si>
+  <si>
+    <t>Decisioning:</t>
+  </si>
+  <si>
+    <t>navigation</t>
+  </si>
+  <si>
+    <t>switching</t>
+  </si>
+  <si>
+    <t>clcik</t>
+  </si>
+  <si>
+    <t>swtching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toggle </t>
+  </si>
+  <si>
+    <t>switching to parent frame</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1125,6 +1194,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1631,22 +1701,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="14.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="14.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="14.25">
       <c r="A3" s="4"/>
@@ -1778,38 +1848,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
@@ -2371,10 +2441,10 @@
         <v>97</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>92</v>
@@ -2582,7 +2652,7 @@
         <v>43</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E40" s="20" t="s">
         <v>259</v>
@@ -2808,38 +2878,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
@@ -3361,7 +3431,7 @@
         <v>97</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>94</v>
@@ -3424,7 +3494,7 @@
         <v>135</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>92</v>
@@ -3861,10 +3931,10 @@
         <v>107</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>259</v>
@@ -3881,7 +3951,7 @@
         <v>107</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D53" s="20" t="s">
         <v>37</v>
@@ -4074,8 +4144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46:E46"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4091,38 +4161,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
@@ -4645,7 +4715,7 @@
         <v>90</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>92</v>
@@ -4795,7 +4865,7 @@
         <v>170</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -4999,7 +5069,7 @@
         <v>43</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>259</v>
@@ -5209,8 +5279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5225,36 +5295,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
@@ -5883,7 +5953,7 @@
         <v>90</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>92</v>
@@ -6471,7 +6541,7 @@
         <v>43</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>259</v>
@@ -6643,10 +6713,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6655,7 +6725,7 @@
     <col min="2" max="2" width="7.140625" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" customWidth="1"/>
     <col min="4" max="4" width="38.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
     <col min="8" max="8" width="8.140625" customWidth="1"/>
@@ -6663,36 +6733,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
@@ -7134,15 +7204,17 @@
         <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>234</v>
+        <v>297</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>235</v>
+        <v>37</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>302</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
@@ -7154,13 +7226,13 @@
         <v>42</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -7174,10 +7246,10 @@
         <v>42</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>238</v>
@@ -7194,13 +7266,13 @@
         <v>42</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>48</v>
+        <v>238</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -7214,17 +7286,15 @@
         <v>42</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>37</v>
+        <v>242</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F28" s="1">
-        <v>2</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
@@ -7236,15 +7306,17 @@
         <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F29" s="1"/>
+        <v>180</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
@@ -7256,17 +7328,15 @@
         <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>245</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
@@ -7278,15 +7348,17 @@
         <v>42</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>247</v>
+        <v>37</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
@@ -7298,13 +7370,13 @@
         <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>37</v>
+        <v>246</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -7318,17 +7390,15 @@
         <v>42</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>250</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
@@ -7340,15 +7410,17 @@
         <v>42</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>37</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
@@ -7360,10 +7432,10 @@
         <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>48</v>
@@ -7380,17 +7452,15 @@
         <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="1">
-        <v>3000</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
@@ -7408,9 +7478,11 @@
         <v>37</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F37" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3000</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
@@ -7419,20 +7491,18 @@
         <v>25</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F38" s="1">
-        <v>2</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -7450,10 +7520,10 @@
         <v>37</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -7463,18 +7533,20 @@
         <v>25</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F40" s="1"/>
+        <v>287</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
@@ -7489,10 +7561,10 @@
         <v>257</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -7506,17 +7578,15 @@
         <v>42</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
@@ -7525,18 +7595,20 @@
         <v>25</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>261</v>
+        <v>37</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" s="1"/>
+        <v>287</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
@@ -7548,13 +7620,13 @@
         <v>45</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>37</v>
+        <v>290</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -7568,17 +7640,15 @@
         <v>45</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F45" s="1">
-        <v>1</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
@@ -7587,60 +7657,60 @@
         <v>25</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>263</v>
+        <v>37</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+        <v>287</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>290</v>
+        <v>49</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
+        <v>259</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F48" s="25">
-        <v>0</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="F48" s="25"/>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
     </row>
@@ -7649,20 +7719,460 @@
         <v>25</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>260</v>
+        <v>53</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>289</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>261</v>
+        <v>37</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F49" s="25"/>
+        <v>287</v>
+      </c>
+      <c r="F49" s="25">
+        <v>0</v>
+      </c>
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="25">
+        <v>8000</v>
+      </c>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="F60" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F61" s="26"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2</v>
+      </c>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7698,55 +8208,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>268</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -7756,16 +8266,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>271</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -7773,16 +8283,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>274</v>
-      </c>
       <c r="E6" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -7790,16 +8300,16 @@
         <v>16</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>270</v>
-      </c>
       <c r="D7" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -7807,16 +8317,16 @@
         <v>16</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>271</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7824,16 +8334,16 @@
         <v>16</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>276</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>277</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>141</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -7841,16 +8351,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C10" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>277</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -7858,16 +8368,16 @@
         <v>22</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>277</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -7901,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7909,7 +8419,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89519E98-F145-4564-A449-38F82617DE35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D4E062-E4C1-4A75-BA6C-3E2D08B76BDF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="328">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -975,6 +975,48 @@
   </si>
   <si>
     <t>switching to parent frame</t>
+  </si>
+  <si>
+    <t>btnEngineConfigFilter</t>
+  </si>
+  <si>
+    <t>filter click</t>
+  </si>
+  <si>
+    <t>txtSearchbox</t>
+  </si>
+  <si>
+    <t>btnApply</t>
+  </si>
+  <si>
+    <t>LoadType</t>
+  </si>
+  <si>
+    <t>enter the loadtype</t>
+  </si>
+  <si>
+    <t>clcik apply</t>
+  </si>
+  <si>
+    <t>verifyLoadType</t>
+  </si>
+  <si>
+    <t>ensure loadtype is delta</t>
+  </si>
+  <si>
+    <t>txtValue</t>
+  </si>
+  <si>
+    <t>toggle button click</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>realtimeSpineAPIPostRequest</t>
+  </si>
+  <si>
+    <t>post api request to insert in to spine</t>
   </si>
 </sst>
 </file>
@@ -984,7 +1026,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1029,6 +1071,12 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1161,9 +1209,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1214,9 +1263,10 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{58C6B9B9-44EF-4FF6-B4E2-0E7E1176543B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4145,7 +4195,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:F16"/>
+      <selection activeCell="C8" sqref="C8:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5279,8 +5329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:F15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6713,10 +6763,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8011,13 +8061,13 @@
         <v>25</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>48</v>
@@ -8031,10 +8081,10 @@
         <v>25</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>37</v>
@@ -8043,7 +8093,7 @@
         <v>44</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
@@ -8053,20 +8103,18 @@
         <v>25</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F65" s="1">
-        <v>2</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F65" s="1"/>
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
     </row>
@@ -8075,12 +8123,12 @@
         <v>25</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="D66" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E66" s="1" t="s">
@@ -8097,18 +8145,20 @@
         <v>25</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>182</v>
+        <v>298</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F67" s="1"/>
+        <v>180</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2</v>
+      </c>
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
     </row>
@@ -8117,19 +8167,19 @@
         <v>25</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
@@ -8139,18 +8189,18 @@
         <v>25</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="E69" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="F69" s="25"/>
+        <v>311</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" s="1"/>
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
     </row>
@@ -8159,20 +8209,232 @@
         <v>25</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="D70" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="E70" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="F70" s="25"/>
+        <v>104</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" s="25">
+        <v>5000</v>
+      </c>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F77" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="E79" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="F79" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8396,7 +8658,7 @@
   <dimension ref="A2:B3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D4E062-E4C1-4A75-BA6C-3E2D08B76BDF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077B0738-AED3-4F96-9DAC-E2D270F22B14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1881,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6765,8 +6765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077B0738-AED3-4F96-9DAC-E2D270F22B14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B72A81-A035-41E4-B1AA-DB3BF8FFC53E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="338">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -236,9 +236,6 @@
     <t>rollBackToBaselineVersion</t>
   </si>
   <si>
-    <t>29.356.254.2.NA.01-01-01</t>
-  </si>
-  <si>
     <t>wait time</t>
   </si>
   <si>
@@ -1017,6 +1014,39 @@
   </si>
   <si>
     <t>post api request to insert in to spine</t>
+  </si>
+  <si>
+    <t>radBtnAllForIH</t>
+  </si>
+  <si>
+    <t>select All</t>
+  </si>
+  <si>
+    <t>click on Email tab</t>
+  </si>
+  <si>
+    <t>EmailTab</t>
+  </si>
+  <si>
+    <t>EmailRefresh</t>
+  </si>
+  <si>
+    <t>refresh email</t>
+  </si>
+  <si>
+    <t>offerNameFilter</t>
+  </si>
+  <si>
+    <t>click on offerName filter</t>
+  </si>
+  <si>
+    <t>search offer name</t>
+  </si>
+  <si>
+    <t>click Apply</t>
+  </si>
+  <si>
+    <t>sleep</t>
   </si>
 </sst>
 </file>
@@ -1881,8 +1911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2229,8 +2259,8 @@
       <c r="E17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>67</v>
+      <c r="F17" s="9">
+        <v>2</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="1"/>
@@ -2243,7 +2273,7 @@
         <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>37</v>
@@ -2265,10 +2295,10 @@
         <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>48</v>
@@ -2282,19 +2312,19 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -2304,19 +2334,19 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -2326,13 +2356,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>48</v>
@@ -2346,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>43</v>
@@ -2368,16 +2398,16 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -2388,16 +2418,16 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -2408,16 +2438,16 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -2428,16 +2458,16 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2448,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -2468,16 +2498,16 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -2488,16 +2518,16 @@
         <v>0</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2508,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>48</v>
@@ -2528,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>43</v>
@@ -2550,13 +2580,13 @@
         <v>0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>48</v>
@@ -2570,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>43</v>
@@ -2592,13 +2622,13 @@
         <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>48</v>
@@ -2612,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>43</v>
@@ -2634,13 +2664,13 @@
         <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>48</v>
@@ -2654,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>48</v>
@@ -2674,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>43</v>
@@ -2696,16 +2726,16 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2716,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>43</v>
@@ -2738,16 +2768,16 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -2758,16 +2788,16 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="12" t="s">
         <v>114</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>115</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2778,16 +2808,16 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="E44" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -2798,10 +2828,10 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>37</v>
@@ -2820,16 +2850,16 @@
         <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -2840,16 +2870,16 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -2860,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>43</v>
@@ -2882,16 +2912,16 @@
         <v>0</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -2910,10 +2940,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3259,8 +3289,8 @@
       <c r="E17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>67</v>
+      <c r="F17" s="9">
+        <v>2</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -3295,10 +3325,10 @@
         <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>48</v>
@@ -3312,19 +3342,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="9"/>
@@ -3334,19 +3364,19 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="9"/>
@@ -3356,13 +3386,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>48</v>
@@ -3376,7 +3406,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>43</v>
@@ -3398,16 +3428,16 @@
         <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -3418,16 +3448,16 @@
         <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -3438,16 +3468,16 @@
         <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -3458,16 +3488,16 @@
         <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -3478,16 +3508,16 @@
         <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -3498,16 +3528,16 @@
         <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -3518,16 +3548,16 @@
         <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -3538,16 +3568,16 @@
         <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -3558,13 +3588,13 @@
         <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>48</v>
@@ -3578,7 +3608,7 @@
         <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>43</v>
@@ -3600,13 +3630,13 @@
         <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>48</v>
@@ -3620,13 +3650,13 @@
         <v>16</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>48</v>
@@ -3640,19 +3670,19 @@
         <v>16</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -3662,21 +3692,21 @@
         <v>16</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G37" s="9"/>
+        <v>73</v>
+      </c>
+      <c r="F37" s="13">
+        <v>43525</v>
+      </c>
+      <c r="G37" s="13"/>
       <c r="H37" s="9"/>
     </row>
     <row r="38" spans="1:8">
@@ -3687,16 +3717,16 @@
         <v>107</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F38" s="13">
-        <v>43525</v>
+        <v>45743</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="9"/>
@@ -3706,21 +3736,19 @@
         <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="13">
-        <v>45743</v>
-      </c>
-      <c r="G39" s="13"/>
+        <v>48</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
       <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8">
@@ -3728,13 +3756,13 @@
         <v>16</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>48</v>
@@ -3748,19 +3776,21 @@
         <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
+        <v>152</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8">
@@ -3768,20 +3798,18 @@
         <v>16</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>154</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="9"/>
     </row>
@@ -3790,18 +3818,20 @@
         <v>16</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="H43" s="9"/>
     </row>
@@ -3810,21 +3840,19 @@
         <v>16</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G44" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
       <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8">
@@ -3832,18 +3860,20 @@
         <v>16</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F45" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="F45" s="9">
+        <v>5000</v>
+      </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
     </row>
@@ -3852,20 +3882,18 @@
         <v>16</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="D46" s="1" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="9">
-        <v>5000</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
     </row>
@@ -3877,15 +3905,17 @@
         <v>162</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="F47" s="9">
+        <v>10000</v>
+      </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
     </row>
@@ -3897,17 +3927,15 @@
         <v>163</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="9">
-        <v>10000</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
     </row>
@@ -3916,13 +3944,13 @@
         <v>16</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="D49" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>48</v>
@@ -3936,40 +3964,40 @@
         <v>16</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="F50" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="1">
-        <v>20000</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
@@ -3978,18 +4006,20 @@
         <v>16</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="F52" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="1">
+        <v>7000</v>
+      </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
@@ -4001,17 +4031,15 @@
         <v>107</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>37</v>
+        <v>108</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="1">
-        <v>7000</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
@@ -4020,16 +4048,16 @@
         <v>16</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -4040,16 +4068,16 @@
         <v>16</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="12" t="s">
         <v>114</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>115</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -4060,18 +4088,20 @@
         <v>16</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F56" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="1">
+        <v>10000</v>
+      </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
@@ -4080,20 +4110,18 @@
         <v>16</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F57" s="1">
-        <v>10000</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
@@ -4102,16 +4130,16 @@
         <v>16</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -4122,18 +4150,20 @@
         <v>16</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F59" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F59" s="1">
+        <v>30000</v>
+      </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
@@ -4145,39 +4175,17 @@
         <v>126</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F60" s="1">
-        <v>30000</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4192,10 +4200,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E12"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4371,7 +4379,7 @@
         <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -4413,7 +4421,7 @@
         <v>44</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -4455,7 +4463,7 @@
         <v>44</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -4497,7 +4505,7 @@
         <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -4532,16 +4540,16 @@
         <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5000</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -4557,14 +4565,12 @@
         <v>68</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="1">
-        <v>5000</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
@@ -4573,18 +4579,20 @@
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
@@ -4593,19 +4601,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -4615,20 +4623,18 @@
         <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
@@ -4637,18 +4643,20 @@
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3000</v>
+      </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
@@ -4657,20 +4665,18 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="1">
-        <v>3000</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
@@ -4679,16 +4685,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -4699,16 +4705,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -4719,16 +4725,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -4739,16 +4745,16 @@
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>279</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -4759,16 +4765,16 @@
         <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>280</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -4779,16 +4785,16 @@
         <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -4799,16 +4805,16 @@
         <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -4819,18 +4825,20 @@
         <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3000</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
@@ -4839,20 +4847,18 @@
         <v>22</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="1">
-        <v>3000</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
@@ -4861,18 +4867,20 @@
         <v>22</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F33" s="1">
+        <v>8000</v>
+      </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
@@ -4881,19 +4889,19 @@
         <v>22</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="1">
-        <v>8000</v>
+        <v>169</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -4906,16 +4914,16 @@
         <v>99</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>283</v>
+        <v>44</v>
+      </c>
+      <c r="F35" s="1">
+        <v>8000</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -4928,17 +4936,15 @@
         <v>100</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="1">
-        <v>8000</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
@@ -4947,13 +4953,13 @@
         <v>22</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>48</v>
@@ -4967,18 +4973,20 @@
         <v>22</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>174</v>
+        <v>37</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F38" s="1">
+        <v>3000</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -4990,17 +4998,15 @@
         <v>107</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="1">
-        <v>3000</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
@@ -5009,18 +5015,20 @@
         <v>22</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F40" s="1">
+        <v>3000</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
@@ -5029,20 +5037,18 @@
         <v>22</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="1">
-        <v>3000</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
@@ -5051,13 +5057,13 @@
         <v>22</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>48</v>
@@ -5071,18 +5077,20 @@
         <v>22</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F43" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F43" s="1">
+        <v>20000</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
@@ -5091,20 +5099,18 @@
         <v>22</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F44" s="1">
-        <v>20000</v>
-      </c>
+      <c r="D44" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
@@ -5113,18 +5119,20 @@
         <v>22</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="F45" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="1">
+        <v>7000</v>
+      </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
@@ -5133,20 +5141,18 @@
         <v>22</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>37</v>
+        <v>108</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="1">
-        <v>7000</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
@@ -5155,16 +5161,16 @@
         <v>22</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -5175,16 +5181,16 @@
         <v>22</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -5195,18 +5201,20 @@
         <v>22</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F49" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F49" s="1">
+        <v>10000</v>
+      </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
@@ -5215,20 +5223,18 @@
         <v>22</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="1">
-        <v>10000</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
@@ -5237,16 +5243,16 @@
         <v>22</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -5257,18 +5263,20 @@
         <v>22</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F52" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F52" s="1">
+        <v>30000</v>
+      </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
@@ -5277,42 +5285,20 @@
         <v>22</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="1">
-        <v>30000</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5327,10 +5313,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:F15"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5346,7 +5332,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -5463,7 +5449,7 @@
         <v>44</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="1"/>
@@ -5505,7 +5491,7 @@
         <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -5547,7 +5533,7 @@
         <v>44</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -5566,7 +5552,7 @@
         <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
@@ -5591,7 +5577,7 @@
         <v>44</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -5604,10 +5590,10 @@
         <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>48</v>
@@ -5624,7 +5610,7 @@
         <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>37</v>
@@ -5643,16 +5629,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>48</v>
+        <v>328</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>258</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -5663,13 +5649,13 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>48</v>
@@ -5686,13 +5672,13 @@
         <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5703,16 +5689,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -5723,20 +5709,18 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>167</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
@@ -5754,10 +5738,10 @@
         <v>37</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -5767,19 +5751,19 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -5792,16 +5776,16 @@
         <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F23" s="1">
-        <v>10000</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -5814,15 +5798,17 @@
         <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F24" s="1">
+        <v>10000</v>
+      </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
@@ -5831,20 +5817,18 @@
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>191</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
@@ -5853,19 +5837,19 @@
         <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -5875,18 +5859,20 @@
         <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
@@ -5895,20 +5881,18 @@
         <v>19</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="1">
-        <v>3000</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
@@ -5917,18 +5901,20 @@
         <v>19</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3000</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
@@ -5937,16 +5923,16 @@
         <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -5957,16 +5943,16 @@
         <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -5977,16 +5963,16 @@
         <v>19</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -5997,16 +5983,16 @@
         <v>19</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>280</v>
+        <v>89</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -6017,16 +6003,16 @@
         <v>19</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>279</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -6037,16 +6023,16 @@
         <v>19</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -6057,16 +6043,16 @@
         <v>19</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>193</v>
+        <v>95</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -6077,20 +6063,18 @@
         <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
@@ -6099,18 +6083,20 @@
         <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
@@ -6119,20 +6105,18 @@
         <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
@@ -6141,18 +6125,20 @@
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" s="1"/>
+        <v>199</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
@@ -6161,41 +6147,41 @@
         <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="1">
-        <v>3000</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="9"/>
+      <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G42" s="1"/>
       <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8">
@@ -6203,13 +6189,13 @@
         <v>19</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>48</v>
@@ -6223,20 +6209,18 @@
         <v>19</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>201</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
     </row>
@@ -6245,19 +6229,19 @@
         <v>19</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
@@ -6267,21 +6251,21 @@
         <v>19</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F46" s="13">
-        <v>43526</v>
-      </c>
-      <c r="G46" s="13"/>
+        <v>73</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G46" s="9"/>
       <c r="H46" s="9"/>
     </row>
     <row r="47" spans="1:8">
@@ -6289,19 +6273,19 @@
         <v>19</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F47" s="13">
-        <v>45743</v>
+        <v>43526</v>
       </c>
       <c r="G47" s="13"/>
       <c r="H47" s="9"/>
@@ -6311,19 +6295,21 @@
         <v>19</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
+        <v>73</v>
+      </c>
+      <c r="F48" s="13">
+        <v>45743</v>
+      </c>
+      <c r="G48" s="13"/>
       <c r="H48" s="9"/>
     </row>
     <row r="49" spans="1:8">
@@ -6331,13 +6317,13 @@
         <v>19</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>48</v>
@@ -6351,21 +6337,19 @@
         <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G50" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
       <c r="H50" s="9"/>
     </row>
     <row r="51" spans="1:8">
@@ -6373,18 +6357,20 @@
         <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F51" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="G51" s="1"/>
       <c r="H51" s="9"/>
     </row>
@@ -6393,20 +6379,18 @@
         <v>19</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>204</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="9"/>
     </row>
@@ -6415,19 +6399,21 @@
         <v>19</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
+        <v>152</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G53" s="1"/>
       <c r="H53" s="9"/>
     </row>
     <row r="54" spans="1:8">
@@ -6435,20 +6421,18 @@
         <v>19</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" s="9">
-        <v>5000</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
     </row>
@@ -6460,15 +6444,17 @@
         <v>163</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>205</v>
+        <v>67</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F55" s="9"/>
+        <v>44</v>
+      </c>
+      <c r="F55" s="9">
+        <v>5000</v>
+      </c>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
     </row>
@@ -6477,23 +6463,19 @@
         <v>19</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>196</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
       <c r="H56" s="9"/>
     </row>
     <row r="57" spans="1:8">
@@ -6501,61 +6483,65 @@
         <v>19</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="F57" s="23">
-        <v>5000</v>
-      </c>
-      <c r="G57" s="21"/>
+      <c r="F57" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>195</v>
+      </c>
       <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
+      <c r="B58" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="23">
+        <v>5000</v>
+      </c>
+      <c r="G58" s="21"/>
       <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E59" s="1" t="s">
+      <c r="B59" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
       <c r="H59" s="9"/>
     </row>
     <row r="60" spans="1:8">
@@ -6563,21 +6549,19 @@
         <v>19</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F60" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G60" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
       <c r="H60" s="9"/>
     </row>
     <row r="61" spans="1:8">
@@ -6585,18 +6569,20 @@
         <v>19</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="F61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" s="1">
+        <v>20000</v>
+      </c>
       <c r="G61" s="1"/>
       <c r="H61" s="9"/>
     </row>
@@ -6605,20 +6591,18 @@
         <v>19</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F62" s="1">
-        <v>7000</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="9"/>
     </row>
@@ -6627,18 +6611,20 @@
         <v>19</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>110</v>
+        <v>43</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F63" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F63" s="1">
+        <v>7000</v>
+      </c>
       <c r="G63" s="1"/>
       <c r="H63" s="9"/>
     </row>
@@ -6647,16 +6633,16 @@
         <v>19</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -6667,20 +6653,18 @@
         <v>19</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F65" s="1">
-        <v>30000</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="9"/>
     </row>
@@ -6689,19 +6673,19 @@
         <v>19</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>209</v>
+        <v>44</v>
+      </c>
+      <c r="F66" s="1">
+        <v>30000</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="9"/>
@@ -6711,23 +6695,21 @@
         <v>19</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F67" s="1">
-        <v>123458</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G67" s="1"/>
       <c r="H67" s="9"/>
     </row>
     <row r="68" spans="1:8">
@@ -6735,20 +6717,234 @@
         <v>19</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>128</v>
+        <v>297</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F68" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="F68" s="1">
+        <v>600000</v>
+      </c>
       <c r="G68" s="1"/>
       <c r="H68" s="9"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="9"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="9"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="9"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="9"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="9"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="9"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="9"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="9"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H77" s="9"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6756,8 +6952,9 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6784,7 +6981,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -6901,7 +7098,7 @@
         <v>44</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="1"/>
@@ -6914,16 +7111,16 @@
         <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -6936,10 +7133,10 @@
         <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>48</v>
@@ -6958,10 +7155,10 @@
         <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>48</v>
@@ -6980,7 +7177,7 @@
         <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>37</v>
@@ -6989,7 +7186,7 @@
         <v>62</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -7002,10 +7199,10 @@
         <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>48</v>
@@ -7022,10 +7219,10 @@
         <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>48</v>
@@ -7071,7 +7268,7 @@
         <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -7084,16 +7281,16 @@
         <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="E16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -7106,10 +7303,10 @@
         <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>48</v>
@@ -7135,7 +7332,7 @@
         <v>44</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -7148,13 +7345,13 @@
         <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F19" s="1">
         <v>3</v>
@@ -7170,13 +7367,13 @@
         <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -7190,13 +7387,13 @@
         <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
@@ -7212,13 +7409,13 @@
         <v>42</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -7232,13 +7429,13 @@
         <v>42</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -7254,16 +7451,16 @@
         <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -7276,10 +7473,10 @@
         <v>42</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>48</v>
@@ -7296,13 +7493,13 @@
         <v>42</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -7316,13 +7513,13 @@
         <v>42</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -7336,10 +7533,10 @@
         <v>42</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>48</v>
@@ -7356,13 +7553,13 @@
         <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F29" s="1">
         <v>2</v>
@@ -7378,13 +7575,13 @@
         <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -7398,7 +7595,7 @@
         <v>42</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>37</v>
@@ -7407,7 +7604,7 @@
         <v>62</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -7420,10 +7617,10 @@
         <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>48</v>
@@ -7440,13 +7637,13 @@
         <v>42</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -7460,7 +7657,7 @@
         <v>42</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>37</v>
@@ -7469,7 +7666,7 @@
         <v>62</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -7482,10 +7679,10 @@
         <v>42</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>48</v>
@@ -7502,10 +7699,10 @@
         <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>48</v>
@@ -7522,7 +7719,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>37</v>
@@ -7544,13 +7741,13 @@
         <v>42</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -7564,13 +7761,13 @@
         <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F39" s="1">
         <v>2</v>
@@ -7586,13 +7783,13 @@
         <v>45</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F40" s="1">
         <v>1</v>
@@ -7608,13 +7805,13 @@
         <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -7628,13 +7825,13 @@
         <v>42</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -7648,13 +7845,13 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -7670,10 +7867,10 @@
         <v>45</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>48</v>
@@ -7690,13 +7887,13 @@
         <v>45</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -7710,13 +7907,13 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
@@ -7732,13 +7929,13 @@
         <v>49</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
@@ -7752,13 +7949,13 @@
         <v>50</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
@@ -7772,13 +7969,13 @@
         <v>53</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F49" s="25">
         <v>0</v>
@@ -7794,10 +7991,10 @@
         <v>54</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>48</v>
@@ -7814,13 +8011,13 @@
         <v>54</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F51" s="25"/>
       <c r="G51" s="25"/>
@@ -7834,13 +8031,13 @@
         <v>54</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F52" s="1">
         <v>1</v>
@@ -7856,10 +8053,10 @@
         <v>57</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>48</v>
@@ -7876,13 +8073,13 @@
         <v>58</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
@@ -7896,13 +8093,13 @@
         <v>61</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
@@ -7916,13 +8113,13 @@
         <v>64</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
@@ -7933,13 +8130,13 @@
         <v>25</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E57" s="26" t="s">
         <v>48</v>
@@ -7953,10 +8150,10 @@
         <v>25</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D58" s="26" t="s">
         <v>37</v>
@@ -7975,10 +8172,10 @@
         <v>25</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D59" s="26" t="s">
         <v>37</v>
@@ -7987,7 +8184,7 @@
         <v>62</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
@@ -7997,19 +8194,19 @@
         <v>25</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C60" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="D60" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E60" s="26" t="s">
+      <c r="F60" s="26" t="s">
         <v>300</v>
-      </c>
-      <c r="F60" s="26" t="s">
-        <v>301</v>
       </c>
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
@@ -8019,16 +8216,16 @@
         <v>25</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D61" s="26" t="s">
         <v>37</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F61" s="26"/>
       <c r="G61" s="25"/>
@@ -8039,19 +8236,19 @@
         <v>25</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D62" s="26" t="s">
         <v>37</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F62" s="26" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
@@ -8061,10 +8258,10 @@
         <v>25</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>47</v>
@@ -8081,10 +8278,10 @@
         <v>25</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>37</v>
@@ -8093,7 +8290,7 @@
         <v>44</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
@@ -8103,10 +8300,10 @@
         <v>25</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>52</v>
@@ -8123,10 +8320,10 @@
         <v>25</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>37</v>
@@ -8135,7 +8332,7 @@
         <v>44</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G66" s="25"/>
       <c r="H66" s="25"/>
@@ -8145,16 +8342,16 @@
         <v>25</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F67" s="1">
         <v>2</v>
@@ -8167,10 +8364,10 @@
         <v>25</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>37</v>
@@ -8179,7 +8376,7 @@
         <v>44</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
@@ -8189,13 +8386,13 @@
         <v>25</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>48</v>
@@ -8209,10 +8406,10 @@
         <v>25</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>37</v>
@@ -8231,10 +8428,10 @@
         <v>25</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>37</v>
@@ -8253,16 +8450,16 @@
         <v>25</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F72" s="25"/>
       <c r="G72" s="25"/>
@@ -8273,10 +8470,10 @@
         <v>25</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C73" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D73" s="26" t="s">
         <v>37</v>
@@ -8295,16 +8492,16 @@
         <v>25</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C74" s="26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D74" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="E74" s="26" t="s">
         <v>305</v>
-      </c>
-      <c r="E74" s="26" t="s">
-        <v>306</v>
       </c>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
@@ -8318,10 +8515,10 @@
         <v>1</v>
       </c>
       <c r="C75" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D75" s="26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E75" s="26" t="s">
         <v>48</v>
@@ -8338,7 +8535,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D76" s="26" t="s">
         <v>37</v>
@@ -8357,19 +8554,19 @@
         <v>25</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C77" s="26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
@@ -8379,13 +8576,13 @@
         <v>25</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E78" s="26" t="s">
         <v>48</v>
@@ -8399,19 +8596,19 @@
         <v>25</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C79" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="D79" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="D79" s="26" t="s">
-        <v>323</v>
-      </c>
       <c r="E79" s="26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F79" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
@@ -8421,16 +8618,16 @@
         <v>25</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D80" s="26" t="s">
         <v>37</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F80" s="25"/>
       <c r="G80" s="25"/>
@@ -8496,7 +8693,7 @@
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
       <c r="F3" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
@@ -8506,19 +8703,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>267</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -8528,16 +8725,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>270</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -8545,16 +8742,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>273</v>
-      </c>
       <c r="E6" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -8562,16 +8759,16 @@
         <v>16</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>269</v>
-      </c>
       <c r="D7" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -8579,16 +8776,16 @@
         <v>16</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>270</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -8596,16 +8793,16 @@
         <v>16</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>276</v>
-      </c>
       <c r="D9" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -8613,16 +8810,16 @@
         <v>22</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C10" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>276</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -8630,16 +8827,16 @@
         <v>22</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>276</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -8673,7 +8870,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8681,7 +8878,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8465869D-7ED0-4759-9F3D-4EF6F3D0E872}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A53B6C4-0B64-4EE5-9F4F-510FBA75D9BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2555,8 +2555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92316FED-85B2-43F2-9827-12AFBA752185}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:F16"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3275,7 +3275,7 @@
         <v>41</v>
       </c>
       <c r="F35" s="25">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="9"/>
@@ -3317,7 +3317,7 @@
         <v>41</v>
       </c>
       <c r="F37" s="25">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="9"/>
@@ -3359,7 +3359,7 @@
         <v>41</v>
       </c>
       <c r="F39" s="25">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="9"/>
@@ -3401,7 +3401,7 @@
         <v>41</v>
       </c>
       <c r="F41" s="25">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="9"/>
@@ -3547,8 +3547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDE53E4-1746-48CE-AB4D-617AE971D39B}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4266,7 +4266,7 @@
         <v>41</v>
       </c>
       <c r="F35" s="25">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="9"/>
@@ -4308,7 +4308,7 @@
         <v>41</v>
       </c>
       <c r="F37" s="25">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="9"/>
@@ -4350,7 +4350,7 @@
         <v>41</v>
       </c>
       <c r="F39" s="25">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="9"/>
@@ -4392,7 +4392,7 @@
         <v>41</v>
       </c>
       <c r="F41" s="25">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="9"/>
@@ -4872,8 +4872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2B88A9-98DC-469F-B6A8-72D4BD0DF47F}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="C70" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85:E85"/>
+    <sheetView topLeftCell="C76" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6388,7 +6388,7 @@
         <v>41</v>
       </c>
       <c r="F73" s="1">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
@@ -6430,7 +6430,7 @@
         <v>41</v>
       </c>
       <c r="F75" s="1">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
@@ -6520,7 +6520,7 @@
         <v>41</v>
       </c>
       <c r="F79" s="25">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
@@ -6562,7 +6562,7 @@
         <v>41</v>
       </c>
       <c r="F81" s="25">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="G81" s="25"/>
       <c r="H81" s="25"/>
@@ -6662,8 +6662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353D209F-F23A-4BBD-9C0E-30D3275A1C3F}">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B103" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
+      <selection activeCell="H99" sqref="H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8746,7 +8746,7 @@
         <v>41</v>
       </c>
       <c r="F100" s="1">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G100" s="25"/>
       <c r="H100" s="25"/>
@@ -12840,7 +12840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A53B6C4-0B64-4EE5-9F4F-510FBA75D9BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEC00EA-BAE8-433C-ACF9-7C5D94D79DCD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DriverSheet" sheetId="2" r:id="rId1"/>
@@ -22,12 +22,13 @@
     <sheet name="RealtimeSpineWithNewProperty" sheetId="10" r:id="rId7"/>
     <sheet name="EmailTempWithNewAttribute" sheetId="11" r:id="rId8"/>
     <sheet name="MicrositeTempWithExistingAttrib" sheetId="12" r:id="rId9"/>
-    <sheet name="VerifyDBForNewAgreementModel" sheetId="13" r:id="rId10"/>
-    <sheet name="VerifyAgreementClassFornewProp" sheetId="14" r:id="rId11"/>
-    <sheet name="VerifyDiscardVersioIsSuccessful" sheetId="15" r:id="rId12"/>
-    <sheet name="EnsureRollbackIsSuccessful" sheetId="16" r:id="rId13"/>
-    <sheet name="BatchDecisionOutputValidations" sheetId="8" r:id="rId14"/>
-    <sheet name="CheckLists" sheetId="9" r:id="rId15"/>
+    <sheet name="OBCCTempWithExistingAttrib" sheetId="17" r:id="rId10"/>
+    <sheet name="VerifyDBForNewAgreementModel" sheetId="13" r:id="rId11"/>
+    <sheet name="VerifyAgreementClassFornewProp" sheetId="14" r:id="rId12"/>
+    <sheet name="VerifyDiscardVersioIsSuccessful" sheetId="15" r:id="rId13"/>
+    <sheet name="EnsureRollbackIsSuccessful" sheetId="16" r:id="rId14"/>
+    <sheet name="BatchDecisionOutputValidations" sheetId="8" r:id="rId15"/>
+    <sheet name="CheckLists" sheetId="9" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4661" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4743" uniqueCount="532">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -1475,9 +1476,6 @@
     <t>ADQURA-FW-AppsFW-Data-AgreementStaging</t>
   </si>
   <si>
-    <t>AutoProp</t>
-  </si>
-  <si>
     <t>lnkStagingAgreementClass</t>
   </si>
   <si>
@@ -1626,6 +1624,24 @@
   </si>
   <si>
     <t>PegaGadget5Ifr</t>
+  </si>
+  <si>
+    <t>OBCCTempWithExistingAttrib</t>
+  </si>
+  <si>
+    <t>Verify existing attribute can be added to OBCC template</t>
+  </si>
+  <si>
+    <t>TS15_Regr_01</t>
+  </si>
+  <si>
+    <t>Ensure same attribute added in the email temp can be added to OBCC and verifying in the UI</t>
+  </si>
+  <si>
+    <t>AutoProp1</t>
+  </si>
+  <si>
+    <t>verifying the engine and download</t>
   </si>
 </sst>
 </file>
@@ -2303,10 +2319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMK16"/>
+  <dimension ref="A1:AMK17"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2513,13 +2529,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -2528,18 +2544,33 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2552,10 +2583,456 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DC9284-1E00-457F-9E32-CE2FA20C3859}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="42" t="s">
+        <v>529</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5000</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="F21" s="25">
+        <v>2</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92316FED-85B2-43F2-9827-12AFBA752185}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
@@ -3460,7 +3937,7 @@
         <v>34</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F44" s="25"/>
       <c r="G44" s="1"/>
@@ -3543,12 +4020,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDE53E4-1746-48CE-AB4D-617AE971D39B}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3894,7 +4371,7 @@
         <v>63</v>
       </c>
       <c r="F17" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -4204,7 +4681,7 @@
         <v>70</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="9"/>
@@ -4451,7 +4928,7 @@
         <v>34</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F44" s="25"/>
       <c r="G44" s="1"/>
@@ -4568,18 +5045,20 @@
         <v>462</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>338</v>
+        <v>172</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>472</v>
+        <v>193</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>468</v>
+        <v>34</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F50" s="25"/>
+        <v>41</v>
+      </c>
+      <c r="F50" s="25">
+        <v>5000</v>
+      </c>
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
     </row>
@@ -4588,20 +5067,18 @@
         <v>462</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>64</v>
+        <v>472</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>34</v>
+        <v>468</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F51" s="25">
-        <v>8000</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F51" s="25"/>
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
     </row>
@@ -4610,19 +5087,19 @@
         <v>462</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>244</v>
+        <v>64</v>
       </c>
       <c r="D52" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>280</v>
+        <v>41</v>
       </c>
       <c r="F52" s="25">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
@@ -4632,18 +5109,20 @@
         <v>462</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>473</v>
+        <v>244</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>471</v>
+        <v>34</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F53" s="25"/>
+        <v>280</v>
+      </c>
+      <c r="F53" s="25">
+        <v>0</v>
+      </c>
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
     </row>
@@ -4652,20 +5131,18 @@
         <v>462</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>34</v>
+        <v>471</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>469</v>
-      </c>
-      <c r="F54" s="25" t="s">
-        <v>476</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F54" s="25"/>
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
     </row>
@@ -4677,15 +5154,17 @@
         <v>342</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>185</v>
+        <v>470</v>
       </c>
       <c r="D55" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="F55" s="25"/>
+        <v>469</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>530</v>
+      </c>
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
     </row>
@@ -4694,20 +5173,18 @@
         <v>462</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>467</v>
+        <v>342</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>185</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>209</v>
+        <v>34</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F56" s="37" t="s">
-        <v>475</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="F56" s="25"/>
       <c r="G56" s="25"/>
       <c r="H56" s="25"/>
     </row>
@@ -4716,18 +5193,20 @@
         <v>462</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>193</v>
+        <v>343</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>467</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F57" s="25"/>
+        <v>70</v>
+      </c>
+      <c r="F57" s="37" t="s">
+        <v>475</v>
+      </c>
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
     </row>
@@ -4736,13 +5215,13 @@
         <v>462</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>472</v>
+        <v>193</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>477</v>
+        <v>212</v>
       </c>
       <c r="E58" s="26" t="s">
         <v>45</v>
@@ -4756,10 +5235,10 @@
         <v>462</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>346</v>
+        <v>172</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>64</v>
+        <v>193</v>
       </c>
       <c r="D59" s="26" t="s">
         <v>34</v>
@@ -4768,7 +5247,7 @@
         <v>41</v>
       </c>
       <c r="F59" s="25">
-        <v>8000</v>
+        <v>5000</v>
       </c>
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
@@ -4778,20 +5257,18 @@
         <v>462</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>244</v>
+        <v>472</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>34</v>
+        <v>476</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="F60" s="25">
-        <v>1</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F60" s="25"/>
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
     </row>
@@ -4800,18 +5277,20 @@
         <v>462</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>473</v>
+        <v>64</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>471</v>
+        <v>34</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F61" s="25"/>
+        <v>41</v>
+      </c>
+      <c r="F61" s="25">
+        <v>8000</v>
+      </c>
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
     </row>
@@ -4820,19 +5299,19 @@
         <v>462</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>470</v>
+        <v>244</v>
       </c>
       <c r="D62" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>469</v>
-      </c>
-      <c r="F62" s="25" t="s">
-        <v>476</v>
+        <v>280</v>
+      </c>
+      <c r="F62" s="25">
+        <v>1</v>
       </c>
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
@@ -4842,20 +5321,62 @@
         <v>462</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>34</v>
+        <v>471</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="F63" s="25"/>
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4868,12 +5389,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2B88A9-98DC-469F-B6A8-72D4BD0DF47F}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="C76" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4901,7 +5422,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -4949,7 +5470,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>32</v>
@@ -4971,7 +5492,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>36</v>
@@ -4993,7 +5514,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>39</v>
@@ -5015,7 +5536,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>42</v>
@@ -5035,7 +5556,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>46</v>
@@ -5057,7 +5578,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>47</v>
@@ -5077,7 +5598,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>50</v>
@@ -5099,7 +5620,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>51</v>
@@ -5119,7 +5640,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>54</v>
@@ -5141,7 +5662,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>55</v>
@@ -5161,7 +5682,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>58</v>
@@ -5183,7 +5704,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>58</v>
@@ -5205,7 +5726,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>61</v>
@@ -5220,14 +5741,14 @@
         <v>63</v>
       </c>
       <c r="F17" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>61</v>
@@ -5249,7 +5770,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>61</v>
@@ -5269,7 +5790,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>67</v>
@@ -5284,14 +5805,14 @@
         <v>70</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>72</v>
@@ -5306,14 +5827,14 @@
         <v>70</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>76</v>
@@ -5333,7 +5854,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>79</v>
@@ -5355,7 +5876,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>83</v>
@@ -5375,7 +5896,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>89</v>
@@ -5395,7 +5916,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>91</v>
@@ -5415,7 +5936,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>91</v>
@@ -5435,7 +5956,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>93</v>
@@ -5455,7 +5976,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>95</v>
@@ -5475,7 +5996,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>96</v>
@@ -5495,7 +6016,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>97</v>
@@ -5515,7 +6036,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>100</v>
@@ -5524,7 +6045,7 @@
         <v>347</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E32" s="26" t="s">
         <v>45</v>
@@ -5535,7 +6056,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>103</v>
@@ -5550,14 +6071,14 @@
         <v>70</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>104</v>
@@ -5577,7 +6098,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>1</v>
@@ -5597,7 +6118,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>108</v>
@@ -5619,7 +6140,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>112</v>
@@ -5639,7 +6160,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>79</v>
@@ -5661,13 +6182,13 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>34</v>
@@ -5676,16 +6197,16 @@
         <v>474</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H39" s="9"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>95</v>
@@ -5705,7 +6226,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>96</v>
@@ -5725,7 +6246,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>97</v>
@@ -5740,14 +6261,14 @@
         <v>70</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>100</v>
@@ -5769,7 +6290,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>103</v>
@@ -5784,14 +6305,14 @@
         <v>70</v>
       </c>
       <c r="F44" s="13">
-        <v>45743</v>
+        <v>45719</v>
       </c>
       <c r="G44" s="13"/>
       <c r="H44" s="9"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>104</v>
@@ -5811,7 +6332,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>1</v>
@@ -5833,7 +6354,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>108</v>
@@ -5853,7 +6374,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>112</v>
@@ -5875,7 +6396,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>116</v>
@@ -5895,7 +6416,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>116</v>
@@ -5915,7 +6436,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>119</v>
@@ -5935,7 +6456,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>122</v>
@@ -5955,7 +6476,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>123</v>
@@ -5977,7 +6498,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>156</v>
@@ -5997,7 +6518,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>158</v>
@@ -6019,7 +6540,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>160</v>
@@ -6039,7 +6560,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>160</v>
@@ -6061,7 +6582,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>171</v>
@@ -6073,7 +6594,7 @@
         <v>34</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
@@ -6081,16 +6602,16 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C59" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="D59" s="26" t="s">
         <v>484</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>485</v>
       </c>
       <c r="E59" s="26" t="s">
         <v>452</v>
@@ -6101,7 +6622,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>172</v>
@@ -6121,7 +6642,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>338</v>
@@ -6143,13 +6664,13 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>339</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>34</v>
@@ -6163,7 +6684,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>340</v>
@@ -6183,13 +6704,13 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>341</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>57</v>
@@ -6203,7 +6724,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>341</v>
@@ -6225,7 +6746,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>341</v>
@@ -6247,19 +6768,19 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>343</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D67" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F67" s="25"/>
       <c r="G67" s="25"/>
@@ -6267,13 +6788,13 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>345</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>34</v>
@@ -6289,13 +6810,13 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>346</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>66</v>
@@ -6309,7 +6830,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>383</v>
@@ -6324,14 +6845,14 @@
         <v>70</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>384</v>
@@ -6346,14 +6867,14 @@
         <v>70</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>385</v>
@@ -6373,7 +6894,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>389</v>
@@ -6395,7 +6916,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>390</v>
@@ -6415,7 +6936,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>395</v>
@@ -6437,7 +6958,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>396</v>
@@ -6457,61 +6978,61 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>397</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D77" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F77" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G77" s="37" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H77" s="25"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>398</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="F78" s="26" t="s">
         <v>499</v>
       </c>
-      <c r="D78" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E78" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="F78" s="26" t="s">
-        <v>500</v>
-      </c>
       <c r="G78" s="26" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H78" s="25"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>399</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D79" s="38" t="s">
         <v>34</v>
@@ -6527,13 +7048,13 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>400</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D80" s="38" t="s">
         <v>78</v>
@@ -6547,13 +7068,13 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>401</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D81" s="38" t="s">
         <v>34</v>
@@ -6569,13 +7090,13 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>402</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>99</v>
@@ -6589,13 +7110,13 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>403</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>102</v>
@@ -6609,19 +7130,19 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>403</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D84" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F84" s="25"/>
       <c r="G84" s="25"/>
@@ -6629,13 +7150,13 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>403</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D85" s="26" t="s">
         <v>34</v>
@@ -6658,12 +7179,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353D209F-F23A-4BBD-9C0E-30D3275A1C3F}">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
-      <selection activeCell="H99" sqref="H99"/>
+    <sheetView topLeftCell="B76" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6679,7 +7200,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="29.25" customHeight="1">
       <c r="A1" s="44" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -6737,7 +7258,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>32</v>
@@ -6759,7 +7280,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>36</v>
@@ -6781,7 +7302,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>39</v>
@@ -6803,7 +7324,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>42</v>
@@ -6823,7 +7344,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>46</v>
@@ -6845,7 +7366,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>47</v>
@@ -6865,7 +7386,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>50</v>
@@ -6887,7 +7408,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>51</v>
@@ -6907,7 +7428,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>54</v>
@@ -6929,7 +7450,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>55</v>
@@ -6949,7 +7470,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>58</v>
@@ -6971,7 +7492,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>61</v>
@@ -6993,7 +7514,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>67</v>
@@ -7008,14 +7529,14 @@
         <v>63</v>
       </c>
       <c r="F17" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>72</v>
@@ -7037,7 +7558,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>76</v>
@@ -7057,7 +7578,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>79</v>
@@ -7077,7 +7598,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>83</v>
@@ -7097,7 +7618,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>89</v>
@@ -7117,7 +7638,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>91</v>
@@ -7139,7 +7660,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>93</v>
@@ -7159,7 +7680,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>95</v>
@@ -7174,14 +7695,14 @@
         <v>70</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>96</v>
@@ -7201,7 +7722,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>97</v>
@@ -7216,14 +7737,14 @@
         <v>70</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>100</v>
@@ -7245,7 +7766,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>103</v>
@@ -7265,7 +7786,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>103</v>
@@ -7285,7 +7806,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>104</v>
@@ -7305,7 +7826,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>1</v>
@@ -7325,7 +7846,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>108</v>
@@ -7347,7 +7868,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>112</v>
@@ -7367,7 +7888,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>116</v>
@@ -7382,14 +7903,14 @@
         <v>70</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>119</v>
@@ -7404,14 +7925,14 @@
         <v>70</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>122</v>
@@ -7431,7 +7952,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>123</v>
@@ -7453,7 +7974,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>156</v>
@@ -7473,7 +7994,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>158</v>
@@ -7493,7 +8014,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>160</v>
@@ -7513,7 +8034,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>171</v>
@@ -7533,7 +8054,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>159</v>
@@ -7553,7 +8074,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>172</v>
@@ -7573,7 +8094,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>338</v>
@@ -7593,7 +8114,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>339</v>
@@ -7613,16 +8134,16 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>340</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>45</v>
@@ -7633,7 +8154,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>341</v>
@@ -7648,14 +8169,14 @@
         <v>70</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>342</v>
@@ -7675,7 +8196,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>343</v>
@@ -7695,7 +8216,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>344</v>
@@ -7717,7 +8238,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>340</v>
@@ -7737,7 +8258,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>341</v>
@@ -7759,7 +8280,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>342</v>
@@ -7779,7 +8300,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>343</v>
@@ -7799,7 +8320,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>344</v>
@@ -7814,14 +8335,14 @@
         <v>70</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G56" s="25"/>
       <c r="H56" s="25"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>345</v>
@@ -7843,7 +8364,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>346</v>
@@ -7858,14 +8379,14 @@
         <v>70</v>
       </c>
       <c r="F58" s="13">
-        <v>45743</v>
+        <v>45717</v>
       </c>
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>383</v>
@@ -7885,7 +8406,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B60" s="36" t="s">
         <v>383</v>
@@ -7907,7 +8428,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B61" s="36" t="s">
         <v>384</v>
@@ -7927,7 +8448,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B62" s="36" t="s">
         <v>384</v>
@@ -7949,7 +8470,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B63" s="36" t="s">
         <v>384</v>
@@ -7969,7 +8490,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B64" s="36" t="s">
         <v>384</v>
@@ -7989,7 +8510,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>385</v>
@@ -8004,14 +8525,14 @@
         <v>149</v>
       </c>
       <c r="F65" s="29" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>389</v>
@@ -8026,14 +8547,14 @@
         <v>394</v>
       </c>
       <c r="F66" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G66" s="25"/>
       <c r="H66" s="25"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>390</v>
@@ -8055,7 +8576,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>395</v>
@@ -8075,7 +8596,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>396</v>
@@ -8097,7 +8618,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>397</v>
@@ -8117,7 +8638,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>398</v>
@@ -8139,7 +8660,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>399</v>
@@ -8159,7 +8680,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>400</v>
@@ -8179,7 +8700,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>400</v>
@@ -8191,7 +8712,7 @@
         <v>34</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="25"/>
@@ -8199,11 +8720,11 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>34</v>
@@ -8212,22 +8733,22 @@
         <v>474</v>
       </c>
       <c r="F75" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="H75" s="25"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>34</v>
@@ -8241,7 +8762,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>400</v>
@@ -8261,13 +8782,13 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>57</v>
@@ -8281,7 +8802,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>400</v>
@@ -8303,7 +8824,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>400</v>
@@ -8318,20 +8839,20 @@
         <v>59</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>34</v>
@@ -8347,7 +8868,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>400</v>
@@ -8362,14 +8883,14 @@
         <v>63</v>
       </c>
       <c r="F82" s="9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>400</v>
@@ -8391,16 +8912,16 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E84" s="25" t="s">
         <v>45</v>
@@ -8411,7 +8932,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>400</v>
@@ -8431,13 +8952,13 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>34</v>
@@ -8453,13 +8974,13 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>78</v>
@@ -8473,13 +8994,13 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>34</v>
@@ -8495,13 +9016,13 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>78</v>
@@ -8515,13 +9036,13 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>34</v>
@@ -8537,61 +9058,61 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D91" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F91" s="25" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G91" s="25" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H91" s="25"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D92" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F92" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="H92" s="25"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>78</v>
@@ -8605,7 +9126,7 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>400</v>
@@ -8627,13 +9148,13 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>34</v>
@@ -8647,7 +9168,7 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>400</v>
@@ -8667,13 +9188,13 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>57</v>
@@ -8687,7 +9208,7 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>400</v>
@@ -8709,7 +9230,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>400</v>
@@ -8724,20 +9245,20 @@
         <v>59</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G99" s="25"/>
       <c r="H99" s="25"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>34</v>
@@ -8753,29 +9274,29 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D101" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E101" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F101" s="25" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G101" s="25"/>
       <c r="H101" s="25"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>400</v>
@@ -8797,16 +9318,16 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C103" s="27" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E103" s="25" t="s">
         <v>45</v>
@@ -8817,7 +9338,7 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>400</v>
@@ -8837,13 +9358,13 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>34</v>
@@ -8859,13 +9380,13 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>78</v>
@@ -8879,13 +9400,13 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>34</v>
@@ -8901,13 +9422,13 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>78</v>
@@ -8921,13 +9442,13 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>34</v>
@@ -8943,37 +9464,37 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D110" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E110" s="26" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F110" s="25" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G110" s="37" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H110" s="25"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D111" s="25" t="s">
         <v>34</v>
@@ -8982,22 +9503,22 @@
         <v>474</v>
       </c>
       <c r="F111" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="H111" s="25"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>400</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>78</v>
@@ -9011,7 +9532,7 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>400</v>
@@ -9033,7 +9554,7 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>400</v>
@@ -9062,7 +9583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -9250,7 +9771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:B3"/>
   <sheetViews>
@@ -9289,10 +9810,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:F39"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9640,7 +10161,7 @@
         <v>63</v>
       </c>
       <c r="F17" s="9">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="1"/>
@@ -10148,16 +10669,16 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>105</v>
+        <v>531</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -10168,144 +10689,20 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>111</v>
+        <v>34</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F45" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F48" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10322,8 +10719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10670,7 +11067,7 @@
         <v>63</v>
       </c>
       <c r="F17" s="9">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -10725,13 +11122,13 @@
         <v>61</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
@@ -11126,7 +11523,7 @@
         <v>70</v>
       </c>
       <c r="F39" s="13">
-        <v>45743</v>
+        <v>45719</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="9"/>
@@ -11727,7 +12124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -12840,8 +13237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13883,7 +14280,7 @@
         <v>70</v>
       </c>
       <c r="F50" s="13">
-        <v>45743</v>
+        <v>45717</v>
       </c>
       <c r="G50" s="13"/>
       <c r="H50" s="9"/>
@@ -14645,7 +15042,7 @@
   </sheetPr>
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -16377,7 +16774,7 @@
   </sheetPr>
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
@@ -18458,8 +18855,8 @@
   </sheetPr>
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19551,7 +19948,7 @@
         <v>70</v>
       </c>
       <c r="F53" s="13">
-        <v>45743</v>
+        <v>45719</v>
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
@@ -20053,8 +20450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CE6C41-C6E4-4D12-92D1-A13E0879FD5B}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21144,7 +21541,7 @@
         <v>70</v>
       </c>
       <c r="F53" s="13">
-        <v>45743</v>
+        <v>45719</v>
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEC00EA-BAE8-433C-ACF9-7C5D94D79DCD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782EAEEF-98DC-4E22-ACC5-AB41B785FFD5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DriverSheet" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4743" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4773" uniqueCount="531">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -1639,9 +1639,6 @@
   </si>
   <si>
     <t>AutoProp1</t>
-  </si>
-  <si>
-    <t>verifying the engine and download</t>
   </si>
 </sst>
 </file>
@@ -2586,7 +2583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DC9284-1E00-457F-9E32-CE2FA20C3859}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -3033,7 +3030,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3380,7 +3377,7 @@
         <v>63</v>
       </c>
       <c r="F17" s="9">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -4024,8 +4021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDE53E4-1746-48CE-AB4D-617AE971D39B}">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4371,7 +4368,7 @@
         <v>63</v>
       </c>
       <c r="F17" s="9">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -5393,8 +5390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2B88A9-98DC-469F-B6A8-72D4BD0DF47F}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="C70" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5741,7 +5738,7 @@
         <v>63</v>
       </c>
       <c r="F17" s="9">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -7183,8 +7180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353D209F-F23A-4BBD-9C0E-30D3275A1C3F}">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView topLeftCell="B76" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+    <sheetView topLeftCell="B100" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7529,7 +7526,7 @@
         <v>63</v>
       </c>
       <c r="F17" s="9">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -8883,7 +8880,7 @@
         <v>63</v>
       </c>
       <c r="F82" s="9">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
@@ -9810,10 +9807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10669,16 +10666,16 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>531</v>
+        <v>105</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -10689,20 +10686,144 @@
         <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10719,8 +10840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13237,7 +13358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
@@ -18855,8 +18976,8 @@
   </sheetPr>
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19202,7 +19323,7 @@
         <v>63</v>
       </c>
       <c r="F17" s="9">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -20450,7 +20571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CE6C41-C6E4-4D12-92D1-A13E0879FD5B}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9639B4F-CFDA-4E15-9136-D215B4F1D053}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE855E4-E569-4264-8B93-31716486F88B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DriverSheet" sheetId="2" r:id="rId1"/>
@@ -11585,7 +11585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB81825B-AC84-43BA-896B-AD045DB7862F}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -12424,7 +12424,7 @@
       <c r="D41" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="26" t="s">
         <v>541</v>
       </c>
       <c r="F41" s="25" t="s">
@@ -12673,7 +12673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D77694-076F-429F-BF53-870C5B748F6D}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -8,29 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE855E4-E569-4264-8B93-31716486F88B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995C1696-FA64-4A77-8AED-E7083F9D54F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="15" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" tabRatio="500" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DriverSheet" sheetId="2" r:id="rId1"/>
     <sheet name="EngineGeneration" sheetId="19" r:id="rId2"/>
     <sheet name="VerifyCSVForExistingVersion" sheetId="3" r:id="rId3"/>
     <sheet name="VerifyCSVForNewVersion" sheetId="4" r:id="rId4"/>
-    <sheet name="VerifyDeleteOffer" sheetId="5" r:id="rId5"/>
-    <sheet name="VerifyEventAPI" sheetId="6" r:id="rId6"/>
-    <sheet name="VerifyRealtimeSpineAPI" sheetId="7" r:id="rId7"/>
-    <sheet name="RealtimeSpineWithNewProperty" sheetId="10" r:id="rId8"/>
-    <sheet name="EmailTempWithNewAttribute" sheetId="11" r:id="rId9"/>
-    <sheet name="MicrositeTempWithExistingAttrib" sheetId="12" r:id="rId10"/>
-    <sheet name="OBCCTempWithExistingAttrib" sheetId="17" r:id="rId11"/>
-    <sheet name="VerifyDBForNewAgreementModel" sheetId="13" r:id="rId12"/>
-    <sheet name="VerifyAgreementClassFornewProp" sheetId="14" r:id="rId13"/>
-    <sheet name="VerifyDiscardVersioIsSuccessful" sheetId="15" r:id="rId14"/>
-    <sheet name="EnsureRollbackIsSuccessful" sheetId="16" r:id="rId15"/>
-    <sheet name="AdpativeModelForUnsubscribe" sheetId="18" r:id="rId16"/>
-    <sheet name="BatchDecisionOutputValidations" sheetId="8" r:id="rId17"/>
-    <sheet name="CheckLists" sheetId="9" r:id="rId18"/>
+    <sheet name="VerifyIHDeleted" sheetId="20" r:id="rId5"/>
+    <sheet name="VerifyDeleteOffer" sheetId="5" r:id="rId6"/>
+    <sheet name="VerifyEventAPI" sheetId="6" r:id="rId7"/>
+    <sheet name="VerifyRealtimeSpineAPI" sheetId="7" r:id="rId8"/>
+    <sheet name="RealtimeSpineWithNewProperty" sheetId="10" r:id="rId9"/>
+    <sheet name="EmailTempWithNewAttribute" sheetId="11" r:id="rId10"/>
+    <sheet name="MicrositeTempWithExistingAttrib" sheetId="12" r:id="rId11"/>
+    <sheet name="OBCCTempWithExistingAttrib" sheetId="17" r:id="rId12"/>
+    <sheet name="VerifyDBForNewAgreementModel" sheetId="13" r:id="rId13"/>
+    <sheet name="VerifyAgreementClassFornewProp" sheetId="14" r:id="rId14"/>
+    <sheet name="VerifyDiscardVersioIsSuccessful" sheetId="15" r:id="rId15"/>
+    <sheet name="EnsureRollbackIsSuccessful" sheetId="16" r:id="rId16"/>
+    <sheet name="AdpativeModelForUnsubscribe" sheetId="18" r:id="rId17"/>
+    <sheet name="BatchDecisionOutputValidations" sheetId="8" r:id="rId18"/>
+    <sheet name="CheckLists" sheetId="9" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5277" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5444" uniqueCount="556">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -1687,7 +1688,37 @@
     <t>EngineGeneration</t>
   </si>
   <si>
-    <t>engine run multiple times</t>
+    <t>AdpativeModelForUnsubscribe</t>
+  </si>
+  <si>
+    <t>radPreviousrun</t>
+  </si>
+  <si>
+    <t>TS16_Regr_01</t>
+  </si>
+  <si>
+    <t>VerifyIHDeleted</t>
+  </si>
+  <si>
+    <t>Verifying the adaptive model for -ve response</t>
+  </si>
+  <si>
+    <t>Engine run multiple times</t>
+  </si>
+  <si>
+    <t>Clearing by Áll, verify IH deleted</t>
+  </si>
+  <si>
+    <t>lnkInteractionHistory</t>
+  </si>
+  <si>
+    <t>verifyIHRecordsAreAvailable</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>radioBtnAllForIH</t>
   </si>
 </sst>
 </file>
@@ -2378,10 +2409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMK18"/>
+  <dimension ref="A1:AMK20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2639,12 +2670,42 @@
         <v>544</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2657,6 +2718,1620 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162B974F-EC20-4DA5-9D9F-A5ACD05AB2C7}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:H77"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="42" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5000</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>488</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="9">
+        <v>7000</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="F24" s="25">
+        <v>2</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="31"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="F34" s="25">
+        <v>3</v>
+      </c>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" s="9"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="9"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F53" s="13">
+        <v>43525</v>
+      </c>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F54" s="13">
+        <v>45719</v>
+      </c>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" s="9"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="36" t="s">
+        <v>435</v>
+      </c>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="B57" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="36"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="36" t="s">
+        <v>438</v>
+      </c>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F59" s="36"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" s="36"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F61" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65" s="9">
+        <v>5000</v>
+      </c>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" s="9"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="9">
+        <v>10000</v>
+      </c>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" s="9"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69" s="9"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F72" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="33">
+        <v>30000</v>
+      </c>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CE6C41-C6E4-4D12-92D1-A13E0879FD5B}">
   <dimension ref="A1:H78"/>
   <sheetViews>
@@ -4287,7 +5962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DC9284-1E00-457F-9E32-CE2FA20C3859}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -4736,12 +6411,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92316FED-85B2-43F2-9827-12AFBA752185}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46:E51"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5107,9 +6782,7 @@
       <c r="E18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="9">
-        <v>93</v>
-      </c>
+      <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
@@ -5682,7 +7355,7 @@
         <v>279</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>278</v>
+        <v>546</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>254</v>
@@ -5852,12 +7525,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDE53E4-1746-48CE-AB4D-617AE971D39B}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6222,9 +7895,7 @@
       <c r="E18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="9">
-        <v>93</v>
-      </c>
+      <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
@@ -7241,12 +8912,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2B88A9-98DC-469F-B6A8-72D4BD0DF47F}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="C61" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7612,9 +9283,7 @@
       <c r="E18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="9">
-        <v>93</v>
-      </c>
+      <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
@@ -9157,12 +10826,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353D209F-F23A-4BBD-9C0E-30D3275A1C3F}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9526,9 +11195,7 @@
       <c r="E18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="9">
-        <v>93</v>
-      </c>
+      <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
@@ -10880,9 +12547,7 @@
       <c r="E83" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F83" s="9">
-        <v>60</v>
-      </c>
+      <c r="F83" s="9"/>
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
     </row>
@@ -11581,12 +13246,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB81825B-AC84-43BA-896B-AD045DB7862F}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12073,7 +13738,9 @@
       <c r="E24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="25"/>
+      <c r="F24" s="25">
+        <v>5000</v>
+      </c>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
     </row>
@@ -12133,7 +13800,9 @@
       <c r="E27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="25"/>
+      <c r="F27" s="25">
+        <v>5000</v>
+      </c>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
     </row>
@@ -12153,7 +13822,9 @@
       <c r="E28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="25"/>
+      <c r="F28" s="25" t="s">
+        <v>204</v>
+      </c>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
     </row>
@@ -12364,7 +14035,7 @@
         <v>280</v>
       </c>
       <c r="F38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
@@ -12444,7 +14115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -12632,7 +14303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:B3"/>
   <sheetViews>
@@ -12673,13 +14344,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D77694-076F-429F-BF53-870C5B748F6D}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
@@ -13038,9 +14709,7 @@
       <c r="E18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="9">
-        <v>16</v>
-      </c>
+      <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="1"/>
     </row>
@@ -13555,8 +15224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49:F50"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13923,9 +15592,7 @@
       <c r="E18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="9">
-        <v>93</v>
-      </c>
+      <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="1"/>
     </row>
@@ -14604,8 +16271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14971,9 +16638,7 @@
       <c r="E18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="9">
-        <v>93</v>
-      </c>
+      <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
@@ -16004,6 +17669,681 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440AE6C1-8303-4801-938E-D5D89C6CD179}">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="35"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
@@ -17134,12 +19474,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17608,9 +19948,7 @@
       <c r="E23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
@@ -18936,14 +21274,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -20668,7 +23006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F1A5F4-9176-42F8-9D13-5A98D8683A92}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -22747,1620 +25085,4 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162B974F-EC20-4DA5-9D9F-A5ACD05AB2C7}">
-  <sheetPr>
-    <tabColor theme="5"/>
-  </sheetPr>
-  <dimension ref="A1:H77"/>
-  <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70:E70"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="42" t="s">
-        <v>405</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="9">
-        <v>5000</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="9">
-        <v>2000</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="9">
-        <v>3000</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="9">
-        <v>3000</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="9">
-        <v>3000</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>488</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="9">
-        <v>93</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="9">
-        <v>7000</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>361</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="F24" s="25">
-        <v>2</v>
-      </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>364</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>363</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>366</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>368</v>
-      </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>371</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>375</v>
-      </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>373</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>377</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>378</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>380</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="F34" s="25">
-        <v>3</v>
-      </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F49" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F53" s="13">
-        <v>43525</v>
-      </c>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F54" s="13">
-        <v>45719</v>
-      </c>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="B56" s="36" t="s">
-        <v>383</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>433</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F56" s="36" t="s">
-        <v>435</v>
-      </c>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F57" s="36"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="B58" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>437</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="36" t="s">
-        <v>438</v>
-      </c>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="B59" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F59" s="36"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="B60" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F60" s="36"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F61" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="F63" s="27" t="s">
-        <v>376</v>
-      </c>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F65" s="9">
-        <v>5000</v>
-      </c>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F67" s="9">
-        <v>10000</v>
-      </c>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F68" s="9"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E70" s="20" t="s">
-        <v>501</v>
-      </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D71" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="E71" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D72" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F72" s="1">
-        <v>7000</v>
-      </c>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F75" s="33">
-        <v>30000</v>
-      </c>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-  </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995C1696-FA64-4A77-8AED-E7083F9D54F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3935C56B-5C95-4850-B295-9F1E67CC98AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" tabRatio="500" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DriverSheet" sheetId="2" r:id="rId1"/>
-    <sheet name="EngineGeneration" sheetId="19" r:id="rId2"/>
-    <sheet name="VerifyCSVForExistingVersion" sheetId="3" r:id="rId3"/>
-    <sheet name="VerifyCSVForNewVersion" sheetId="4" r:id="rId4"/>
-    <sheet name="VerifyIHDeleted" sheetId="20" r:id="rId5"/>
-    <sheet name="VerifyDeleteOffer" sheetId="5" r:id="rId6"/>
+    <sheet name="VerifyCSVForExistingVersion" sheetId="3" r:id="rId2"/>
+    <sheet name="VerifyCSVForNewVersion" sheetId="4" r:id="rId3"/>
+    <sheet name="VerifyIHDeleted" sheetId="20" r:id="rId4"/>
+    <sheet name="VerifyDeleteOffer" sheetId="5" r:id="rId5"/>
+    <sheet name="RenameOffer" sheetId="21" r:id="rId6"/>
     <sheet name="VerifyEventAPI" sheetId="6" r:id="rId7"/>
     <sheet name="VerifyRealtimeSpineAPI" sheetId="7" r:id="rId8"/>
     <sheet name="RealtimeSpineWithNewProperty" sheetId="10" r:id="rId9"/>
@@ -33,7 +33,7 @@
     <sheet name="BatchDecisionOutputValidations" sheetId="8" r:id="rId18"/>
     <sheet name="CheckLists" sheetId="9" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5444" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5505" uniqueCount="564">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -1682,12 +1682,6 @@
     <t>Negative</t>
   </si>
   <si>
-    <t>generate engine</t>
-  </si>
-  <si>
-    <t>EngineGeneration</t>
-  </si>
-  <si>
     <t>AdpativeModelForUnsubscribe</t>
   </si>
   <si>
@@ -1703,9 +1697,6 @@
     <t>Verifying the adaptive model for -ve response</t>
   </si>
   <si>
-    <t>Engine run multiple times</t>
-  </si>
-  <si>
     <t>Clearing by Áll, verify IH deleted</t>
   </si>
   <si>
@@ -1719,6 +1710,39 @@
   </si>
   <si>
     <t>radioBtnAllForIH</t>
+  </si>
+  <si>
+    <t>Scenario to verify the rename offer is successful or not</t>
+  </si>
+  <si>
+    <t>TS1_Regr_03</t>
+  </si>
+  <si>
+    <t>New offer to rename</t>
+  </si>
+  <si>
+    <t>NewOfferToRename</t>
+  </si>
+  <si>
+    <t>enableOverride</t>
+  </si>
+  <si>
+    <t>RenameOffer</t>
+  </si>
+  <si>
+    <t>Verify renaming of offer is successful</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>increaseWeightIfRequired</t>
+  </si>
+  <si>
+    <t>select override for the offer</t>
+  </si>
+  <si>
+    <t>drag to top if below in the list</t>
   </si>
 </sst>
 </file>
@@ -2412,7 +2436,7 @@
   <dimension ref="A1:AMK20"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2493,7 +2517,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -2508,7 +2532,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -2523,7 +2547,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -2538,7 +2562,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -2553,7 +2577,7 @@
         <v>354</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -2568,7 +2592,7 @@
         <v>365</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -2583,7 +2607,7 @@
         <v>414</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -2598,7 +2622,7 @@
         <v>451</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -2613,7 +2637,7 @@
         <v>464</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -2628,7 +2652,7 @@
         <v>482</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -2643,7 +2667,7 @@
         <v>509</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -2658,49 +2682,49 @@
         <v>524</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="25" t="s">
-        <v>0</v>
+      <c r="A18" s="1" t="s">
+        <v>532</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
+        <v>560</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -7355,7 +7379,7 @@
         <v>279</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>254</v>
@@ -14341,891 +14365,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D77694-076F-429F-BF53-870C5B748F6D}">
-  <dimension ref="A1:H42"/>
-  <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="9">
-        <v>5000</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="9">
-        <v>2000</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="9">
-        <v>3000</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="9">
-        <v>3000</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="9">
-        <v>3000</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>488</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>501</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F41" s="1">
-        <v>30000</v>
-      </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-  </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16267,12 +15411,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C53" sqref="C53:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17668,11 +16812,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440AE6C1-8303-4801-938E-D5D89C6CD179}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -17748,7 +16892,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
@@ -17768,7 +16912,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>36</v>
@@ -17790,7 +16934,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>39</v>
@@ -17812,7 +16956,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>42</v>
@@ -17832,7 +16976,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>46</v>
@@ -17854,7 +16998,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>47</v>
@@ -17874,7 +17018,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>50</v>
@@ -17896,7 +17040,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>51</v>
@@ -17916,7 +17060,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>54</v>
@@ -17938,7 +17082,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>55</v>
@@ -17958,7 +17102,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>58</v>
@@ -17980,7 +17124,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>61</v>
@@ -18002,13 +17146,13 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>146</v>
@@ -18022,13 +17166,13 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>34</v>
@@ -18044,16 +17188,16 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>45</v>
@@ -18064,19 +17208,19 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F20" s="37" t="s">
         <v>522</v>
@@ -18086,13 +17230,13 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>34</v>
@@ -18106,13 +17250,13 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>178</v>
@@ -18126,13 +17270,13 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>34</v>
@@ -18148,16 +17292,16 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>254</v>
@@ -18168,13 +17312,13 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>181</v>
@@ -18188,13 +17332,13 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>34</v>
@@ -18208,13 +17352,13 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>534</v>
@@ -18228,13 +17372,13 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>34</v>
@@ -18250,13 +17394,13 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>34</v>
@@ -18272,13 +17416,13 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>146</v>
@@ -18292,16 +17436,16 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>45</v>
@@ -18312,19 +17456,19 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F32" s="37" t="s">
         <v>521</v>
@@ -18343,7 +17487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
@@ -19471,6 +18615,1121 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFAFDA0-4A55-4936-A3DC-B19DEB90A342}">
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="42" t="s">
+        <v>553</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5000</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2000</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>488</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="9">
+        <v>7000</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="13">
+        <v>43525</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="13">
+        <v>45719</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>435</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" s="36"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>438</v>
+      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" s="36"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="36"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" s="9"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="9">
+        <v>10000</v>
+      </c>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3935C56B-5C95-4850-B295-9F1E67CC98AE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8FDBAD-0E68-4529-8658-E682DCC28CA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DriverSheet" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="BatchDecisionOutputValidations" sheetId="8" r:id="rId18"/>
     <sheet name="CheckLists" sheetId="9" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5505" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5807" uniqueCount="593">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -1733,16 +1733,103 @@
     <t>Verify renaming of offer is successful</t>
   </si>
   <si>
+    <t>increaseWeightIfRequired</t>
+  </si>
+  <si>
+    <t>select override for the offer</t>
+  </si>
+  <si>
+    <t>drag to top if below in the list</t>
+  </si>
+  <si>
+    <t>Define brain</t>
+  </si>
+  <si>
+    <t>switch to parent frame</t>
+  </si>
+  <si>
+    <t>click toggle navigation</t>
+  </si>
+  <si>
+    <t>Renaming offer</t>
+  </si>
+  <si>
+    <t>radBtnUpdateOffer</t>
+  </si>
+  <si>
+    <t>TS_65</t>
+  </si>
+  <si>
+    <t>TS_66</t>
+  </si>
+  <si>
+    <t>TS_67</t>
+  </si>
+  <si>
+    <t>TS_68</t>
+  </si>
+  <si>
+    <t>TS_69</t>
+  </si>
+  <si>
+    <t>TS_70</t>
+  </si>
+  <si>
+    <t>TS_71</t>
+  </si>
+  <si>
+    <t>TS_72</t>
+  </si>
+  <si>
+    <t>TS_73</t>
+  </si>
+  <si>
+    <t>TS_74</t>
+  </si>
+  <si>
+    <t>TS_75</t>
+  </si>
+  <si>
+    <t>TS_76</t>
+  </si>
+  <si>
+    <t>TS_77</t>
+  </si>
+  <si>
+    <t>TS_78</t>
+  </si>
+  <si>
+    <t>TS_79</t>
+  </si>
+  <si>
+    <t>TS_80</t>
+  </si>
+  <si>
+    <t>TS_81</t>
+  </si>
+  <si>
+    <t>TS_82</t>
+  </si>
+  <si>
+    <t>TS_83</t>
+  </si>
+  <si>
+    <t>TS_84</t>
+  </si>
+  <si>
+    <t>RenamedOfferQA</t>
+  </si>
+  <si>
+    <t>ddnSubChannel</t>
+  </si>
+  <si>
+    <t>select subchannel</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>increaseWeightIfRequired</t>
-  </si>
-  <si>
-    <t>select override for the offer</t>
-  </si>
-  <si>
-    <t>drag to top if below in the list</t>
+    <t>DirectMailUK</t>
   </si>
 </sst>
 </file>
@@ -2435,8 +2522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2517,7 +2604,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>560</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -2531,8 +2618,8 @@
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>560</v>
+      <c r="D7" s="20" t="s">
+        <v>591</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -2547,7 +2634,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>560</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -2561,8 +2648,8 @@
       <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>560</v>
+      <c r="D9" s="20" t="s">
+        <v>591</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -2576,8 +2663,8 @@
       <c r="C10" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>560</v>
+      <c r="D10" s="20" t="s">
+        <v>591</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -2592,7 +2679,7 @@
         <v>365</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>560</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -2607,7 +2694,7 @@
         <v>414</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>560</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -2622,7 +2709,7 @@
         <v>451</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>560</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -2637,7 +2724,7 @@
         <v>464</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>560</v>
+        <v>13</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -2652,7 +2739,7 @@
         <v>482</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>560</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -2667,7 +2754,7 @@
         <v>509</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>560</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1"/>
     </row>
@@ -2682,7 +2769,7 @@
         <v>524</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>560</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -2697,7 +2784,7 @@
         <v>547</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>560</v>
+        <v>13</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -2712,7 +2799,7 @@
         <v>548</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>560</v>
+        <v>13</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -2746,10 +2833,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4203,18 +4290,20 @@
         <v>355</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D71" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="E71" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="F71" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F71" s="9">
+        <v>3000</v>
+      </c>
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
     </row>
@@ -4223,20 +4312,18 @@
         <v>355</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>279</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F72" s="1">
-        <v>7000</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="F72" s="1"/>
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
     </row>
@@ -4245,18 +4332,20 @@
         <v>355</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>106</v>
+        <v>279</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F73" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F73" s="1">
+        <v>7000</v>
+      </c>
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
     </row>
@@ -4268,15 +4357,15 @@
         <v>404</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F74" s="25"/>
+      <c r="F74" s="1"/>
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
     </row>
@@ -4288,17 +4377,15 @@
         <v>404</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F75" s="33">
-        <v>30000</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F75" s="25"/>
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
     </row>
@@ -4310,16 +4397,16 @@
         <v>404</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>204</v>
+        <v>41</v>
+      </c>
+      <c r="F76" s="33">
+        <v>30000</v>
       </c>
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
@@ -4332,17 +4419,39 @@
         <v>404</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>406</v>
+        <v>203</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F77" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6440,7 +6549,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D44" sqref="D44:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7553,7 +7662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDE53E4-1746-48CE-AB4D-617AE971D39B}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -8938,10 +9047,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2B88A9-98DC-469F-B6A8-72D4BD0DF47F}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="C61" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10108,19 +10217,21 @@
         <v>481</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="F57" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G57" s="1"/>
       <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8">
@@ -10128,21 +10239,21 @@
         <v>481</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>34</v>
+        <v>589</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F58" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G58" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="G58" s="1"/>
       <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8">
@@ -10150,16 +10261,16 @@
         <v>481</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>486</v>
+        <v>45</v>
       </c>
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
@@ -10170,60 +10281,60 @@
         <v>481</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>483</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>484</v>
-      </c>
-      <c r="E60" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
+        <v>160</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
+        <v>486</v>
+      </c>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F62" s="1">
-        <v>5000</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="F62" s="25"/>
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
     </row>
@@ -10232,18 +10343,18 @@
         <v>481</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>339</v>
+        <v>172</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>487</v>
+        <v>161</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F63" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F63" s="25"/>
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
     </row>
@@ -10252,18 +10363,20 @@
         <v>481</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C64" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="E64" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F64" s="25"/>
+        <v>338</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64" s="1">
+        <v>5000</v>
+      </c>
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
     </row>
@@ -10272,18 +10385,18 @@
         <v>481</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F65" s="25"/>
+        <v>339</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F65" s="1"/>
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
     </row>
@@ -10292,20 +10405,18 @@
         <v>481</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>163</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" s="25"/>
       <c r="G66" s="25"/>
       <c r="H66" s="25"/>
     </row>
@@ -10316,18 +10427,16 @@
       <c r="B67" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>34</v>
+      <c r="C67" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>186</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F67" s="25"/>
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
     </row>
@@ -10336,18 +10445,20 @@
         <v>481</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>489</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E68" s="26" t="s">
-        <v>488</v>
-      </c>
-      <c r="F68" s="25"/>
+        <v>341</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
     </row>
@@ -10356,19 +10467,19 @@
         <v>481</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>490</v>
+        <v>341</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F69" s="1">
-        <v>5000</v>
+      <c r="E69" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>186</v>
       </c>
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
@@ -10378,18 +10489,18 @@
         <v>481</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>491</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F70" s="1"/>
+        <v>343</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="F70" s="25"/>
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
     </row>
@@ -10398,19 +10509,19 @@
         <v>481</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>68</v>
+        <v>345</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>490</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>492</v>
+        <v>41</v>
+      </c>
+      <c r="F71" s="1">
+        <v>5000</v>
       </c>
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
@@ -10420,20 +10531,18 @@
         <v>481</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>73</v>
+        <v>346</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>491</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>492</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F72" s="1"/>
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
     </row>
@@ -10442,18 +10551,20 @@
         <v>481</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F73" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>492</v>
+      </c>
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
     </row>
@@ -10462,19 +10573,19 @@
         <v>481</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F74" s="1">
-        <v>7000</v>
+        <v>70</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
@@ -10484,7 +10595,7 @@
         <v>481</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>77</v>
@@ -10504,12 +10615,12 @@
         <v>481</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D76" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -10526,12 +10637,12 @@
         <v>481</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D77" s="38" t="s">
+      <c r="D77" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -10546,23 +10657,21 @@
         <v>481</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E78" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="F78" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="G78" s="37" t="s">
-        <v>521</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D78" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F78" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G78" s="25"/>
       <c r="H78" s="25"/>
     </row>
     <row r="79" spans="1:8">
@@ -10570,23 +10679,19 @@
         <v>481</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D79" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E79" s="26" t="s">
-        <v>495</v>
-      </c>
-      <c r="F79" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="G79" s="26" t="s">
-        <v>494</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D79" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="25"/>
       <c r="H79" s="25"/>
     </row>
     <row r="80" spans="1:8">
@@ -10594,21 +10699,23 @@
         <v>481</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="D80" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F80" s="25">
-        <v>7000</v>
-      </c>
-      <c r="G80" s="25"/>
+      <c r="D80" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="G80" s="37" t="s">
+        <v>521</v>
+      </c>
       <c r="H80" s="25"/>
     </row>
     <row r="81" spans="1:8">
@@ -10616,19 +10723,23 @@
         <v>481</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="D81" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
+      <c r="D81" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="F81" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="G81" s="26" t="s">
+        <v>494</v>
+      </c>
       <c r="H81" s="25"/>
     </row>
     <row r="82" spans="1:8">
@@ -10636,7 +10747,7 @@
         <v>481</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>497</v>
@@ -10658,13 +10769,13 @@
         <v>481</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>99</v>
+      <c r="D83" s="38" t="s">
+        <v>78</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>45</v>
@@ -10678,18 +10789,20 @@
         <v>481</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E84" s="20" t="s">
-        <v>501</v>
-      </c>
-      <c r="F84" s="1"/>
+        <v>497</v>
+      </c>
+      <c r="D84" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" s="25">
+        <v>7000</v>
+      </c>
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
     </row>
@@ -10698,18 +10811,18 @@
         <v>481</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D85" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="E85" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="F85" s="1"/>
+        <v>498</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F85" s="25"/>
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
     </row>
@@ -10718,20 +10831,18 @@
         <v>481</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D86" s="20" t="s">
-        <v>34</v>
+        <v>498</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F86" s="1">
-        <v>7000</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F86" s="25"/>
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
     </row>
@@ -10743,13 +10854,13 @@
         <v>403</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>107</v>
+        <v>40</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>501</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="25"/>
@@ -10763,15 +10874,15 @@
         <v>403</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F88" s="25"/>
+        <v>279</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E88" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="F88" s="1"/>
       <c r="G88" s="25"/>
       <c r="H88" s="25"/>
     </row>
@@ -10783,16 +10894,16 @@
         <v>403</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D89" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D89" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F89" s="33">
-        <v>30000</v>
+      <c r="F89" s="1">
+        <v>7000</v>
       </c>
       <c r="G89" s="25"/>
       <c r="H89" s="25"/>
@@ -10805,17 +10916,15 @@
         <v>403</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>204</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F90" s="1"/>
       <c r="G90" s="25"/>
       <c r="H90" s="25"/>
     </row>
@@ -10827,17 +10936,81 @@
         <v>403</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>406</v>
+        <v>120</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F91" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="F91" s="25"/>
       <c r="G91" s="25"/>
       <c r="H91" s="25"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F92" s="33">
+        <v>30000</v>
+      </c>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10854,7 +11027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353D209F-F23A-4BBD-9C0E-30D3275A1C3F}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
@@ -13274,8 +13447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB81825B-AC84-43BA-896B-AD045DB7862F}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:F28"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14141,7 +14314,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -14314,6 +14487,40 @@
       </c>
       <c r="E10" s="18" t="s">
         <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -14368,7 +14575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -15413,10 +15620,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53:F56"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16455,19 +16662,21 @@
         <v>14</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G51" s="1"/>
       <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:8">
@@ -16475,21 +16684,21 @@
         <v>14</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>157</v>
+        <v>590</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>34</v>
+        <v>589</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F52" s="9">
-        <v>5000</v>
-      </c>
-      <c r="G52" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="G52" s="1"/>
       <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8">
@@ -16497,13 +16706,13 @@
         <v>14</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>45</v>
@@ -16517,10 +16726,10 @@
         <v>14</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>34</v>
@@ -16529,7 +16738,7 @@
         <v>41</v>
       </c>
       <c r="F54" s="9">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
@@ -16539,13 +16748,13 @@
         <v>14</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>45</v>
@@ -16559,18 +16768,20 @@
         <v>14</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F56" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="F56" s="9">
+        <v>10000</v>
+      </c>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
     </row>
@@ -16579,40 +16790,40 @@
         <v>14</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>501</v>
-      </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
@@ -16622,17 +16833,15 @@
         <v>103</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F59" s="1">
-        <v>7000</v>
-      </c>
+      <c r="E59" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
@@ -16641,16 +16850,16 @@
         <v>14</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>107</v>
+        <v>279</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>254</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -16661,18 +16870,20 @@
         <v>14</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F61" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="1">
+        <v>7000</v>
+      </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
@@ -16681,16 +16892,16 @@
         <v>14</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -16701,20 +16912,18 @@
         <v>14</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F63" s="1">
-        <v>10000</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
@@ -16723,16 +16932,16 @@
         <v>14</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -16743,18 +16952,20 @@
         <v>14</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F65" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F65" s="1">
+        <v>10000</v>
+      </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
@@ -16763,20 +16974,18 @@
         <v>14</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F66" s="1">
-        <v>30000</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
@@ -16785,20 +16994,62 @@
         <v>14</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16816,7 +17067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440AE6C1-8303-4801-938E-D5D89C6CD179}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -17492,7 +17743,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:E44"/>
+      <selection activeCell="D38" sqref="D38:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18620,10 +18871,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFAFDA0-4A55-4936-A3DC-B19DEB90A342}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19686,7 +19937,7 @@
         <v>160</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>34</v>
@@ -19708,19 +19959,1085 @@
         <v>160</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F53" s="9" t="s">
         <v>556</v>
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>565</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" s="9"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="F68" s="9">
+        <v>2</v>
+      </c>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69" s="36" t="s">
+        <v>488</v>
+      </c>
+      <c r="F69" s="9"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" s="25">
+        <v>5000</v>
+      </c>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F73" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="25">
+        <v>3000</v>
+      </c>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F77" s="25">
+        <v>3000</v>
+      </c>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F79" s="1">
+        <v>8000</v>
+      </c>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="25">
+        <v>8000</v>
+      </c>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" s="25">
+        <v>5000</v>
+      </c>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C86" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F86" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C88" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F88" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F89" s="1"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C90" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F90" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C91" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F92" s="1"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C93" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E93" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F94" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E95" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F96" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C97" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C99" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C100" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F100" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G100" s="25"/>
+      <c r="H100" s="25"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F101" s="1"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="25"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F102" s="1"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F103" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C104" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F104" s="1"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -19737,8 +21054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:E18"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21540,8 +22857,8 @@
   </sheetPr>
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23272,8 +24589,8 @@
   </sheetPr>
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8FDBAD-0E68-4529-8658-E682DCC28CA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA17C2A4-664A-4977-BC18-B2F33E4E1F89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DriverSheet" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5807" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5878" uniqueCount="596">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -1830,6 +1830,15 @@
   </si>
   <si>
     <t>DirectMailUK</t>
+  </si>
+  <si>
+    <t>ddnDMSubChannel</t>
+  </si>
+  <si>
+    <t>ddnEmailSubChannel</t>
+  </si>
+  <si>
+    <t>EmailUK</t>
   </si>
 </sst>
 </file>
@@ -2522,7 +2531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -2833,10 +2842,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4102,19 +4111,19 @@
         <v>355</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="F62" s="27" t="s">
-        <v>375</v>
+        <v>385</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62" s="9">
+        <v>3000</v>
       </c>
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
@@ -4124,19 +4133,19 @@
         <v>355</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="F63" s="27" t="s">
-        <v>376</v>
+        <v>385</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>595</v>
       </c>
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
@@ -4146,18 +4155,20 @@
         <v>355</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F64" s="1"/>
+        <v>389</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>375</v>
+      </c>
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
     </row>
@@ -4166,19 +4177,19 @@
         <v>355</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F65" s="9">
-        <v>5000</v>
+        <v>390</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>376</v>
       </c>
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
@@ -4188,18 +4199,18 @@
         <v>355</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F66" s="9"/>
+      <c r="F66" s="1"/>
       <c r="G66" s="25"/>
       <c r="H66" s="25"/>
     </row>
@@ -4208,10 +4219,10 @@
         <v>355</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>34</v>
@@ -4220,7 +4231,7 @@
         <v>41</v>
       </c>
       <c r="F67" s="9">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
@@ -4230,13 +4241,13 @@
         <v>355</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>45</v>
@@ -4250,18 +4261,20 @@
         <v>355</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F69" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="F69" s="9">
+        <v>10000</v>
+      </c>
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
     </row>
@@ -4270,18 +4283,18 @@
         <v>355</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E70" s="20" t="s">
-        <v>501</v>
-      </c>
-      <c r="F70" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F70" s="9"/>
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
     </row>
@@ -4290,20 +4303,18 @@
         <v>355</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F71" s="9">
-        <v>3000</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F71" s="9"/>
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
     </row>
@@ -4312,16 +4323,16 @@
         <v>355</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>278</v>
+        <v>34</v>
       </c>
       <c r="E72" s="20" t="s">
-        <v>254</v>
+        <v>501</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="25"/>
@@ -4332,19 +4343,19 @@
         <v>355</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D73" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F73" s="1">
-        <v>7000</v>
+      <c r="F73" s="9">
+        <v>3000</v>
       </c>
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
@@ -4354,16 +4365,16 @@
         <v>355</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>107</v>
+        <v>279</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>254</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="25"/>
@@ -4374,18 +4385,20 @@
         <v>355</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>121</v>
+        <v>279</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F75" s="25"/>
+        <v>41</v>
+      </c>
+      <c r="F75" s="1">
+        <v>7000</v>
+      </c>
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
     </row>
@@ -4397,17 +4410,15 @@
         <v>404</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F76" s="33">
-        <v>30000</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F76" s="1"/>
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
     </row>
@@ -4419,17 +4430,15 @@
         <v>404</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>203</v>
+        <v>120</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>204</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F77" s="25"/>
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
     </row>
@@ -4441,17 +4450,61 @@
         <v>404</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>406</v>
+        <v>40</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F78" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F78" s="33">
+        <v>30000</v>
+      </c>
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4468,8 +4521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CE6C41-C6E4-4D12-92D1-A13E0879FD5B}">
   <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C71" sqref="C71:F78"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6102,7 +6155,7 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -7662,7 +7715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDE53E4-1746-48CE-AB4D-617AE971D39B}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -9047,10 +9100,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2B88A9-98DC-469F-B6A8-72D4BD0DF47F}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10175,18 +10228,20 @@
         <v>481</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>151</v>
+        <v>455</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F55" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F55" s="1">
+        <v>3000</v>
+      </c>
       <c r="G55" s="1"/>
       <c r="H55" s="9"/>
     </row>
@@ -10195,19 +10250,19 @@
         <v>481</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>154</v>
+        <v>594</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>149</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>155</v>
+        <v>595</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="9"/>
@@ -10217,20 +10272,18 @@
         <v>481</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F57" s="1">
-        <v>3000</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="9"/>
     </row>
@@ -10239,19 +10292,19 @@
         <v>481</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>153</v>
+        <v>455</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>589</v>
+        <v>34</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>592</v>
+        <v>41</v>
+      </c>
+      <c r="F58" s="1">
+        <v>3000</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="9"/>
@@ -10261,19 +10314,21 @@
         <v>481</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G59" s="1"/>
       <c r="H59" s="9"/>
     </row>
     <row r="60" spans="1:8">
@@ -10281,10 +10336,10 @@
         <v>481</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>34</v>
@@ -10293,9 +10348,9 @@
         <v>41</v>
       </c>
       <c r="F60" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G60" s="9"/>
+        <v>3000</v>
+      </c>
+      <c r="G60" s="1"/>
       <c r="H60" s="9"/>
     </row>
     <row r="61" spans="1:8">
@@ -10303,19 +10358,21 @@
         <v>481</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>34</v>
+        <v>589</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="G61" s="1"/>
       <c r="H61" s="9"/>
     </row>
     <row r="62" spans="1:8">
@@ -10323,80 +10380,80 @@
         <v>481</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>483</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>484</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>452</v>
-      </c>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+        <v>160</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
+        <v>41</v>
+      </c>
+      <c r="F63" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>338</v>
+        <v>171</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F64" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
+        <v>486</v>
+      </c>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F65" s="1"/>
+        <v>159</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="F65" s="25"/>
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
     </row>
@@ -10405,15 +10462,15 @@
         <v>481</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="E66" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F66" s="25"/>
@@ -10425,18 +10482,20 @@
         <v>481</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F67" s="25"/>
+        <v>338</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="1">
+        <v>5000</v>
+      </c>
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
     </row>
@@ -10445,20 +10504,18 @@
         <v>481</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>40</v>
+        <v>487</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>163</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="F68" s="1"/>
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
     </row>
@@ -10467,20 +10524,18 @@
         <v>481</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>186</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="E69" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69" s="25"/>
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
     </row>
@@ -10489,16 +10544,16 @@
         <v>481</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>489</v>
-      </c>
-      <c r="D70" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E70" s="26" t="s">
-        <v>488</v>
+        <v>341</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="F70" s="25"/>
       <c r="G70" s="25"/>
@@ -10509,10 +10564,10 @@
         <v>481</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C71" s="25" t="s">
-        <v>490</v>
+        <v>341</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>34</v>
@@ -10520,8 +10575,8 @@
       <c r="E71" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F71" s="1">
-        <v>5000</v>
+      <c r="F71" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
@@ -10531,18 +10586,20 @@
         <v>481</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>491</v>
+        <v>341</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F72" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>186</v>
+      </c>
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
     </row>
@@ -10551,20 +10608,18 @@
         <v>481</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>492</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="F73" s="25"/>
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
     </row>
@@ -10573,19 +10628,19 @@
         <v>481</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>73</v>
+        <v>345</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>490</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>492</v>
+        <v>41</v>
+      </c>
+      <c r="F74" s="1">
+        <v>5000</v>
       </c>
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
@@ -10595,13 +10650,13 @@
         <v>481</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>77</v>
+        <v>346</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>491</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>45</v>
@@ -10615,19 +10670,19 @@
         <v>481</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F76" s="1">
-        <v>7000</v>
+        <v>70</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
@@ -10637,18 +10692,20 @@
         <v>481</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F77" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>492</v>
+      </c>
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
     </row>
@@ -10657,20 +10714,18 @@
         <v>481</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D78" s="38" t="s">
-        <v>34</v>
+      <c r="D78" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F78" s="1">
-        <v>7000</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F78" s="1"/>
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
     </row>
@@ -10679,18 +10734,20 @@
         <v>481</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D79" s="38" t="s">
-        <v>78</v>
+        <v>40</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F79" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F79" s="1">
+        <v>7000</v>
+      </c>
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
     </row>
@@ -10699,23 +10756,19 @@
         <v>481</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="D80" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E80" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="F80" s="25" t="s">
-        <v>479</v>
-      </c>
-      <c r="G80" s="37" t="s">
-        <v>521</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="25"/>
       <c r="H80" s="25"/>
     </row>
     <row r="81" spans="1:8">
@@ -10723,23 +10776,21 @@
         <v>481</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D81" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E81" s="26" t="s">
-        <v>495</v>
-      </c>
-      <c r="F81" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="G81" s="26" t="s">
-        <v>494</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D81" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G81" s="25"/>
       <c r="H81" s="25"/>
     </row>
     <row r="82" spans="1:8">
@@ -10747,20 +10798,18 @@
         <v>481</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>497</v>
+        <v>77</v>
       </c>
       <c r="D82" s="38" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F82" s="25">
-        <v>7000</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F82" s="1"/>
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
     </row>
@@ -10769,19 +10818,23 @@
         <v>481</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D83" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
+        <v>497</v>
+      </c>
+      <c r="D83" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="F83" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="G83" s="37" t="s">
+        <v>521</v>
+      </c>
       <c r="H83" s="25"/>
     </row>
     <row r="84" spans="1:8">
@@ -10789,21 +10842,23 @@
         <v>481</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="D84" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F84" s="25">
-        <v>7000</v>
-      </c>
-      <c r="G84" s="25"/>
+        <v>498</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="F84" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="G84" s="26" t="s">
+        <v>494</v>
+      </c>
       <c r="H84" s="25"/>
     </row>
     <row r="85" spans="1:8">
@@ -10811,18 +10866,20 @@
         <v>481</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>99</v>
+        <v>497</v>
+      </c>
+      <c r="D85" s="38" t="s">
+        <v>34</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F85" s="25"/>
+        <v>41</v>
+      </c>
+      <c r="F85" s="25">
+        <v>7000</v>
+      </c>
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
     </row>
@@ -10831,13 +10888,13 @@
         <v>481</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>102</v>
+      <c r="D86" s="38" t="s">
+        <v>78</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>45</v>
@@ -10851,18 +10908,20 @@
         <v>481</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D87" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E87" s="20" t="s">
-        <v>501</v>
-      </c>
-      <c r="F87" s="1"/>
+        <v>497</v>
+      </c>
+      <c r="D87" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F87" s="25">
+        <v>7000</v>
+      </c>
       <c r="G87" s="25"/>
       <c r="H87" s="25"/>
     </row>
@@ -10871,18 +10930,18 @@
         <v>481</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D88" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="E88" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="F88" s="1"/>
+        <v>498</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F88" s="25"/>
       <c r="G88" s="25"/>
       <c r="H88" s="25"/>
     </row>
@@ -10891,20 +10950,18 @@
         <v>481</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D89" s="20" t="s">
-        <v>34</v>
+        <v>498</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F89" s="1">
-        <v>7000</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F89" s="25"/>
       <c r="G89" s="25"/>
       <c r="H89" s="25"/>
     </row>
@@ -10916,13 +10973,13 @@
         <v>403</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>107</v>
+        <v>40</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90" s="20" t="s">
+        <v>501</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="25"/>
@@ -10936,15 +10993,15 @@
         <v>403</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F91" s="25"/>
+        <v>279</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="F91" s="1"/>
       <c r="G91" s="25"/>
       <c r="H91" s="25"/>
     </row>
@@ -10956,16 +11013,16 @@
         <v>403</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D92" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D92" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F92" s="33">
-        <v>30000</v>
+      <c r="F92" s="1">
+        <v>7000</v>
       </c>
       <c r="G92" s="25"/>
       <c r="H92" s="25"/>
@@ -10978,17 +11035,15 @@
         <v>403</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>204</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F93" s="1"/>
       <c r="G93" s="25"/>
       <c r="H93" s="25"/>
     </row>
@@ -11000,17 +11055,81 @@
         <v>403</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>406</v>
+        <v>120</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F94" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="F94" s="25"/>
       <c r="G94" s="25"/>
       <c r="H94" s="25"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F95" s="33">
+        <v>30000</v>
+      </c>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11025,10 +11144,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353D209F-F23A-4BBD-9C0E-30D3275A1C3F}">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12397,19 +12516,19 @@
         <v>507</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E67" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="F67" s="27" t="s">
-        <v>504</v>
+        <v>385</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="9">
+        <v>5000</v>
       </c>
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
@@ -12419,19 +12538,19 @@
         <v>507</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C68" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E68" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="F68" s="27" t="s">
-        <v>376</v>
+        <v>385</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>595</v>
       </c>
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
@@ -12441,18 +12560,20 @@
         <v>507</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F69" s="1"/>
+        <v>389</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="F69" s="27" t="s">
+        <v>504</v>
+      </c>
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
     </row>
@@ -12461,19 +12582,19 @@
         <v>507</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F70" s="9">
-        <v>5000</v>
+        <v>390</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>376</v>
       </c>
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
@@ -12483,18 +12604,18 @@
         <v>507</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F71" s="9"/>
+      <c r="F71" s="1"/>
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
     </row>
@@ -12503,10 +12624,10 @@
         <v>507</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>34</v>
@@ -12515,7 +12636,7 @@
         <v>41</v>
       </c>
       <c r="F72" s="9">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
@@ -12525,13 +12646,13 @@
         <v>507</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>45</v>
@@ -12545,18 +12666,20 @@
         <v>507</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F74" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="F74" s="9">
+        <v>10000</v>
+      </c>
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
     </row>
@@ -12565,18 +12688,18 @@
         <v>507</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D75" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E75" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="F75" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F75" s="9"/>
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
     </row>
@@ -12584,22 +12707,20 @@
       <c r="A76" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B76" s="9"/>
+      <c r="B76" s="9" t="s">
+        <v>400</v>
+      </c>
       <c r="C76" s="1" t="s">
-        <v>500</v>
+        <v>161</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="F76" s="26" t="s">
-        <v>517</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>518</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F76" s="9"/>
+      <c r="G76" s="25"/>
       <c r="H76" s="25"/>
     </row>
     <row r="77" spans="1:8">
@@ -12610,13 +12731,13 @@
         <v>400</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>185</v>
+        <v>40</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>501</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="25"/>
@@ -12626,20 +12747,22 @@
       <c r="A78" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B78" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="C78" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="D78" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="E78" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F78" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>518</v>
+      </c>
       <c r="H78" s="25"/>
     </row>
     <row r="79" spans="1:8">
@@ -12649,16 +12772,16 @@
       <c r="B79" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C79" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F79" s="25"/>
+      <c r="C79" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F79" s="1"/>
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
     </row>
@@ -12669,18 +12792,16 @@
       <c r="B80" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="C80" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="D80" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="E80" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F80" s="25"/>
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
     </row>
@@ -12691,18 +12812,16 @@
       <c r="B81" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>34</v>
+      <c r="C81" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>510</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F81" s="25"/>
       <c r="G81" s="25"/>
       <c r="H81" s="25"/>
     </row>
@@ -12713,8 +12832,8 @@
       <c r="B82" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C82" s="25" t="s">
-        <v>490</v>
+      <c r="C82" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>34</v>
@@ -12722,8 +12841,8 @@
       <c r="E82" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F82" s="1">
-        <v>5000</v>
+      <c r="F82" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
@@ -12735,16 +12854,18 @@
       <c r="B83" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C83" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D83" s="9" t="s">
+      <c r="C83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F83" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>510</v>
+      </c>
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
     </row>
@@ -12755,17 +12876,17 @@
       <c r="B84" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C84" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E84" s="20" t="s">
+      <c r="C84" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F84" s="9">
-        <v>7000</v>
+      <c r="F84" s="1">
+        <v>5000</v>
       </c>
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
@@ -12777,16 +12898,16 @@
       <c r="B85" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C85" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="D85" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="E85" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F85" s="25"/>
+      <c r="C85" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F85" s="9"/>
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
     </row>
@@ -12797,16 +12918,18 @@
       <c r="B86" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C86" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F86" s="25"/>
+      <c r="C86" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F86" s="9">
+        <v>7000</v>
+      </c>
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
     </row>
@@ -12817,18 +12940,16 @@
       <c r="B87" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C87" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F87" s="25">
-        <v>3000</v>
-      </c>
+      <c r="C87" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="D87" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="E87" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F87" s="25"/>
       <c r="G87" s="25"/>
       <c r="H87" s="25"/>
     </row>
@@ -12840,7 +12961,7 @@
         <v>400</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>513</v>
+        <v>200</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>78</v>
@@ -12848,7 +12969,7 @@
       <c r="E88" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F88" s="9"/>
+      <c r="F88" s="25"/>
       <c r="G88" s="25"/>
       <c r="H88" s="25"/>
     </row>
@@ -12868,7 +12989,7 @@
       <c r="E89" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F89" s="25">
         <v>3000</v>
       </c>
       <c r="G89" s="25"/>
@@ -12924,20 +13045,16 @@
         <v>400</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>514</v>
-      </c>
-      <c r="D92" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E92" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="F92" s="25" t="s">
-        <v>506</v>
-      </c>
-      <c r="G92" s="25" t="s">
-        <v>521</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F92" s="9"/>
+      <c r="G92" s="25"/>
       <c r="H92" s="25"/>
     </row>
     <row r="93" spans="1:8">
@@ -12947,21 +13064,19 @@
       <c r="B93" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D93" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E93" s="26" t="s">
-        <v>495</v>
-      </c>
-      <c r="F93" s="26" t="s">
-        <v>517</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>518</v>
-      </c>
+      <c r="C93" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F93" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G93" s="25"/>
       <c r="H93" s="25"/>
     </row>
     <row r="94" spans="1:8">
@@ -12972,16 +13087,20 @@
         <v>400</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>519</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F94" s="9"/>
-      <c r="G94" s="25"/>
+        <v>514</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="F94" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="G94" s="25" t="s">
+        <v>521</v>
+      </c>
       <c r="H94" s="25"/>
     </row>
     <row r="95" spans="1:8">
@@ -12991,19 +13110,21 @@
       <c r="B95" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C95" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F95" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G95" s="25"/>
+      <c r="C95" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D95" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E95" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="F95" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>518</v>
+      </c>
       <c r="H95" s="25"/>
     </row>
     <row r="96" spans="1:8">
@@ -13013,16 +13134,16 @@
       <c r="B96" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>487</v>
+      <c r="C96" s="25" t="s">
+        <v>519</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F96" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F96" s="9"/>
       <c r="G96" s="25"/>
       <c r="H96" s="25"/>
     </row>
@@ -13033,16 +13154,18 @@
       <c r="B97" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C97" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="D97" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="E97" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F97" s="25"/>
+      <c r="C97" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F97" s="1">
+        <v>3000</v>
+      </c>
       <c r="G97" s="25"/>
       <c r="H97" s="25"/>
     </row>
@@ -13053,16 +13176,16 @@
       <c r="B98" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C98" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F98" s="25"/>
+      <c r="C98" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F98" s="1"/>
       <c r="G98" s="25"/>
       <c r="H98" s="25"/>
     </row>
@@ -13073,18 +13196,16 @@
       <c r="B99" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="C99" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="D99" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="E99" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F99" s="25"/>
       <c r="G99" s="25"/>
       <c r="H99" s="25"/>
     </row>
@@ -13095,18 +13216,16 @@
       <c r="B100" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E100" s="36" t="s">
-        <v>280</v>
-      </c>
-      <c r="F100" s="36">
-        <v>0</v>
-      </c>
+      <c r="C100" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F100" s="25"/>
       <c r="G100" s="25"/>
       <c r="H100" s="25"/>
     </row>
@@ -13117,8 +13236,8 @@
       <c r="B101" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C101" s="25" t="s">
-        <v>490</v>
+      <c r="C101" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>34</v>
@@ -13126,8 +13245,8 @@
       <c r="E101" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F101" s="1">
-        <v>15000</v>
+      <c r="F101" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="G101" s="25"/>
       <c r="H101" s="25"/>
@@ -13139,17 +13258,17 @@
       <c r="B102" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C102" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="D102" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E102" s="27" t="s">
-        <v>520</v>
-      </c>
-      <c r="F102" s="25" t="s">
-        <v>505</v>
+      <c r="C102" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E102" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="F102" s="36">
+        <v>0</v>
       </c>
       <c r="G102" s="25"/>
       <c r="H102" s="25"/>
@@ -13161,17 +13280,17 @@
       <c r="B103" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C103" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E103" s="20" t="s">
+      <c r="C103" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F103" s="9">
-        <v>7000</v>
+      <c r="F103" s="1">
+        <v>15000</v>
       </c>
       <c r="G103" s="25"/>
       <c r="H103" s="25"/>
@@ -13183,16 +13302,18 @@
       <c r="B104" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C104" s="27" t="s">
-        <v>512</v>
+      <c r="C104" s="25" t="s">
+        <v>490</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="E104" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F104" s="25"/>
+        <v>34</v>
+      </c>
+      <c r="E104" s="27" t="s">
+        <v>520</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>505</v>
+      </c>
       <c r="G104" s="25"/>
       <c r="H104" s="25"/>
     </row>
@@ -13203,16 +13324,18 @@
       <c r="B105" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C105" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F105" s="25"/>
+      <c r="C105" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E105" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F105" s="9">
+        <v>7000</v>
+      </c>
       <c r="G105" s="25"/>
       <c r="H105" s="25"/>
     </row>
@@ -13223,18 +13346,16 @@
       <c r="B106" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C106" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F106" s="25">
-        <v>3000</v>
-      </c>
+      <c r="C106" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="D106" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="E106" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F106" s="25"/>
       <c r="G106" s="25"/>
       <c r="H106" s="25"/>
     </row>
@@ -13246,7 +13367,7 @@
         <v>400</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>513</v>
+        <v>200</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>78</v>
@@ -13254,7 +13375,7 @@
       <c r="E107" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F107" s="9"/>
+      <c r="F107" s="25"/>
       <c r="G107" s="25"/>
       <c r="H107" s="25"/>
     </row>
@@ -13274,7 +13395,7 @@
       <c r="E108" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F108" s="1">
+      <c r="F108" s="25">
         <v>3000</v>
       </c>
       <c r="G108" s="25"/>
@@ -13330,20 +13451,16 @@
         <v>400</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>514</v>
-      </c>
-      <c r="D111" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E111" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="F111" s="25" t="s">
-        <v>506</v>
-      </c>
-      <c r="G111" s="37" t="s">
-        <v>522</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F111" s="9"/>
+      <c r="G111" s="25"/>
       <c r="H111" s="25"/>
     </row>
     <row r="112" spans="1:8">
@@ -13353,21 +13470,19 @@
       <c r="B112" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D112" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E112" s="26" t="s">
-        <v>474</v>
-      </c>
-      <c r="F112" s="26" t="s">
-        <v>517</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>518</v>
-      </c>
+      <c r="C112" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F112" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G112" s="25"/>
       <c r="H112" s="25"/>
     </row>
     <row r="113" spans="1:8">
@@ -13378,16 +13493,20 @@
         <v>400</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>519</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F113" s="9"/>
-      <c r="G113" s="25"/>
+        <v>514</v>
+      </c>
+      <c r="D113" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E113" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="F113" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="G113" s="37" t="s">
+        <v>522</v>
+      </c>
       <c r="H113" s="25"/>
     </row>
     <row r="114" spans="1:8">
@@ -13397,19 +13516,21 @@
       <c r="B114" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C114" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F114" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G114" s="25"/>
+      <c r="C114" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D114" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E114" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="F114" s="26" t="s">
+        <v>517</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>518</v>
+      </c>
       <c r="H114" s="25"/>
     </row>
     <row r="115" spans="1:8">
@@ -13420,17 +13541,59 @@
         <v>400</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="D115" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E115" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="F115" s="25"/>
+        <v>519</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F115" s="9"/>
       <c r="G115" s="25"/>
       <c r="H115" s="25"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C116" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F116" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G116" s="25"/>
+      <c r="H116" s="25"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C117" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="D117" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E117" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F117" s="25"/>
+      <c r="G117" s="25"/>
+      <c r="H117" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13447,8 +13610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB81825B-AC84-43BA-896B-AD045DB7862F}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15620,10 +15783,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51:F52"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16620,18 +16783,20 @@
         <v>14</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>152</v>
+        <v>34</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F49" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F49" s="1">
+        <v>3000</v>
+      </c>
       <c r="G49" s="1"/>
       <c r="H49" s="9"/>
     </row>
@@ -16643,16 +16808,16 @@
         <v>122</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>153</v>
+        <v>590</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>154</v>
+        <v>594</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>149</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>155</v>
+        <v>595</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="9"/>
@@ -16662,20 +16827,18 @@
         <v>14</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F51" s="1">
-        <v>3000</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="9"/>
     </row>
@@ -16687,16 +16850,16 @@
         <v>122</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>590</v>
+        <v>153</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>589</v>
+        <v>154</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>149</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>592</v>
+        <v>155</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="9"/>
@@ -16706,19 +16869,21 @@
         <v>14</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="F53" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G53" s="1"/>
       <c r="H53" s="9"/>
     </row>
     <row r="54" spans="1:8">
@@ -16726,21 +16891,21 @@
         <v>14</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>157</v>
+        <v>590</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>34</v>
+        <v>593</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F54" s="9">
-        <v>5000</v>
-      </c>
-      <c r="G54" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="G54" s="1"/>
       <c r="H54" s="9"/>
     </row>
     <row r="55" spans="1:8">
@@ -16748,13 +16913,13 @@
         <v>14</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>45</v>
@@ -16768,10 +16933,10 @@
         <v>14</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>34</v>
@@ -16780,7 +16945,7 @@
         <v>41</v>
       </c>
       <c r="F56" s="9">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
@@ -16790,13 +16955,13 @@
         <v>14</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>45</v>
@@ -16810,18 +16975,20 @@
         <v>14</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F58" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="F58" s="9">
+        <v>10000</v>
+      </c>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
     </row>
@@ -16830,40 +16997,40 @@
         <v>14</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>501</v>
-      </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
+        <v>98</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
@@ -16873,17 +17040,15 @@
         <v>103</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="D61" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F61" s="1">
-        <v>7000</v>
-      </c>
+      <c r="E61" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
@@ -16892,16 +17057,16 @@
         <v>14</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>107</v>
+        <v>279</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>254</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -16912,18 +17077,20 @@
         <v>14</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F63" s="1"/>
+        <v>279</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F63" s="1">
+        <v>7000</v>
+      </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
@@ -16932,16 +17099,16 @@
         <v>14</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>111</v>
+        <v>106</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -16952,20 +17119,18 @@
         <v>14</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F65" s="1">
-        <v>10000</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
@@ -16974,16 +17139,16 @@
         <v>14</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -16994,18 +17159,20 @@
         <v>14</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F67" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F67" s="1">
+        <v>10000</v>
+      </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
@@ -17014,20 +17181,18 @@
         <v>14</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F68" s="1">
-        <v>30000</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
@@ -17036,20 +17201,62 @@
         <v>14</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -17742,8 +17949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:F54"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18871,10 +19078,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFAFDA0-4A55-4936-A3DC-B19DEB90A342}">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19850,19 +20057,21 @@
         <v>554</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
+        <v>41</v>
+      </c>
+      <c r="F48" s="9">
+        <v>3000</v>
+      </c>
+      <c r="G48" s="1"/>
       <c r="H48" s="9"/>
     </row>
     <row r="49" spans="1:8">
@@ -19870,21 +20079,21 @@
         <v>554</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>40</v>
+        <v>590</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>34</v>
+        <v>594</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F49" s="9">
-        <v>3000</v>
-      </c>
-      <c r="G49" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G49" s="1"/>
       <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8">
@@ -19892,27 +20101,27 @@
         <v>554</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F50" s="9"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>554</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>40</v>
@@ -19924,30 +20133,28 @@
         <v>41</v>
       </c>
       <c r="F51" s="9">
-        <v>10000</v>
-      </c>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
+        <v>3000</v>
+      </c>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>554</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>561</v>
+        <v>157</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>556</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F52" s="9"/>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
     </row>
@@ -19959,16 +20166,16 @@
         <v>160</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>562</v>
+        <v>40</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>556</v>
+        <v>41</v>
+      </c>
+      <c r="F53" s="9">
+        <v>10000</v>
       </c>
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
@@ -19981,16 +20188,16 @@
         <v>160</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>40</v>
+        <v>561</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F54" s="1">
-        <v>3000</v>
+        <v>557</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>556</v>
       </c>
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
@@ -20003,15 +20210,17 @@
         <v>160</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>98</v>
+        <v>562</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F55" s="1"/>
+        <v>560</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>556</v>
+      </c>
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
     </row>
@@ -20020,18 +20229,20 @@
         <v>554</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F56" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F56" s="1">
+        <v>3000</v>
+      </c>
       <c r="G56" s="25"/>
       <c r="H56" s="25"/>
     </row>
@@ -20040,16 +20251,16 @@
         <v>554</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>501</v>
+        <v>98</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="25"/>
@@ -20060,16 +20271,16 @@
         <v>554</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>254</v>
+        <v>101</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="25"/>
@@ -20080,7 +20291,7 @@
         <v>554</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>338</v>
+        <v>159</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>40</v>
@@ -20088,12 +20299,10 @@
       <c r="D59" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F59" s="1">
-        <v>7000</v>
-      </c>
+      <c r="E59" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="F59" s="1"/>
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
     </row>
@@ -20102,16 +20311,16 @@
         <v>554</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>339</v>
+        <v>172</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>107</v>
+        <v>40</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>254</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="25"/>
@@ -20122,18 +20331,20 @@
         <v>554</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>121</v>
+        <v>40</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F61" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F61" s="1">
+        <v>7000</v>
+      </c>
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
     </row>
@@ -20142,20 +20353,18 @@
         <v>554</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F62" s="1">
-        <v>30000</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F62" s="1"/>
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
     </row>
@@ -20164,20 +20373,18 @@
         <v>554</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>203</v>
+        <v>120</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>204</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F63" s="1"/>
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
     </row>
@@ -20186,18 +20393,20 @@
         <v>554</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>564</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="F64" s="25"/>
+        <v>345</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64" s="1">
+        <v>30000</v>
+      </c>
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
     </row>
@@ -20206,18 +20415,20 @@
         <v>554</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>565</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="E65" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F65" s="25"/>
+        <v>346</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
     </row>
@@ -20226,18 +20437,18 @@
         <v>554</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>563</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F66" s="9"/>
+        <v>564</v>
+      </c>
+      <c r="D66" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="F66" s="25"/>
       <c r="G66" s="25"/>
       <c r="H66" s="25"/>
     </row>
@@ -20246,20 +20457,18 @@
         <v>554</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>564</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F67" s="9">
-        <v>3000</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F67" s="25"/>
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
     </row>
@@ -20268,20 +20477,18 @@
         <v>554</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>563</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="F68" s="9">
-        <v>2</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F68" s="9"/>
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
     </row>
@@ -20290,7 +20497,7 @@
         <v>554</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>564</v>
@@ -20298,10 +20505,12 @@
       <c r="D69" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E69" s="36" t="s">
-        <v>488</v>
-      </c>
-      <c r="F69" s="9"/>
+      <c r="E69" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69" s="9">
+        <v>3000</v>
+      </c>
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
     </row>
@@ -20310,7 +20519,7 @@
         <v>554</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C70" s="26" t="s">
         <v>563</v>
@@ -20318,11 +20527,11 @@
       <c r="D70" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E70" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F70" s="25">
-        <v>5000</v>
+      <c r="E70" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="F70" s="9">
+        <v>2</v>
       </c>
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
@@ -20332,18 +20541,18 @@
         <v>554</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>564</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F71" s="25"/>
+      <c r="D71" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" s="36" t="s">
+        <v>488</v>
+      </c>
+      <c r="F71" s="9"/>
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
     </row>
@@ -20352,19 +20561,19 @@
         <v>554</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C72" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F72" s="25" t="s">
-        <v>566</v>
+      <c r="D72" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F72" s="25">
+        <v>5000</v>
       </c>
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
@@ -20374,20 +20583,18 @@
         <v>554</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>564</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F73" s="25" t="s">
-        <v>566</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F73" s="25"/>
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
     </row>
@@ -20396,18 +20603,20 @@
         <v>554</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C74" s="26" t="s">
         <v>563</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F74" s="25"/>
+        <v>70</v>
+      </c>
+      <c r="F74" s="25" t="s">
+        <v>566</v>
+      </c>
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
     </row>
@@ -20416,19 +20625,19 @@
         <v>554</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C75" s="26" t="s">
         <v>564</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F75" s="25">
-        <v>3000</v>
+        <v>70</v>
+      </c>
+      <c r="F75" s="25" t="s">
+        <v>566</v>
       </c>
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
@@ -20438,7 +20647,7 @@
         <v>554</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>563</v>
@@ -20458,7 +20667,7 @@
         <v>554</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C77" s="26" t="s">
         <v>564</v>
@@ -20480,7 +20689,7 @@
         <v>554</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C78" s="26" t="s">
         <v>563</v>
@@ -20500,10 +20709,10 @@
         <v>554</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>34</v>
@@ -20511,8 +20720,8 @@
       <c r="E79" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F79" s="1">
-        <v>8000</v>
+      <c r="F79" s="25">
+        <v>3000</v>
       </c>
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
@@ -20522,20 +20731,18 @@
         <v>554</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="C80" s="26" t="s">
         <v>563</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>556</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F80" s="25"/>
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
     </row>
@@ -20544,18 +20751,18 @@
         <v>554</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>568</v>
+        <v>404</v>
       </c>
       <c r="C81" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="D81" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E81" s="26" t="s">
+      <c r="D81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F81" s="25">
+      <c r="F81" s="1">
         <v>8000</v>
       </c>
       <c r="G81" s="25"/>
@@ -20566,18 +20773,20 @@
         <v>554</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>569</v>
+        <v>432</v>
       </c>
       <c r="C82" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="D82" s="26" t="s">
-        <v>567</v>
-      </c>
-      <c r="E82" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F82" s="25"/>
+      <c r="D82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>556</v>
+      </c>
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
     </row>
@@ -20586,19 +20795,19 @@
         <v>554</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C83" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>588</v>
+      <c r="D83" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F83" s="25">
+        <v>8000</v>
       </c>
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
@@ -20608,20 +20817,18 @@
         <v>554</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C84" s="26" t="s">
         <v>563</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>34</v>
+        <v>567</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F84" s="25">
-        <v>5000</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F84" s="25"/>
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
     </row>
@@ -20630,18 +20837,20 @@
         <v>554</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>563</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F85" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>588</v>
+      </c>
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
     </row>
@@ -20650,18 +20859,18 @@
         <v>554</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C86" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E86" s="1" t="s">
+      <c r="D86" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86" s="25">
         <v>5000</v>
       </c>
       <c r="G86" s="25"/>
@@ -20672,7 +20881,7 @@
         <v>554</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>563</v>
@@ -20692,7 +20901,7 @@
         <v>554</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C88" s="26" t="s">
         <v>563</v>
@@ -20720,7 +20929,7 @@
         <v>563</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>78</v>
+        <v>170</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>45</v>
@@ -20756,13 +20965,13 @@
         <v>554</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C91" s="26" t="s">
         <v>563</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>45</v>
@@ -20776,18 +20985,20 @@
         <v>554</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C92" s="26" t="s">
         <v>563</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F92" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F92" s="1">
+        <v>5000</v>
+      </c>
       <c r="G92" s="25"/>
       <c r="H92" s="25"/>
     </row>
@@ -20796,16 +21007,16 @@
         <v>554</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C93" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="D93" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E93" s="20" t="s">
-        <v>501</v>
+      <c r="D93" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="25"/>
@@ -20816,20 +21027,18 @@
         <v>554</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C94" s="26" t="s">
         <v>563</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F94" s="1">
-        <v>5000</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F94" s="1"/>
       <c r="G94" s="25"/>
       <c r="H94" s="25"/>
     </row>
@@ -20838,16 +21047,16 @@
         <v>554</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C95" s="26" t="s">
         <v>563</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>278</v>
+        <v>34</v>
       </c>
       <c r="E95" s="20" t="s">
-        <v>254</v>
+        <v>501</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="25"/>
@@ -20858,19 +21067,19 @@
         <v>554</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C96" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="D96" s="20" t="s">
+      <c r="D96" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F96" s="1">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="G96" s="25"/>
       <c r="H96" s="25"/>
@@ -20880,16 +21089,16 @@
         <v>554</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C97" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>107</v>
+      <c r="D97" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E97" s="20" t="s">
+        <v>254</v>
       </c>
       <c r="F97" s="1"/>
       <c r="G97" s="25"/>
@@ -20900,18 +21109,20 @@
         <v>554</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C98" s="26" t="s">
         <v>563</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>110</v>
+      <c r="D98" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F98" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F98" s="1">
+        <v>7000</v>
+      </c>
       <c r="G98" s="25"/>
       <c r="H98" s="25"/>
     </row>
@@ -20920,16 +21131,16 @@
         <v>554</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C99" s="26" t="s">
         <v>563</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="25"/>
@@ -20940,20 +21151,18 @@
         <v>554</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C100" s="26" t="s">
         <v>563</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F100" s="1">
-        <v>10000</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="F100" s="1"/>
       <c r="G100" s="25"/>
       <c r="H100" s="25"/>
     </row>
@@ -20962,16 +21171,16 @@
         <v>554</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C101" s="26" t="s">
         <v>563</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="25"/>
@@ -20982,18 +21191,20 @@
         <v>554</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C102" s="26" t="s">
         <v>563</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F102" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F102" s="1">
+        <v>10000</v>
+      </c>
       <c r="G102" s="25"/>
       <c r="H102" s="25"/>
     </row>
@@ -21002,7 +21213,7 @@
         <v>554</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C103" s="26" t="s">
         <v>563</v>
@@ -21011,11 +21222,9 @@
         <v>34</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F103" s="1">
-        <v>30000</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="F103" s="1"/>
       <c r="G103" s="25"/>
       <c r="H103" s="25"/>
     </row>
@@ -21024,20 +21233,62 @@
         <v>554</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C104" s="26" t="s">
         <v>563</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="25"/>
       <c r="H104" s="25"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C105" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F105" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G105" s="25"/>
+      <c r="H105" s="25"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C106" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F106" s="1"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -21052,10 +21303,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22274,15 +22525,17 @@
         <v>116</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>151</v>
+        <v>447</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F59" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F59" s="9">
+        <v>3000</v>
+      </c>
       <c r="G59" s="1"/>
       <c r="H59" s="9"/>
     </row>
@@ -22291,19 +22544,19 @@
         <v>17</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>153</v>
+        <v>447</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>198</v>
+        <v>594</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>149</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>199</v>
+        <v>595</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="9"/>
@@ -22313,19 +22566,19 @@
         <v>17</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>144</v>
+        <v>197</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
       <c r="H61" s="9"/>
     </row>
     <row r="62" spans="1:8">
@@ -22333,21 +22586,21 @@
         <v>17</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F62" s="9">
-        <v>5000</v>
-      </c>
-      <c r="G62" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G62" s="1"/>
       <c r="H62" s="9"/>
     </row>
     <row r="63" spans="1:8">
@@ -22355,13 +22608,13 @@
         <v>17</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>45</v>
@@ -22375,23 +22628,21 @@
         <v>17</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>201</v>
+        <v>64</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>192</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F64" s="9">
+        <v>5000</v>
+      </c>
+      <c r="G64" s="9"/>
       <c r="H64" s="9"/>
     </row>
     <row r="65" spans="1:8">
@@ -22399,41 +22650,43 @@
         <v>17</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E65" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F65" s="23">
-        <v>5000</v>
-      </c>
-      <c r="G65" s="21"/>
+        <v>78</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
       <c r="H65" s="9"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
+      <c r="B66" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>192</v>
+      </c>
       <c r="H66" s="9"/>
     </row>
     <row r="67" spans="1:8">
@@ -22441,41 +22694,41 @@
         <v>17</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
+        <v>34</v>
+      </c>
+      <c r="E67" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="23">
+        <v>5000</v>
+      </c>
+      <c r="G67" s="21"/>
       <c r="H67" s="9"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F68" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G68" s="1"/>
+      <c r="B68" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
       <c r="H68" s="9"/>
     </row>
     <row r="69" spans="1:8">
@@ -22483,19 +22736,19 @@
         <v>17</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="E69" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
       <c r="H69" s="9"/>
     </row>
     <row r="70" spans="1:8">
@@ -22508,14 +22761,14 @@
       <c r="C70" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D70" s="20" t="s">
+      <c r="D70" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F70" s="1">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="9"/>
@@ -22525,16 +22778,16 @@
         <v>17</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>107</v>
+        <v>40</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>254</v>
       </c>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -22545,18 +22798,20 @@
         <v>17</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>121</v>
+        <v>40</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F72" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F72" s="1">
+        <v>7000</v>
+      </c>
       <c r="G72" s="1"/>
       <c r="H72" s="9"/>
     </row>
@@ -22565,20 +22820,18 @@
         <v>17</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F73" s="1">
-        <v>30000</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="9"/>
     </row>
@@ -22587,20 +22840,18 @@
         <v>17</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>203</v>
+        <v>120</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>204</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="9"/>
     </row>
@@ -22612,7 +22863,7 @@
         <v>122</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>291</v>
+        <v>40</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>34</v>
@@ -22621,7 +22872,7 @@
         <v>41</v>
       </c>
       <c r="F75" s="1">
-        <v>600000</v>
+        <v>30000</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="9"/>
@@ -22634,15 +22885,17 @@
         <v>122</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>323</v>
+        <v>203</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>324</v>
+        <v>2</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F76" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="G76" s="1"/>
       <c r="H76" s="9"/>
     </row>
@@ -22654,15 +22907,17 @@
         <v>122</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>325</v>
+        <v>34</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F77" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F77" s="1">
+        <v>600000</v>
+      </c>
       <c r="G77" s="1"/>
       <c r="H77" s="9"/>
     </row>
@@ -22674,17 +22929,15 @@
         <v>122</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>64</v>
+        <v>323</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>34</v>
+        <v>324</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F78" s="1">
-        <v>5000</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="9"/>
     </row>
@@ -22696,10 +22949,10 @@
         <v>122</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>45</v>
@@ -22716,7 +22969,7 @@
         <v>122</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>331</v>
+        <v>64</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>34</v>
@@ -22738,17 +22991,15 @@
         <v>122</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="9"/>
     </row>
@@ -22760,7 +23011,7 @@
         <v>122</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>64</v>
+        <v>331</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>34</v>
@@ -22782,15 +23033,17 @@
         <v>122</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F83" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="G83" s="1"/>
       <c r="H83" s="9"/>
     </row>
@@ -22802,20 +23055,18 @@
         <v>122</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>205</v>
+        <v>64</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>192</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F84" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G84" s="1"/>
       <c r="H84" s="9"/>
     </row>
     <row r="85" spans="1:8">
@@ -22823,20 +23074,64 @@
         <v>17</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>124</v>
+        <v>330</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>34</v>
+        <v>310</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="9"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H86" s="9"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA17C2A4-664A-4977-BC18-B2F33E4E1F89}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A73D0F-4F99-44DC-8366-0189705E140A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DriverSheet" sheetId="2" r:id="rId1"/>
@@ -2531,8 +2531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2598,7 +2598,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>591</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -2613,7 +2613,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>591</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -2643,7 +2643,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>591</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -2733,7 +2733,7 @@
         <v>464</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>591</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -2793,7 +2793,7 @@
         <v>547</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
+        <v>591</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -6155,8 +6155,8 @@
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13610,8 +13610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB81825B-AC84-43BA-896B-AD045DB7862F}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1B837D-220A-48A1-9F6F-79D669E55162}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583A7228-2DE5-4BAD-8808-4BF1B3E04D40}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6599" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6597" uniqueCount="637">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -1871,12 +1871,6 @@
     <t>SMSUK</t>
   </si>
   <si>
-    <t>override the offer</t>
-  </si>
-  <si>
-    <t>increase the weight</t>
-  </si>
-  <si>
     <t>txtSearchOnEligbileOffers</t>
   </si>
   <si>
@@ -1970,10 +1964,7 @@
     <t>select distinct channel from interaction_history_v where associatedoffer='PickBestOffer'</t>
   </si>
   <si>
-    <t>TS16_Regr_02</t>
-  </si>
-  <si>
-    <t>TS16_Regr_03</t>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -2666,8 +2657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2733,7 +2724,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>636</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -2748,7 +2739,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>636</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -2763,7 +2754,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>636</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -2778,7 +2769,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>636</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -2808,7 +2799,7 @@
         <v>360</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>636</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -2823,7 +2814,7 @@
         <v>409</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>636</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -2838,7 +2829,7 @@
         <v>446</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>636</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -2853,7 +2844,7 @@
         <v>459</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>636</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -2883,7 +2874,7 @@
         <v>504</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>636</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -2913,7 +2904,7 @@
         <v>541</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
+        <v>636</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -2928,7 +2919,7 @@
         <v>552</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
+        <v>636</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -2937,13 +2928,13 @@
         <v>518</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
+        <v>636</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -2952,10 +2943,10 @@
         <v>538</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -14890,8 +14881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353D209F-F23A-4BBD-9C0E-30D3275A1C3F}">
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C116" sqref="C116:F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17352,10 +17343,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB81825B-AC84-43BA-896B-AD045DB7862F}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18207,6 +18198,48 @@
       </c>
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -18224,7 +18257,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19230,7 +19263,7 @@
         <v>41</v>
       </c>
       <c r="F49" s="1">
-        <v>30000</v>
+        <v>90000</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -21060,7 +21093,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="42" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -21461,7 +21494,7 @@
         <v>70</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="9"/>
@@ -21483,7 +21516,7 @@
         <v>70</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="9"/>
@@ -21629,7 +21662,7 @@
         <v>70</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -21938,7 +21971,7 @@
         <v>158</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>34</v>
@@ -21947,7 +21980,7 @@
         <v>165</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
@@ -22008,7 +22041,7 @@
         <v>34</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F47" s="25" t="s">
         <v>263</v>
@@ -22210,7 +22243,7 @@
         <v>335</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>34</v>
@@ -25196,7 +25229,7 @@
         <v>555</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>553</v>
@@ -26286,10 +26319,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:F31"/>
+    <sheetView topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:XFD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27764,22 +27797,20 @@
       <c r="A71" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>155</v>
+      <c r="B71" s="15" t="s">
+        <v>159</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>605</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="G71" s="21"/>
+        <v>98</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
       <c r="H71" s="9"/>
     </row>
     <row r="72" spans="1:8">
@@ -27787,41 +27818,39 @@
         <v>17</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>606</v>
+        <v>159</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="G72" s="21"/>
+        <v>45</v>
+      </c>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
       <c r="H72" s="9"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B73" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E73" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
+      <c r="B73" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
       <c r="H73" s="9"/>
     </row>
     <row r="74" spans="1:8">
@@ -27829,19 +27858,19 @@
         <v>17</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
       <c r="H74" s="9"/>
     </row>
     <row r="75" spans="1:8">
@@ -27857,10 +27886,12 @@
       <c r="D75" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="20" t="s">
-        <v>496</v>
-      </c>
-      <c r="F75" s="1"/>
+      <c r="E75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="1">
+        <v>7000</v>
+      </c>
       <c r="G75" s="1"/>
       <c r="H75" s="9"/>
     </row>
@@ -27869,16 +27900,16 @@
         <v>17</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D76" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="E76" s="20" t="s">
-        <v>252</v>
+        <v>105</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -27889,20 +27920,18 @@
         <v>17</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D77" s="20" t="s">
-        <v>34</v>
+        <v>120</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F77" s="1">
-        <v>7000</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="9"/>
     </row>
@@ -27911,18 +27940,20 @@
         <v>17</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F78" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F78" s="1">
+        <v>30000</v>
+      </c>
       <c r="G78" s="1"/>
       <c r="H78" s="9"/>
     </row>
@@ -27931,18 +27962,20 @@
         <v>17</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F79" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="G79" s="1"/>
       <c r="H79" s="9"/>
     </row>
@@ -27954,7 +27987,7 @@
         <v>122</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>34</v>
@@ -27963,7 +27996,7 @@
         <v>41</v>
       </c>
       <c r="F80" s="1">
-        <v>30000</v>
+        <v>180000</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="9"/>
@@ -27976,17 +28009,15 @@
         <v>122</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>201</v>
+        <v>320</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>202</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="9"/>
     </row>
@@ -27998,17 +28029,15 @@
         <v>122</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>34</v>
+        <v>322</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F82" s="1">
-        <v>180000</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="9"/>
     </row>
@@ -28020,15 +28049,17 @@
         <v>122</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>320</v>
+        <v>64</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>321</v>
+        <v>34</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F83" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F83" s="1">
+        <v>5000</v>
+      </c>
       <c r="G83" s="1"/>
       <c r="H83" s="9"/>
     </row>
@@ -28040,10 +28071,10 @@
         <v>122</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>45</v>
@@ -28060,7 +28091,7 @@
         <v>122</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>64</v>
+        <v>328</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>34</v>
@@ -28069,7 +28100,7 @@
         <v>41</v>
       </c>
       <c r="F85" s="1">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="9"/>
@@ -28082,10 +28113,10 @@
         <v>122</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>324</v>
+        <v>605</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>45</v>
@@ -28102,16 +28133,16 @@
         <v>122</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>34</v>
+        <v>605</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F87" s="1">
-        <v>3000</v>
+        <v>70</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="9"/>
@@ -28124,15 +28155,17 @@
         <v>122</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>328</v>
+        <v>64</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>607</v>
+        <v>34</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F88" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F88" s="1">
+        <v>5000</v>
+      </c>
       <c r="G88" s="1"/>
       <c r="H88" s="9"/>
     </row>
@@ -28144,17 +28177,15 @@
         <v>122</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>607</v>
+        <v>308</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>194</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="9"/>
     </row>
@@ -28166,18 +28197,20 @@
         <v>122</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F90" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G90" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="H90" s="9"/>
     </row>
     <row r="91" spans="1:8">
@@ -28185,64 +28218,20 @@
         <v>17</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>327</v>
+        <v>124</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>308</v>
+        <v>34</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="9"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H92" s="9"/>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -28260,8 +28249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D9D972-BC3C-4059-B86B-F0917555266F}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+    <sheetView topLeftCell="C73" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28271,7 +28260,7 @@
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -28298,7 +28287,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="42" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
@@ -28815,7 +28804,7 @@
         <v>70</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -28837,7 +28826,7 @@
         <v>70</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
@@ -28892,10 +28881,10 @@
         <v>97</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E31" s="26" t="s">
         <v>45</v>
@@ -28912,16 +28901,16 @@
         <v>97</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
@@ -28934,10 +28923,10 @@
         <v>97</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E33" s="26" t="s">
         <v>45</v>
@@ -28954,7 +28943,7 @@
         <v>97</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>78</v>
@@ -28974,7 +28963,7 @@
         <v>97</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>34</v>
@@ -28996,7 +28985,7 @@
         <v>97</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>78</v>
@@ -29016,7 +29005,7 @@
         <v>97</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>34</v>
@@ -29038,7 +29027,7 @@
         <v>97</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>134</v>
@@ -29058,7 +29047,7 @@
         <v>97</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>136</v>
@@ -29067,7 +29056,7 @@
         <v>70</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
@@ -29080,7 +29069,7 @@
         <v>97</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>139</v>
@@ -29102,7 +29091,7 @@
         <v>97</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>141</v>
@@ -29124,7 +29113,7 @@
         <v>97</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>143</v>
@@ -29144,7 +29133,7 @@
         <v>97</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D43" s="20" t="s">
         <v>429</v>
@@ -29166,7 +29155,7 @@
         <v>97</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D44" s="20" t="s">
         <v>431</v>
@@ -29186,7 +29175,7 @@
         <v>97</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D45" s="20" t="s">
         <v>432</v>
@@ -29208,7 +29197,7 @@
         <v>97</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D46" s="20" t="s">
         <v>436</v>
@@ -29228,7 +29217,7 @@
         <v>97</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D47" s="20" t="s">
         <v>438</v>
@@ -29248,7 +29237,7 @@
         <v>97</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D48" s="20" t="s">
         <v>441</v>
@@ -29268,10 +29257,10 @@
         <v>97</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>82</v>
@@ -29288,10 +29277,10 @@
         <v>97</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>82</v>
@@ -29308,10 +29297,10 @@
         <v>97</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>45</v>
@@ -29328,7 +29317,7 @@
         <v>97</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>143</v>
@@ -29348,7 +29337,7 @@
         <v>97</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>145</v>
@@ -29368,7 +29357,7 @@
         <v>97</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>147</v>
@@ -29390,7 +29379,7 @@
         <v>97</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>34</v>
@@ -29412,7 +29401,7 @@
         <v>97</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>585</v>
@@ -29434,7 +29423,7 @@
         <v>97</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>151</v>
@@ -29454,7 +29443,7 @@
         <v>97</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>153</v>
@@ -29476,7 +29465,7 @@
         <v>97</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>34</v>
@@ -29498,7 +29487,7 @@
         <v>97</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>584</v>
@@ -29520,7 +29509,7 @@
         <v>97</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D61" s="26" t="s">
         <v>195</v>
@@ -29540,7 +29529,7 @@
         <v>97</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D62" s="26" t="s">
         <v>196</v>
@@ -29562,7 +29551,7 @@
         <v>97</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>34</v>
@@ -29584,7 +29573,7 @@
         <v>97</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D64" s="26" t="s">
         <v>603</v>
@@ -29606,10 +29595,10 @@
         <v>100</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E65" s="26" t="s">
         <v>45</v>
@@ -29626,16 +29615,16 @@
         <v>103</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E66" s="26" t="s">
         <v>148</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G66" s="25"/>
       <c r="H66" s="25"/>
@@ -29648,7 +29637,7 @@
         <v>104</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>34</v>
@@ -29670,16 +29659,16 @@
         <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E68" s="26" t="s">
         <v>148</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
@@ -29692,7 +29681,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>143</v>
@@ -29712,7 +29701,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>34</v>
@@ -29734,7 +29723,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>78</v>
@@ -29754,7 +29743,7 @@
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>34</v>
@@ -29763,7 +29752,7 @@
         <v>550</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
@@ -29776,16 +29765,16 @@
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>553</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
@@ -29798,7 +29787,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>34</v>
@@ -29820,7 +29809,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>99</v>
@@ -29840,7 +29829,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>102</v>
@@ -29860,7 +29849,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D77" s="20" t="s">
         <v>34</v>
@@ -29880,7 +29869,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D78" s="20" t="s">
         <v>276</v>
@@ -29900,7 +29889,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D79" s="20" t="s">
         <v>34</v>
@@ -29922,7 +29911,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>106</v>
@@ -29942,7 +29931,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>121</v>
@@ -29962,7 +29951,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>34</v>
@@ -29984,7 +29973,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>2</v>
@@ -30006,7 +29995,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>34</v>
@@ -30015,7 +30004,7 @@
         <v>41</v>
       </c>
       <c r="F84" s="1">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
@@ -30028,16 +30017,16 @@
         <v>1</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D85" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F85" s="25" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="G85" s="25" t="s">
         <v>263</v>
@@ -30046,13 +30035,13 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>638</v>
+        <v>538</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>34</v>
@@ -30068,13 +30057,13 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>639</v>
+        <v>538</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>34</v>

--- a/TestDataAndResults/TestData/SophieAutomation.xlsx
+++ b/TestDataAndResults/TestData/SophieAutomation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\eclipse-workspace\SofieKDF_HeadLess_5819_V2\SofieKDF_HeadLess_5819\SofieKDFHeadless\TestDataAndResults\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583A7228-2DE5-4BAD-8808-4BF1B3E04D40}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75AD467-607F-4221-9CAA-3F556EC0F60F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DriverSheet" sheetId="2" r:id="rId1"/>
@@ -21,20 +21,21 @@
     <sheet name="VerifyDeleteOffer" sheetId="5" r:id="rId6"/>
     <sheet name="RenameOffer" sheetId="21" r:id="rId7"/>
     <sheet name="VerifyEventAPI" sheetId="6" r:id="rId8"/>
-    <sheet name="PickBestChannel" sheetId="24" r:id="rId9"/>
-    <sheet name="VerifyRealtimeSpineAPI" sheetId="7" r:id="rId10"/>
-    <sheet name="RealtimeSpineWithNewProperty" sheetId="10" r:id="rId11"/>
-    <sheet name="EmailTempWithNewAttribute" sheetId="11" r:id="rId12"/>
-    <sheet name="MicrositeTempWithExistingAttrib" sheetId="12" r:id="rId13"/>
-    <sheet name="OBCCTempWithExistingAttrib" sheetId="17" r:id="rId14"/>
-    <sheet name="VerifyDBForNewAgreementModel" sheetId="13" r:id="rId15"/>
-    <sheet name="VerifyAgreementClassFornewProp" sheetId="14" r:id="rId16"/>
-    <sheet name="VerifyDiscardVersioIsSuccessful" sheetId="15" r:id="rId17"/>
-    <sheet name="EnsureRollbackIsSuccessful" sheetId="16" r:id="rId18"/>
-    <sheet name="AdpativeModelForUnsubscribe" sheetId="18" r:id="rId19"/>
-    <sheet name="SingleChannelOn" sheetId="22" r:id="rId20"/>
-    <sheet name="BatchDecisionOutputValidations" sheetId="8" r:id="rId21"/>
-    <sheet name="CheckLists" sheetId="9" r:id="rId22"/>
+    <sheet name="NewSubChannelValidation" sheetId="25" r:id="rId9"/>
+    <sheet name="PickBestChannel" sheetId="24" r:id="rId10"/>
+    <sheet name="VerifyRealtimeSpineAPI" sheetId="7" r:id="rId11"/>
+    <sheet name="RealtimeSpineWithNewProperty" sheetId="10" r:id="rId12"/>
+    <sheet name="EmailTempWithNewAttribute" sheetId="11" r:id="rId13"/>
+    <sheet name="MicrositeTempWithExistingAttrib" sheetId="12" r:id="rId14"/>
+    <sheet name="OBCCTempWithExistingAttrib" sheetId="17" r:id="rId15"/>
+    <sheet name="VerifyDBForNewAgreementModel" sheetId="13" r:id="rId16"/>
+    <sheet name="VerifyAgreementClassFornewProp" sheetId="14" r:id="rId17"/>
+    <sheet name="VerifyDiscardVersioIsSuccessful" sheetId="15" r:id="rId18"/>
+    <sheet name="EnsureRollbackIsSuccessful" sheetId="16" r:id="rId19"/>
+    <sheet name="AdpativeModelForUnsubscribe" sheetId="18" r:id="rId20"/>
+    <sheet name="SingleChannelOn" sheetId="22" r:id="rId21"/>
+    <sheet name="BatchDecisionOutputValidations" sheetId="8" r:id="rId22"/>
+    <sheet name="CheckLists" sheetId="9" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6597" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7056" uniqueCount="657">
   <si>
     <t>TS1_Regr_01</t>
   </si>
@@ -1964,7 +1965,67 @@
     <t>select distinct channel from interaction_history_v where associatedoffer='PickBestOffer'</t>
   </si>
   <si>
-    <t>N</t>
+    <t>NewSubChannelValidation</t>
+  </si>
+  <si>
+    <t>Verify the newly created subchannel is added to the data type subChannelsData</t>
+  </si>
+  <si>
+    <t>New Subchannel Scenario</t>
+  </si>
+  <si>
+    <t>btnManageOBCCSubchannels</t>
+  </si>
+  <si>
+    <t>click subchannel manage button for obcc</t>
+  </si>
+  <si>
+    <t>btnAddNewSubchannel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add new subchannel </t>
+  </si>
+  <si>
+    <t>txtNewSubchannel</t>
+  </si>
+  <si>
+    <t>enter the new subchannel</t>
+  </si>
+  <si>
+    <t>keyPressEnter</t>
+  </si>
+  <si>
+    <t>OfferWithNewSubChannel</t>
+  </si>
+  <si>
+    <t>AutoSubCC</t>
+  </si>
+  <si>
+    <t>divDataTypes</t>
+  </si>
+  <si>
+    <t>txtSearchDataType</t>
+  </si>
+  <si>
+    <t>SubChannelsData</t>
+  </si>
+  <si>
+    <t>lnkSubChannelsData</t>
+  </si>
+  <si>
+    <t>lnkRecords</t>
+  </si>
+  <si>
+    <t>link records click</t>
+  </si>
+  <si>
+    <t>verifyDataTypeForNewSubChannels</t>
+  </si>
+  <si>
+    <t>OutboundCC</t>
+  </si>
+  <si>
+    <t>switchOffToggleButton</t>
   </si>
 </sst>
 </file>
@@ -2655,10 +2716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMK20"/>
+  <dimension ref="A1:AMK21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2724,7 +2785,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>636</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -2739,7 +2800,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>636</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -2754,7 +2815,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>636</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -2769,7 +2830,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>636</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -2799,7 +2860,7 @@
         <v>360</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>636</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -2814,7 +2875,7 @@
         <v>409</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>636</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -2829,7 +2890,7 @@
         <v>446</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>636</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -2844,7 +2905,7 @@
         <v>459</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>636</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -2874,7 +2935,7 @@
         <v>504</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>636</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -2904,7 +2965,7 @@
         <v>541</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>636</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1"/>
     </row>
@@ -2919,7 +2980,7 @@
         <v>552</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>636</v>
+        <v>13</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -2934,7 +2995,7 @@
         <v>612</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>636</v>
+        <v>13</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -2952,6 +3013,21 @@
         <v>13</v>
       </c>
       <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2964,14 +3040,1855 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D9D972-BC3C-4059-B86B-F0917555266F}">
+  <dimension ref="A1:H87"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="42" t="s">
+        <v>614</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>617</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>623</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="13">
+        <v>43525</v>
+      </c>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="13">
+        <v>45719</v>
+      </c>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="36"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="36"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F47" s="36"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F48" s="36"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>626</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F49" s="36"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>627</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" s="36"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>628</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="36"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" s="36"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" s="9"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E61" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F63" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>603</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>629</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D66" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>631</v>
+      </c>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>633</v>
+      </c>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F74" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F79" s="1">
+        <v>7000</v>
+      </c>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F82" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" s="1">
+        <v>120000</v>
+      </c>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D85" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" s="26" t="s">
+        <v>634</v>
+      </c>
+      <c r="F85" s="25" t="s">
+        <v>635</v>
+      </c>
+      <c r="G85" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="H85" s="25"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F86" s="25">
+        <v>3000</v>
+      </c>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4427,10 +6344,10 @@
       <c r="C70" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="D70" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E70" s="26" t="s">
+      <c r="D70" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="20" t="s">
         <v>317</v>
       </c>
       <c r="F70" s="25"/>
@@ -4447,15 +6364,35 @@
       <c r="C71" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E71" s="1" t="s">
+      <c r="D71" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>656</v>
+      </c>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="9"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4469,7 +6406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F1A5F4-9176-42F8-9D13-5A98D8683A92}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -6550,7 +8487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162B974F-EC20-4DA5-9D9F-A5ACD05AB2C7}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -8230,7 +10167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CE6C41-C6E4-4D12-92D1-A13E0879FD5B}">
   <dimension ref="A1:H78"/>
   <sheetViews>
@@ -9861,7 +11798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DC9284-1E00-457F-9E32-CE2FA20C3859}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -10310,7 +12247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92316FED-85B2-43F2-9827-12AFBA752185}">
   <dimension ref="A1:H53"/>
   <sheetViews>
@@ -11424,11 +13361,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDE53E4-1746-48CE-AB4D-617AE971D39B}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -12811,7 +14748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2B88A9-98DC-469F-B6A8-72D4BD0DF47F}">
   <dimension ref="A1:H98"/>
   <sheetViews>
@@ -14877,7 +16814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353D209F-F23A-4BBD-9C0E-30D3275A1C3F}">
   <dimension ref="A1:H117"/>
   <sheetViews>
@@ -17329,917 +19266,6 @@
       <c r="F117" s="25"/>
       <c r="G117" s="25"/>
       <c r="H117" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-  </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB81825B-AC84-43BA-896B-AD045DB7862F}">
-  <dimension ref="A1:H43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="25"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>529</v>
-      </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2</v>
-      </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="25">
-        <v>5000</v>
-      </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="25">
-        <v>5000</v>
-      </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" s="1">
-        <v>2000</v>
-      </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>534</v>
-      </c>
-      <c r="F41" s="25" t="s">
-        <v>535</v>
-      </c>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>450</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F42" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>450</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -19300,6 +20326,917 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB81825B-AC84-43BA-896B-AD045DB7862F}">
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="25">
+        <v>5000</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="25">
+        <v>5000</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>534</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>535</v>
+      </c>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A4A3E8-7749-4CD2-9C58-29CEA684BAD6}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -19313,7 +21250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -19535,7 +21472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2:B3"/>
   <sheetViews>
@@ -21065,8 +23002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE57E7C9-DCBE-422B-912B-E6D243214D2D}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:F41"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24096,7 +26033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFAFDA0-4A55-4936-A3DC-B19DEB90A342}">
   <dimension ref="A1:H106"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D105" sqref="D105:E106"/>
     </sheetView>
   </sheetViews>
@@ -26321,8 +28258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:XFD72"/>
+    <sheetView topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48:F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28246,21 +30183,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D9D972-BC3C-4059-B86B-F0917555266F}">
-  <dimension ref="A1:H87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE08C911-4A9E-422E-8206-4D5376182B33}">
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView topLeftCell="C73" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="81.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -28286,16 +30224,14 @@
       <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="42" t="s">
-        <v>614</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
@@ -28325,7 +30261,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
@@ -28339,7 +30275,7 @@
       <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="1"/>
@@ -28347,7 +30283,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>36</v>
@@ -28361,7 +30297,7 @@
       <c r="E6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" t="s">
         <v>34</v>
       </c>
       <c r="G6" s="1"/>
@@ -28369,7 +30305,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>39</v>
@@ -28391,7 +30327,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>42</v>
@@ -28411,7 +30347,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>46</v>
@@ -28433,7 +30369,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>47</v>
@@ -28453,7 +30389,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>50</v>
@@ -28461,7 +30397,7 @@
       <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -28475,7 +30411,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>51</v>
@@ -28483,7 +30419,7 @@
       <c r="C12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -28497,7 +30433,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>54</v>
@@ -28519,7 +30455,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>55</v>
@@ -28539,7 +30475,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>55</v>
@@ -28561,7 +30497,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>55</v>
@@ -28583,7 +30519,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>55</v>
@@ -28603,7 +30539,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>58</v>
@@ -28623,1457 +30559,1471 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>319</v>
+        <v>181</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>319</v>
+        <v>56</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+        <v>45</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
+        <v>41</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>483</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="36" t="s">
+        <v>483</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
+        <v>63</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>179</v>
+        <v>64</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
+        <v>41</v>
+      </c>
+      <c r="F26" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>319</v>
+        <v>65</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
+        <v>45</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
+        <v>638</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>319</v>
+        <v>73</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
+        <v>70</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
+        <v>45</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>617</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
+        <v>40</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="1">
+        <v>3000</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>621</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>624</v>
-      </c>
-      <c r="F32" s="26" t="s">
-        <v>622</v>
-      </c>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>623</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
+        <v>84</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>618</v>
+        <v>86</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>618</v>
+        <v>86</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
+        <v>88</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>273</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
+        <v>88</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>618</v>
+        <v>86</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="1">
-        <v>3000</v>
-      </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
+        <v>82</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>618</v>
+        <v>86</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
+        <v>88</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>625</v>
-      </c>
+      <c r="C39" s="26" t="s">
+        <v>640</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>639</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="25"/>
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="13">
-        <v>43525</v>
-      </c>
+      <c r="C40" s="26" t="s">
+        <v>642</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="25"/>
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="C41" s="26" t="s">
+        <v>644</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="E41" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F41" s="13">
-        <v>45719</v>
+      <c r="F41" s="25" t="s">
+        <v>647</v>
       </c>
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F42" s="9"/>
+      <c r="C42" s="26" t="s">
+        <v>644</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="F42" s="25"/>
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="36" t="s">
-        <v>430</v>
+      <c r="C43" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="25">
+        <v>3000</v>
       </c>
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F44" s="36"/>
+      <c r="C44" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="25"/>
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="36" t="s">
-        <v>433</v>
+      <c r="C45" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="25">
+        <v>3000</v>
       </c>
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F46" s="36"/>
+      <c r="C46" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="25"/>
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F47" s="36"/>
+      <c r="C47" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" s="9"/>
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F48" s="36"/>
+      <c r="C48" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>646</v>
+      </c>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>626</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F49" s="36"/>
+      <c r="C49" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F49" s="13">
+        <v>43526</v>
+      </c>
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>627</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F50" s="36"/>
+      <c r="C50" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F50" s="13">
+        <v>45717</v>
+      </c>
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>628</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F51" s="36"/>
+      <c r="C51" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="9"/>
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F52" s="36"/>
+      <c r="C52" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>430</v>
+      </c>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F53" s="9"/>
+      <c r="C53" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>431</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" s="36"/>
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>149</v>
+      <c r="C54" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>433</v>
       </c>
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F55" s="1">
-        <v>3000</v>
-      </c>
+      <c r="C55" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>626</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" s="25"/>
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>618</v>
+      <c r="C56" s="26" t="s">
+        <v>508</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>585</v>
+        <v>143</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>586</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F56" s="25"/>
       <c r="G56" s="25"/>
       <c r="H56" s="25"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F57" s="1"/>
+      <c r="C57" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>631</v>
+      </c>
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>618</v>
+      <c r="C58" s="26" t="s">
+        <v>508</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>154</v>
+        <v>41</v>
+      </c>
+      <c r="F58" s="1">
+        <v>3000</v>
       </c>
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F59" s="1">
-        <v>3000</v>
+      <c r="C59" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>632</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>647</v>
       </c>
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>618</v>
+      <c r="C60" s="26" t="s">
+        <v>508</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>584</v>
+        <v>143</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>583</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F60" s="25"/>
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F61" s="25"/>
+      <c r="C61" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="1">
+        <v>5000</v>
+      </c>
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="F62" s="25" t="s">
-        <v>197</v>
-      </c>
+      <c r="C62" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62" s="25"/>
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>618</v>
+      <c r="C63" s="26" t="s">
+        <v>508</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F63" s="1">
-        <v>3000</v>
+        <v>550</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>646</v>
       </c>
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>603</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>604</v>
+      <c r="C64" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>646</v>
       </c>
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>629</v>
-      </c>
-      <c r="E65" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F65" s="25"/>
+        <v>97</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65" s="1">
+        <v>3000</v>
+      </c>
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D66" s="26" t="s">
-        <v>630</v>
-      </c>
-      <c r="E66" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="F66" s="25" t="s">
-        <v>631</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" s="1"/>
       <c r="G66" s="25"/>
       <c r="H66" s="25"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>618</v>
+        <v>97</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>508</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F67" s="1">
-        <v>3000</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F67" s="1"/>
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>632</v>
-      </c>
-      <c r="E68" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="F68" s="25" t="s">
-        <v>633</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="F68" s="1"/>
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F69" s="25"/>
+        <v>97</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="F69" s="1"/>
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D70" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D70" s="20" t="s">
         <v>34</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F70" s="1">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>618</v>
+        <v>97</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>508</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F71" s="25"/>
+        <v>107</v>
+      </c>
+      <c r="F71" s="1"/>
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>618</v>
+        <v>97</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>508</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>625</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F72" s="1"/>
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>618</v>
+        <v>97</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>508</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>616</v>
+        <v>34</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>625</v>
+        <v>41</v>
+      </c>
+      <c r="F73" s="1">
+        <v>30000</v>
       </c>
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>618</v>
+        <v>97</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>508</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F74" s="1">
-        <v>3000</v>
+        <v>3</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>618</v>
+        <v>97</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>508</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F75" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="F75" s="1">
+        <v>120000</v>
+      </c>
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F76" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="F76" s="25"/>
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F77" s="1">
         <v>1</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D77" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E77" s="20" t="s">
-        <v>496</v>
-      </c>
-      <c r="F77" s="1"/>
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D78" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="E78" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="F78" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>648</v>
+      </c>
+      <c r="E78" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F78" s="25"/>
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E79" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E79" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F79" s="1">
-        <v>7000</v>
+      <c r="F79" s="25">
+        <v>6000</v>
       </c>
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F80" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>649</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>650</v>
+      </c>
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F81" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F81" s="25">
+        <v>3000</v>
+      </c>
       <c r="G81" s="25"/>
       <c r="H81" s="25"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F82" s="1">
-        <v>30000</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="D82" s="26" t="s">
+        <v>651</v>
+      </c>
+      <c r="E82" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F82" s="25"/>
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>202</v>
+        <v>97</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E83" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="F83" s="25">
+        <v>0</v>
       </c>
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F84" s="1">
-        <v>120000</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>653</v>
+      </c>
+      <c r="D84" s="26" t="s">
+        <v>652</v>
+      </c>
+      <c r="E84" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F84" s="25"/>
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>618</v>
+        <v>97</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>653</v>
       </c>
       <c r="D85" s="26" t="s">
         <v>34</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>634</v>
-      </c>
-      <c r="F85" s="25" t="s">
-        <v>635</v>
-      </c>
-      <c r="G85" s="25" t="s">
-        <v>263</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F85" s="25">
+        <v>8000</v>
+      </c>
+      <c r="G85" s="25"/>
       <c r="H85" s="25"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F86" s="25">
-        <v>3000</v>
-      </c>
-      <c r="G86" s="25"/>
+        <v>97</v>
+      </c>
+      <c r="C86" s="26" t="s">
+        <v>653</v>
+      </c>
+      <c r="D86" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="F86" s="25" t="s">
+        <v>647</v>
+      </c>
+      <c r="G86" s="25" t="s">
+        <v>655</v>
+      </c>
       <c r="H86" s="25"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>618</v>
+        <v>97</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>653</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F87" s="25"/>
+        <v>41</v>
+      </c>
+      <c r="F87" s="25">
+        <v>3000</v>
+      </c>
       <c r="G87" s="25"/>
       <c r="H87" s="25"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88" s="26" t="s">
+        <v>653</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
